--- a/gluonkorea_report/public/xlsxTemplate/template_report.xlsx
+++ b/gluonkorea_report/public/xlsxTemplate/template_report.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28080" yWindow="3060" windowWidth="27400" windowHeight="17920" tabRatio="1000"/>
+    <workbookView xWindow="0" yWindow="2200" windowWidth="27400" windowHeight="17920" tabRatio="1000"/>
   </bookViews>
   <sheets>
     <sheet name="종합요약" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="128">
   <si>
     <t>* 리포트 정보</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -521,6 +521,26 @@
   </si>
   <si>
     <t>김진우 대표님</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5주</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -902,7 +922,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1149,6 +1169,84 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1161,76 +1259,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1240,15 +1281,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1583,21 +1615,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="92" t="str">
+      <c r="B2" s="89" t="str">
         <f>$D$6&amp;" 1월 성과 리포트"</f>
         <v>파괴몰닷컴 1월 성과 리포트</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
@@ -1617,90 +1649,90 @@
     </row>
     <row r="5" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="104" t="s">
+      <c r="C6" s="86"/>
+      <c r="D6" s="102" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="87" t="s">
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="87"/>
-      <c r="J6" s="93" t="s">
+      <c r="I6" s="86"/>
+      <c r="J6" s="90" t="s">
         <v>115</v>
       </c>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="95"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="92"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="90"/>
-      <c r="D7" s="106" t="s">
+      <c r="C7" s="87"/>
+      <c r="D7" s="104" t="s">
         <v>122</v>
       </c>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="90" t="s">
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="90"/>
-      <c r="J7" s="96" t="s">
+      <c r="I7" s="87"/>
+      <c r="J7" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="98"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="95"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="90"/>
-      <c r="D8" s="106" t="s">
+      <c r="C8" s="87"/>
+      <c r="D8" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="90" t="s">
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="90"/>
-      <c r="J8" s="96" t="s">
+      <c r="I8" s="87"/>
+      <c r="J8" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97"/>
-      <c r="M8" s="98"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="95"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B9" s="103" t="s">
+      <c r="B9" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="91"/>
-      <c r="D9" s="108" t="s">
+      <c r="C9" s="88"/>
+      <c r="D9" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="99" t="s">
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="K9" s="100"/>
-      <c r="L9" s="100"/>
-      <c r="M9" s="101"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="98"/>
     </row>
     <row r="10" spans="2:13" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
@@ -1716,17 +1748,17 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="82" t="s">
+      <c r="L11" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="M11" s="83"/>
+      <c r="M11" s="109"/>
     </row>
     <row r="12" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B13" s="86" t="s">
+      <c r="B13" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="87"/>
+      <c r="C13" s="86"/>
       <c r="D13" s="6" t="s">
         <v>10</v>
       </c>
@@ -1759,11 +1791,11 @@
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="84" t="str">
+      <c r="B14" s="110" t="str">
         <f>D6</f>
         <v>파괴몰닷컴</v>
       </c>
-      <c r="C14" s="85"/>
+      <c r="C14" s="111"/>
       <c r="D14" s="20" t="s">
         <v>56</v>
       </c>
@@ -1805,8 +1837,8 @@
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="85"/>
-      <c r="C15" s="85"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="111"/>
       <c r="D15" s="20" t="s">
         <v>57</v>
       </c>
@@ -1848,10 +1880,10 @@
       </c>
     </row>
     <row r="16" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="85"/>
+      <c r="C16" s="111"/>
       <c r="D16" s="11"/>
       <c r="E16" s="14">
         <f>SUM(E14:E15)</f>
@@ -1908,10 +1940,10 @@
       <c r="M18" s="1"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B20" s="86" t="s">
+      <c r="B20" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="87"/>
+      <c r="C20" s="86"/>
       <c r="D20" s="6" t="s">
         <v>19</v>
       </c>
@@ -1944,45 +1976,37 @@
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B21" s="84" t="str">
+      <c r="B21" s="110" t="str">
         <f>B14</f>
         <v>파괴몰닷컴</v>
       </c>
-      <c r="C21" s="84"/>
+      <c r="C21" s="110"/>
       <c r="D21" s="63" t="s">
         <v>101</v>
       </c>
       <c r="E21" s="77">
-        <v>1626265</v>
+        <v>0</v>
       </c>
       <c r="F21" s="77">
-        <v>25386</v>
+        <v>0</v>
       </c>
       <c r="G21" s="77">
-        <v>5036900</v>
+        <v>0</v>
       </c>
       <c r="H21" s="77">
-        <v>1729</v>
+        <v>0</v>
       </c>
       <c r="I21" s="77">
-        <v>10390436</v>
-      </c>
-      <c r="J21" s="79">
-        <v>6.8108406208146219E-2</v>
-      </c>
-      <c r="K21" s="76">
-        <v>1.5610002059934881E-2</v>
-      </c>
-      <c r="L21" s="75">
-        <v>198.41251083274247</v>
-      </c>
-      <c r="M21" s="78">
-        <v>2.0628632690742323</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" s="79"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="78"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B22" s="84"/>
-      <c r="C22" s="84"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="110"/>
       <c r="D22" s="63" t="s">
         <v>102</v>
       </c>
@@ -2024,51 +2048,58 @@
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B23" s="88" t="s">
+      <c r="B23" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="89"/>
+      <c r="C23" s="113"/>
       <c r="D23" s="11"/>
       <c r="E23" s="13">
         <f t="shared" ref="E23:M23" si="1">IFERROR(E22/E21-1,0)</f>
-        <v>-0.10215616766025215</v>
+        <v>0</v>
       </c>
       <c r="F23" s="13">
         <f t="shared" si="1"/>
-        <v>-0.15016150634207837</v>
+        <v>0</v>
       </c>
       <c r="G23" s="13">
         <f t="shared" si="1"/>
-        <v>-0.19130417518711906</v>
+        <v>0</v>
       </c>
       <c r="H23" s="13">
         <f>IFERROR(H22/H21-1,0)</f>
-        <v>-0.56969346443030655</v>
+        <v>0</v>
       </c>
       <c r="I23" s="13">
         <f>IFERROR(I22/I21-1,0)</f>
-        <v>-0.46151903538985273</v>
+        <v>0</v>
       </c>
       <c r="J23" s="13">
         <f t="shared" si="1"/>
-        <v>-0.49366080875256146</v>
+        <v>0</v>
       </c>
       <c r="K23" s="13">
         <f>IFERROR(K22/K21-1,0)</f>
-        <v>-5.3467359191771591E-2</v>
+        <v>0</v>
       </c>
       <c r="L23" s="13">
         <f>IFERROR(L22/L21-1,0)</f>
-        <v>-4.8412338523231901E-2</v>
+        <v>0</v>
       </c>
       <c r="M23" s="13">
         <f t="shared" si="1"/>
-        <v>-0.3341365837584942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C15"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="H8:I9"/>
@@ -2085,13 +2116,6 @@
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="D9:G9"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2129,32 +2153,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="114" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="113"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="114" t="s">
+      <c r="C4" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="114"/>
+      <c r="D4" s="115"/>
       <c r="E4" s="6" t="s">
         <v>23</v>
       </c>
@@ -2196,8 +2220,8 @@
       <c r="B5" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
       <c r="E5" s="32">
         <f>SUM(E6:E10)</f>
         <v>1460132</v>
@@ -2248,7 +2272,7 @@
       <c r="B6" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="84" t="s">
         <v>103</v>
       </c>
       <c r="D6" s="85"/>
@@ -2302,7 +2326,7 @@
       <c r="B7" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="84" t="s">
         <v>104</v>
       </c>
       <c r="D7" s="85"/>
@@ -2359,7 +2383,7 @@
       <c r="B8" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="84" t="s">
         <v>105</v>
       </c>
       <c r="D8" s="85"/>
@@ -2416,7 +2440,7 @@
       <c r="B9" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="84" t="s">
         <v>106</v>
       </c>
       <c r="D9" s="85"/>
@@ -2473,7 +2497,7 @@
       <c r="B10" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="85" t="s">
+      <c r="C10" s="84" t="s">
         <v>107</v>
       </c>
       <c r="D10" s="85"/>
@@ -2563,21 +2587,21 @@
       <c r="P12" s="8"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B13" s="110"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="110"/>
-      <c r="M13" s="110"/>
-      <c r="N13" s="110"/>
-      <c r="O13" s="110"/>
-      <c r="P13" s="110"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="117"/>
+      <c r="M13" s="117"/>
+      <c r="N13" s="117"/>
+      <c r="O13" s="117"/>
+      <c r="P13" s="117"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="10" t="s">
@@ -2631,20 +2655,20 @@
         <v>39</v>
       </c>
       <c r="C15" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$E$28:$E$925)</f>
-        <v>135081</v>
+        <f t="shared" ref="C15:C21" si="4">SUMIF($D$28:$D$925,$B$15:$B$21,$E$28:$E$925)</f>
+        <v>270162</v>
       </c>
       <c r="D15" s="12">
-        <f>C15/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
-        <v>33770.25</v>
+        <f t="shared" ref="D15:D21" si="5">C15/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <v>67540.5</v>
       </c>
       <c r="E15" s="12">
-        <f ca="1">SUMIF($D$28:$D$925,$B$15:$B$21,$F$28:$F$399)</f>
-        <v>2033</v>
+        <f t="shared" ref="E15:E21" ca="1" si="6">SUMIF($D$28:$D$925,$B$15:$B$21,$F$28:$F$399)</f>
+        <v>4066</v>
       </c>
       <c r="F15" s="12">
-        <f ca="1">E15/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
-        <v>508.25</v>
+        <f t="shared" ref="F15:F21" ca="1" si="7">E15/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <v>1016.5</v>
       </c>
       <c r="G15" s="13">
         <f ca="1">IFERROR(E15/C15,0)</f>
@@ -2655,32 +2679,32 @@
         <v>193.03492375799311</v>
       </c>
       <c r="I15" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$G$28:$G$925)</f>
-        <v>392440</v>
+        <f t="shared" ref="I15:I21" si="8">SUMIF($D$28:$D$925,$B$15:$B$21,$G$28:$G$925)</f>
+        <v>784880</v>
       </c>
       <c r="J15" s="12">
-        <f>I15/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
-        <v>98110</v>
+        <f t="shared" ref="J15:J21" si="9">I15/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <v>196220</v>
       </c>
       <c r="K15" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$H$28:$H$925)</f>
-        <v>67</v>
+        <f t="shared" ref="K15:K21" si="10">SUMIF($D$28:$D$925,$B$15:$B$21,$H$28:$H$925)</f>
+        <v>134</v>
       </c>
       <c r="L15" s="12">
-        <f>K15/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
-        <v>16.75</v>
+        <f t="shared" ref="L15:L21" si="11">K15/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <v>33.5</v>
       </c>
       <c r="M15" s="13">
         <f ca="1">IFERROR(K15/E15,0)</f>
         <v>3.2956222331529762E-2</v>
       </c>
       <c r="N15" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$I$28:$I$925)</f>
-        <v>449614</v>
+        <f t="shared" ref="N15:N21" si="12">SUMIF($D$28:$D$925,$B$15:$B$21,$I$28:$I$925)</f>
+        <v>899228</v>
       </c>
       <c r="O15" s="12">
-        <f>N15/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
-        <v>112403.5</v>
+        <f t="shared" ref="O15:O21" si="13">N15/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <v>224807</v>
       </c>
       <c r="P15" s="43">
         <f>IFERROR(N15/I15,0)</f>
@@ -2692,59 +2716,59 @@
         <v>40</v>
       </c>
       <c r="C16" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$E$28:$E$925)</f>
-        <v>120093</v>
+        <f t="shared" si="4"/>
+        <v>240186</v>
       </c>
       <c r="D16" s="12">
-        <f>C16/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
-        <v>30023.25</v>
+        <f t="shared" si="5"/>
+        <v>60046.5</v>
       </c>
       <c r="E16" s="12">
-        <f ca="1">SUMIF($D$28:$D$925,$B$15:$B$21,$F$28:$F$399)</f>
-        <v>1796</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3592</v>
       </c>
       <c r="F16" s="12">
-        <f ca="1">E16/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
-        <v>449</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>898</v>
       </c>
       <c r="G16" s="13">
-        <f t="shared" ref="G16:G22" ca="1" si="4">IFERROR(E16/C16,0)</f>
+        <f t="shared" ref="G16:G22" ca="1" si="14">IFERROR(E16/C16,0)</f>
         <v>1.4955076482392813E-2</v>
       </c>
       <c r="H16" s="12">
-        <f t="shared" ref="H16:H22" ca="1" si="5">IFERROR(I16/E16,0)</f>
+        <f t="shared" ref="H16:H22" ca="1" si="15">IFERROR(I16/E16,0)</f>
         <v>187.86191536748331</v>
       </c>
       <c r="I16" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$G$28:$G$925)</f>
-        <v>337400</v>
+        <f t="shared" si="8"/>
+        <v>674800</v>
       </c>
       <c r="J16" s="12">
-        <f>I16/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
-        <v>84350</v>
+        <f t="shared" si="9"/>
+        <v>168700</v>
       </c>
       <c r="K16" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$H$28:$H$925)</f>
-        <v>68</v>
+        <f t="shared" si="10"/>
+        <v>136</v>
       </c>
       <c r="L16" s="12">
-        <f>K16/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
-        <v>17</v>
+        <f t="shared" si="11"/>
+        <v>34</v>
       </c>
       <c r="M16" s="13">
-        <f t="shared" ref="M16:M22" ca="1" si="6">IFERROR(K16/E16,0)</f>
+        <f t="shared" ref="M16:M22" ca="1" si="16">IFERROR(K16/E16,0)</f>
         <v>3.7861915367483297E-2</v>
       </c>
       <c r="N16" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$I$28:$I$925)</f>
-        <v>582856</v>
+        <f t="shared" si="12"/>
+        <v>1165712</v>
       </c>
       <c r="O16" s="12">
-        <f>N16/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
-        <v>145714</v>
+        <f t="shared" si="13"/>
+        <v>291428</v>
       </c>
       <c r="P16" s="43">
-        <f t="shared" ref="P16:P22" si="7">IFERROR(N16/I16,0)</f>
+        <f t="shared" ref="P16:P22" si="17">IFERROR(N16/I16,0)</f>
         <v>1.7274925903971547</v>
       </c>
     </row>
@@ -2753,59 +2777,59 @@
         <v>41</v>
       </c>
       <c r="C17" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$E$28:$E$925)</f>
-        <v>94139</v>
+        <f t="shared" si="4"/>
+        <v>188278</v>
       </c>
       <c r="D17" s="12">
-        <f>C17/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
-        <v>23534.75</v>
+        <f t="shared" si="5"/>
+        <v>47069.5</v>
       </c>
       <c r="E17" s="12">
-        <f ca="1">SUMIF($D$28:$D$925,$B$15:$B$21,$F$28:$F$399)</f>
-        <v>1343</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2686</v>
       </c>
       <c r="F17" s="12">
-        <f ca="1">E17/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
-        <v>335.75</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>671.5</v>
       </c>
       <c r="G17" s="13">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1.4266138369857339E-2</v>
       </c>
       <c r="H17" s="12">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="15"/>
         <v>191.77215189873417</v>
       </c>
       <c r="I17" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$G$28:$G$925)</f>
-        <v>257550</v>
+        <f t="shared" si="8"/>
+        <v>515100</v>
       </c>
       <c r="J17" s="12">
-        <f>I17/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
-        <v>64387.5</v>
+        <f t="shared" si="9"/>
+        <v>128775</v>
       </c>
       <c r="K17" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$H$28:$H$925)</f>
-        <v>46</v>
+        <f t="shared" si="10"/>
+        <v>92</v>
       </c>
       <c r="L17" s="12">
-        <f>K17/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
-        <v>11.5</v>
+        <f t="shared" si="11"/>
+        <v>23</v>
       </c>
       <c r="M17" s="13">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="16"/>
         <v>3.4251675353685777E-2</v>
       </c>
       <c r="N17" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$I$28:$I$925)</f>
-        <v>367092</v>
+        <f t="shared" si="12"/>
+        <v>734184</v>
       </c>
       <c r="O17" s="12">
-        <f>N17/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
-        <v>91773</v>
+        <f t="shared" si="13"/>
+        <v>183546</v>
       </c>
       <c r="P17" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1.4253232382061736</v>
       </c>
     </row>
@@ -2814,59 +2838,59 @@
         <v>42</v>
       </c>
       <c r="C18" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$E$28:$E$925)</f>
-        <v>96673</v>
+        <f t="shared" si="4"/>
+        <v>193346</v>
       </c>
       <c r="D18" s="12">
-        <f>C18/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
-        <v>24168.25</v>
+        <f t="shared" si="5"/>
+        <v>48336.5</v>
       </c>
       <c r="E18" s="12">
-        <f ca="1">SUMIF($D$28:$D$925,$B$15:$B$21,$F$28:$F$399)</f>
-        <v>1438</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2876</v>
       </c>
       <c r="F18" s="12">
-        <f ca="1">E18/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
-        <v>359.5</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>719</v>
       </c>
       <c r="G18" s="13">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1.4874887507370206E-2</v>
       </c>
       <c r="H18" s="12">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="15"/>
         <v>182.52433936022254</v>
       </c>
       <c r="I18" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$G$28:$G$925)</f>
-        <v>262470</v>
+        <f t="shared" si="8"/>
+        <v>524940</v>
       </c>
       <c r="J18" s="12">
-        <f>I18/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
-        <v>65617.5</v>
+        <f t="shared" si="9"/>
+        <v>131235</v>
       </c>
       <c r="K18" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$H$28:$H$925)</f>
-        <v>39</v>
+        <f t="shared" si="10"/>
+        <v>78</v>
       </c>
       <c r="L18" s="12">
-        <f>K18/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
-        <v>9.75</v>
+        <f t="shared" si="11"/>
+        <v>19.5</v>
       </c>
       <c r="M18" s="13">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="16"/>
         <v>2.7121001390820583E-2</v>
       </c>
       <c r="N18" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$I$28:$I$925)</f>
-        <v>286792</v>
+        <f t="shared" si="12"/>
+        <v>573584</v>
       </c>
       <c r="O18" s="12">
-        <f>N18/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
-        <v>71698</v>
+        <f t="shared" si="13"/>
+        <v>143396</v>
       </c>
       <c r="P18" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1.0926658284756352</v>
       </c>
     </row>
@@ -2875,59 +2899,59 @@
         <v>43</v>
       </c>
       <c r="C19" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$E$28:$E$925)</f>
-        <v>80340</v>
+        <f t="shared" si="4"/>
+        <v>160680</v>
       </c>
       <c r="D19" s="12">
-        <f>C19/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
-        <v>20085</v>
+        <f t="shared" si="5"/>
+        <v>40170</v>
       </c>
       <c r="E19" s="12">
-        <f ca="1">SUMIF($D$28:$D$925,$B$15:$B$21,$F$28:$F$399)</f>
-        <v>1161</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2322</v>
       </c>
       <c r="F19" s="12">
-        <f ca="1">E19/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
-        <v>290.25</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>580.5</v>
       </c>
       <c r="G19" s="13">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1.445108289768484E-2</v>
       </c>
       <c r="H19" s="12">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="15"/>
         <v>184.78897502153316</v>
       </c>
       <c r="I19" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$G$28:$G$925)</f>
-        <v>214540</v>
+        <f t="shared" si="8"/>
+        <v>429080</v>
       </c>
       <c r="J19" s="12">
-        <f>I19/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
-        <v>53635</v>
+        <f t="shared" si="9"/>
+        <v>107270</v>
       </c>
       <c r="K19" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$H$28:$H$925)</f>
-        <v>63</v>
+        <f t="shared" si="10"/>
+        <v>126</v>
       </c>
       <c r="L19" s="12">
-        <f>K19/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
-        <v>15.75</v>
+        <f t="shared" si="11"/>
+        <v>31.5</v>
       </c>
       <c r="M19" s="13">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="16"/>
         <v>5.4263565891472867E-2</v>
       </c>
       <c r="N19" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$I$28:$I$925)</f>
-        <v>425770</v>
+        <f t="shared" si="12"/>
+        <v>851540</v>
       </c>
       <c r="O19" s="12">
-        <f>N19/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
-        <v>106442.5</v>
+        <f t="shared" si="13"/>
+        <v>212885</v>
       </c>
       <c r="P19" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1.9845716416519064</v>
       </c>
     </row>
@@ -2936,59 +2960,59 @@
         <v>44</v>
       </c>
       <c r="C20" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$E$28:$E$925)</f>
-        <v>79399</v>
+        <f t="shared" si="4"/>
+        <v>158798</v>
       </c>
       <c r="D20" s="12">
-        <f>C20/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
-        <v>19849.75</v>
+        <f t="shared" si="5"/>
+        <v>39699.5</v>
       </c>
       <c r="E20" s="12">
-        <f ca="1">SUMIF($D$28:$D$925,$B$15:$B$21,$F$28:$F$399)</f>
-        <v>1190</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2380</v>
       </c>
       <c r="F20" s="12">
-        <f ca="1">E20/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
-        <v>297.5</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>595</v>
       </c>
       <c r="G20" s="13">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1.4987594302195241E-2</v>
       </c>
       <c r="H20" s="12">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="15"/>
         <v>185.9075630252101</v>
       </c>
       <c r="I20" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$G$28:$G$925)</f>
-        <v>221230</v>
+        <f t="shared" si="8"/>
+        <v>442460</v>
       </c>
       <c r="J20" s="12">
-        <f>I20/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
-        <v>55307.5</v>
+        <f t="shared" si="9"/>
+        <v>110615</v>
       </c>
       <c r="K20" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$H$28:$H$925)</f>
-        <v>25</v>
+        <f t="shared" si="10"/>
+        <v>50</v>
       </c>
       <c r="L20" s="12">
-        <f>K20/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
-        <v>6.25</v>
+        <f t="shared" si="11"/>
+        <v>12.5</v>
       </c>
       <c r="M20" s="13">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="16"/>
         <v>2.100840336134454E-2</v>
       </c>
       <c r="N20" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$I$28:$I$925)</f>
-        <v>189272</v>
+        <f t="shared" si="12"/>
+        <v>378544</v>
       </c>
       <c r="O20" s="12">
-        <f>N20/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
-        <v>47318</v>
+        <f t="shared" si="13"/>
+        <v>94636</v>
       </c>
       <c r="P20" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0.85554400397776065</v>
       </c>
     </row>
@@ -2997,59 +3021,59 @@
         <v>45</v>
       </c>
       <c r="C21" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$E$28:$E$925)</f>
-        <v>124341</v>
+        <f t="shared" si="4"/>
+        <v>248682</v>
       </c>
       <c r="D21" s="12">
-        <f>C21/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
-        <v>24868.2</v>
+        <f t="shared" si="5"/>
+        <v>49736.4</v>
       </c>
       <c r="E21" s="12">
-        <f ca="1">SUMIF($D$28:$D$925,$B$15:$B$21,$F$28:$F$399)</f>
-        <v>1826</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3652</v>
       </c>
       <c r="F21" s="12">
-        <f ca="1">E21/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
-        <v>365.2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>730.4</v>
       </c>
       <c r="G21" s="13">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1.4685421542371383E-2</v>
       </c>
       <c r="H21" s="12">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="15"/>
         <v>192.23986856516976</v>
       </c>
       <c r="I21" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$G$28:$G$925)</f>
-        <v>351030</v>
+        <f t="shared" si="8"/>
+        <v>702060</v>
       </c>
       <c r="J21" s="12">
-        <f>I21/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
-        <v>70206</v>
+        <f t="shared" si="9"/>
+        <v>140412</v>
       </c>
       <c r="K21" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$H$28:$H$925)</f>
-        <v>64</v>
+        <f t="shared" si="10"/>
+        <v>128</v>
       </c>
       <c r="L21" s="12">
-        <f>K21/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
-        <v>12.8</v>
+        <f t="shared" si="11"/>
+        <v>25.6</v>
       </c>
       <c r="M21" s="13">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="16"/>
         <v>3.5049288061336253E-2</v>
       </c>
       <c r="N21" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$I$28:$I$925)</f>
-        <v>496130</v>
+        <f t="shared" si="12"/>
+        <v>992260</v>
       </c>
       <c r="O21" s="12">
-        <f>N21/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
-        <v>99226</v>
+        <f t="shared" si="13"/>
+        <v>198452</v>
       </c>
       <c r="P21" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1.4133549839045096</v>
       </c>
     </row>
@@ -3063,58 +3087,58 @@
       </c>
       <c r="C22" s="24">
         <f>SUM(C15:C21)</f>
-        <v>730066</v>
+        <v>1460132</v>
       </c>
       <c r="D22" s="25">
         <f>C22/A22</f>
-        <v>23550.516129032258</v>
+        <v>47101.032258064515</v>
       </c>
       <c r="E22" s="24">
         <f ca="1">SUM(E15:E21)</f>
-        <v>10787</v>
+        <v>21574</v>
       </c>
       <c r="F22" s="25">
         <f ca="1">E22/A22</f>
-        <v>347.96774193548384</v>
+        <v>695.93548387096769</v>
       </c>
       <c r="G22" s="26">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1.4775376472812048E-2</v>
       </c>
       <c r="H22" s="25">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="15"/>
         <v>188.80689719106331</v>
       </c>
       <c r="I22" s="24">
         <f>SUM(I15:I21)</f>
-        <v>2036660</v>
+        <v>4073320</v>
       </c>
       <c r="J22" s="25">
         <f>I22/A22</f>
-        <v>65698.709677419349</v>
+        <v>131397.4193548387</v>
       </c>
       <c r="K22" s="24">
         <f>SUM(K15:K21)</f>
-        <v>372</v>
+        <v>744</v>
       </c>
       <c r="L22" s="25">
         <f>K22/A22</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="M22" s="26">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="16"/>
         <v>3.4485955316584778E-2</v>
       </c>
       <c r="N22" s="24">
         <f>SUM(N15:N21)</f>
-        <v>2797526</v>
+        <v>5595052</v>
       </c>
       <c r="O22" s="25">
         <f>N22/A22</f>
-        <v>90242.774193548394</v>
+        <v>180485.54838709679</v>
       </c>
       <c r="P22" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1.3735851835848889</v>
       </c>
     </row>
@@ -3124,30 +3148,30 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B25" s="110"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="110"/>
-      <c r="I25" s="110"/>
-      <c r="J25" s="110"/>
-      <c r="K25" s="110"/>
-      <c r="L25" s="110"/>
-      <c r="M25" s="110"/>
-      <c r="N25" s="110"/>
-      <c r="O25" s="110"/>
-      <c r="P25" s="110"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="117"/>
+      <c r="H25" s="117"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="117"/>
+      <c r="K25" s="117"/>
+      <c r="L25" s="117"/>
+      <c r="M25" s="117"/>
+      <c r="N25" s="117"/>
+      <c r="O25" s="117"/>
+      <c r="P25" s="117"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B26" s="116" t="s">
+      <c r="B26" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="111" t="s">
+      <c r="C26" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="112"/>
+      <c r="D26" s="119"/>
       <c r="E26" s="81" t="s">
         <v>23</v>
       </c>
@@ -3186,45 +3210,45 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B27" s="116"/>
-      <c r="C27" s="111" t="s">
+      <c r="B27" s="120"/>
+      <c r="C27" s="118" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="112"/>
+      <c r="D27" s="119"/>
       <c r="E27" s="69">
         <f>SUM(E28:E58)</f>
-        <v>730066</v>
+        <v>1460132</v>
       </c>
       <c r="F27" s="69">
-        <f t="shared" ref="F27:I27" si="8">SUM(F28:F58)</f>
-        <v>10787</v>
+        <f t="shared" ref="F27:I27" si="18">SUM(F28:F58)</f>
+        <v>21574</v>
       </c>
       <c r="G27" s="69">
-        <f t="shared" si="8"/>
-        <v>2036660</v>
+        <f t="shared" si="18"/>
+        <v>4073320</v>
       </c>
       <c r="H27" s="69">
-        <f t="shared" si="8"/>
-        <v>372</v>
+        <f t="shared" si="18"/>
+        <v>744</v>
       </c>
       <c r="I27" s="69">
-        <f t="shared" si="8"/>
-        <v>2797526</v>
+        <f t="shared" si="18"/>
+        <v>5595052</v>
       </c>
       <c r="J27" s="22">
-        <f t="shared" ref="J27:J56" si="9">IFERROR(H27/F27,0)</f>
+        <f t="shared" ref="J27:J56" si="19">IFERROR(H27/F27,0)</f>
         <v>3.4485955316584778E-2</v>
       </c>
       <c r="K27" s="22">
-        <f t="shared" ref="K27:L56" si="10">IFERROR(F27/E27,0)</f>
+        <f t="shared" ref="K27:L56" si="20">IFERROR(F27/E27,0)</f>
         <v>1.4775376472812048E-2</v>
       </c>
       <c r="L27" s="69">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>188.80689719106331</v>
       </c>
       <c r="M27" s="40">
-        <f t="shared" ref="M27:M56" si="11">IFERROR(I27/G27,0)</f>
+        <f t="shared" ref="M27:M56" si="21">IFERROR(I27/G27,0)</f>
         <v>1.3735851835848889</v>
       </c>
       <c r="N27" s="76" t="s">
@@ -3238,44 +3262,52 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B28" s="80" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" s="72">
+      <c r="B28" s="80" t="str">
+        <f>Gmarket!B28</f>
+        <v>1주</v>
+      </c>
+      <c r="C28" s="83">
+        <f>Gmarket!C28</f>
         <v>42736</v>
       </c>
-      <c r="D28" s="80" t="s">
-        <v>113</v>
+      <c r="D28" s="82" t="str">
+        <f>Gmarket!D28</f>
+        <v>일</v>
       </c>
       <c r="E28" s="75">
-        <v>22389</v>
+        <f>Gmarket!E28+Auction!E28</f>
+        <v>44778</v>
       </c>
       <c r="F28" s="75">
-        <v>364</v>
+        <f>Gmarket!F28+Auction!F28</f>
+        <v>728</v>
       </c>
       <c r="G28" s="75">
-        <v>76430</v>
+        <f>Gmarket!G28+Auction!G28</f>
+        <v>152860</v>
       </c>
       <c r="H28" s="75">
-        <v>15</v>
+        <f>Gmarket!H28+Auction!H28</f>
+        <v>30</v>
       </c>
       <c r="I28" s="75">
-        <v>112510</v>
+        <f>Gmarket!I28+Auction!I28</f>
+        <v>225020</v>
       </c>
       <c r="J28" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>4.1208791208791208E-2</v>
       </c>
       <c r="K28" s="76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1.6257983831345749E-2</v>
       </c>
       <c r="L28" s="75">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>209.97252747252747</v>
       </c>
       <c r="M28" s="70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.4720659426926599</v>
       </c>
       <c r="N28" s="76" t="s">
@@ -3289,42 +3321,52 @@
       </c>
     </row>
     <row r="29" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="80"/>
-      <c r="C29" s="72">
+      <c r="B29" s="82" t="str">
+        <f>Gmarket!B29</f>
+        <v>1주</v>
+      </c>
+      <c r="C29" s="83">
+        <f>Gmarket!C29</f>
         <v>42737</v>
       </c>
-      <c r="D29" s="80" t="s">
-        <v>38</v>
+      <c r="D29" s="82" t="str">
+        <f>Gmarket!D29</f>
+        <v>월</v>
       </c>
       <c r="E29" s="75">
-        <v>27984</v>
+        <f>Gmarket!E29+Auction!E29</f>
+        <v>55968</v>
       </c>
       <c r="F29" s="75">
-        <v>450</v>
+        <f>Gmarket!F29+Auction!F29</f>
+        <v>900</v>
       </c>
       <c r="G29" s="75">
-        <v>90180</v>
+        <f>Gmarket!G29+Auction!G29</f>
+        <v>180360</v>
       </c>
       <c r="H29" s="75">
-        <v>18</v>
+        <f>Gmarket!H29+Auction!H29</f>
+        <v>36</v>
       </c>
       <c r="I29" s="75">
-        <v>134390</v>
+        <f>Gmarket!I29+Auction!I29</f>
+        <v>268780</v>
       </c>
       <c r="J29" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>0.04</v>
       </c>
       <c r="K29" s="76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1.6080617495711835E-2</v>
       </c>
       <c r="L29" s="75">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>200.4</v>
       </c>
       <c r="M29" s="70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.4902417387447326</v>
       </c>
       <c r="N29" s="76" t="s">
@@ -3338,42 +3380,52 @@
       </c>
     </row>
     <row r="30" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="80"/>
-      <c r="C30" s="72">
+      <c r="B30" s="82" t="str">
+        <f>Gmarket!B30</f>
+        <v>1주</v>
+      </c>
+      <c r="C30" s="83">
+        <f>Gmarket!C30</f>
         <v>42738</v>
       </c>
-      <c r="D30" s="80" t="s">
-        <v>40</v>
+      <c r="D30" s="82" t="str">
+        <f>Gmarket!D30</f>
+        <v>화</v>
       </c>
       <c r="E30" s="75">
-        <v>27049</v>
+        <f>Gmarket!E30+Auction!E30</f>
+        <v>54098</v>
       </c>
       <c r="F30" s="75">
-        <v>398</v>
+        <f>Gmarket!F30+Auction!F30</f>
+        <v>796</v>
       </c>
       <c r="G30" s="75">
-        <v>80080</v>
+        <f>Gmarket!G30+Auction!G30</f>
+        <v>160160</v>
       </c>
       <c r="H30" s="75">
-        <v>24</v>
+        <f>Gmarket!H30+Auction!H30</f>
+        <v>48</v>
       </c>
       <c r="I30" s="75">
-        <v>165110</v>
+        <f>Gmarket!I30+Auction!I30</f>
+        <v>330220</v>
       </c>
       <c r="J30" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>6.030150753768844E-2</v>
       </c>
       <c r="K30" s="76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1.4714037487522645E-2</v>
       </c>
       <c r="L30" s="75">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>201.20603015075378</v>
       </c>
       <c r="M30" s="70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>2.0618131868131866</v>
       </c>
       <c r="N30" s="76" t="s">
@@ -3387,42 +3439,52 @@
       </c>
     </row>
     <row r="31" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="80"/>
-      <c r="C31" s="72">
+      <c r="B31" s="82" t="str">
+        <f>Gmarket!B31</f>
+        <v>1주</v>
+      </c>
+      <c r="C31" s="83">
+        <f>Gmarket!C31</f>
         <v>42739</v>
       </c>
-      <c r="D31" s="80" t="s">
-        <v>41</v>
+      <c r="D31" s="82" t="str">
+        <f>Gmarket!D31</f>
+        <v>수</v>
       </c>
       <c r="E31" s="75">
-        <v>25500</v>
+        <f>Gmarket!E31+Auction!E31</f>
+        <v>51000</v>
       </c>
       <c r="F31" s="75">
-        <v>346</v>
+        <f>Gmarket!F31+Auction!F31</f>
+        <v>692</v>
       </c>
       <c r="G31" s="75">
-        <v>70690</v>
+        <f>Gmarket!G31+Auction!G31</f>
+        <v>141380</v>
       </c>
       <c r="H31" s="75">
-        <v>10</v>
+        <f>Gmarket!H31+Auction!H31</f>
+        <v>20</v>
       </c>
       <c r="I31" s="75">
-        <v>70766</v>
+        <f>Gmarket!I31+Auction!I31</f>
+        <v>141532</v>
       </c>
       <c r="J31" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>2.8901734104046242E-2</v>
       </c>
       <c r="K31" s="76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1.3568627450980392E-2</v>
       </c>
       <c r="L31" s="75">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>204.30635838150289</v>
       </c>
       <c r="M31" s="70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.0010751167067478</v>
       </c>
       <c r="N31" s="76" t="s">
@@ -3436,42 +3498,52 @@
       </c>
     </row>
     <row r="32" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="80"/>
-      <c r="C32" s="72">
+      <c r="B32" s="82" t="str">
+        <f>Gmarket!B32</f>
+        <v>1주</v>
+      </c>
+      <c r="C32" s="83">
+        <f>Gmarket!C32</f>
         <v>42740</v>
       </c>
-      <c r="D32" s="80" t="s">
-        <v>42</v>
+      <c r="D32" s="82" t="str">
+        <f>Gmarket!D32</f>
+        <v>목</v>
       </c>
       <c r="E32" s="75">
-        <v>24595</v>
+        <f>Gmarket!E32+Auction!E32</f>
+        <v>49190</v>
       </c>
       <c r="F32" s="75">
-        <v>363</v>
+        <f>Gmarket!F32+Auction!F32</f>
+        <v>726</v>
       </c>
       <c r="G32" s="75">
-        <v>73090</v>
+        <f>Gmarket!G32+Auction!G32</f>
+        <v>146180</v>
       </c>
       <c r="H32" s="75">
-        <v>14</v>
+        <f>Gmarket!H32+Auction!H32</f>
+        <v>28</v>
       </c>
       <c r="I32" s="75">
-        <v>121800</v>
+        <f>Gmarket!I32+Auction!I32</f>
+        <v>243600</v>
       </c>
       <c r="J32" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>3.8567493112947659E-2</v>
       </c>
       <c r="K32" s="76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1.4759097377515755E-2</v>
       </c>
       <c r="L32" s="75">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>201.34986225895318</v>
       </c>
       <c r="M32" s="70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.6664386372964839</v>
       </c>
       <c r="N32" s="76" t="s">
@@ -3485,42 +3557,52 @@
       </c>
     </row>
     <row r="33" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="80"/>
-      <c r="C33" s="72">
+      <c r="B33" s="82" t="str">
+        <f>Gmarket!B33</f>
+        <v>1주</v>
+      </c>
+      <c r="C33" s="83">
+        <f>Gmarket!C33</f>
         <v>42741</v>
       </c>
-      <c r="D33" s="80" t="s">
-        <v>43</v>
+      <c r="D33" s="82" t="str">
+        <f>Gmarket!D33</f>
+        <v>금</v>
       </c>
       <c r="E33" s="75">
-        <v>20752</v>
+        <f>Gmarket!E33+Auction!E33</f>
+        <v>41504</v>
       </c>
       <c r="F33" s="75">
-        <v>292</v>
+        <f>Gmarket!F33+Auction!F33</f>
+        <v>584</v>
       </c>
       <c r="G33" s="75">
-        <v>55660</v>
+        <f>Gmarket!G33+Auction!G33</f>
+        <v>111320</v>
       </c>
       <c r="H33" s="75">
-        <v>18</v>
+        <f>Gmarket!H33+Auction!H33</f>
+        <v>36</v>
       </c>
       <c r="I33" s="75">
-        <v>52500</v>
+        <f>Gmarket!I33+Auction!I33</f>
+        <v>105000</v>
       </c>
       <c r="J33" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>6.1643835616438353E-2</v>
       </c>
       <c r="K33" s="76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1.4070932922127988E-2</v>
       </c>
       <c r="L33" s="75">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>190.61643835616439</v>
       </c>
       <c r="M33" s="70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0.94322673374056776</v>
       </c>
       <c r="N33" s="76" t="s">
@@ -3534,42 +3616,52 @@
       </c>
     </row>
     <row r="34" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="80"/>
-      <c r="C34" s="72">
+      <c r="B34" s="82" t="str">
+        <f>Gmarket!B34</f>
+        <v>1주</v>
+      </c>
+      <c r="C34" s="83">
+        <f>Gmarket!C34</f>
         <v>42742</v>
       </c>
-      <c r="D34" s="80" t="s">
-        <v>44</v>
+      <c r="D34" s="82" t="str">
+        <f>Gmarket!D34</f>
+        <v>토</v>
       </c>
       <c r="E34" s="75">
-        <v>19111</v>
+        <f>Gmarket!E34+Auction!E34</f>
+        <v>38222</v>
       </c>
       <c r="F34" s="75">
-        <v>320</v>
+        <f>Gmarket!F34+Auction!F34</f>
+        <v>640</v>
       </c>
       <c r="G34" s="75">
-        <v>63930</v>
+        <f>Gmarket!G34+Auction!G34</f>
+        <v>127860</v>
       </c>
       <c r="H34" s="75">
-        <v>6</v>
+        <f>Gmarket!H34+Auction!H34</f>
+        <v>12</v>
       </c>
       <c r="I34" s="75">
-        <v>43764</v>
+        <f>Gmarket!I34+Auction!I34</f>
+        <v>87528</v>
       </c>
       <c r="J34" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="K34" s="76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1.6744283396996493E-2</v>
       </c>
       <c r="L34" s="75">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>199.78125</v>
       </c>
       <c r="M34" s="70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0.68456123885499764</v>
       </c>
       <c r="N34" s="76" t="s">
@@ -3583,1171 +3675,1401 @@
       </c>
     </row>
     <row r="35" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="80"/>
-      <c r="C35" s="72">
+      <c r="B35" s="82" t="str">
+        <f>Gmarket!B35</f>
+        <v>2주</v>
+      </c>
+      <c r="C35" s="83">
+        <f>Gmarket!C35</f>
         <v>42743</v>
       </c>
-      <c r="D35" s="80" t="s">
-        <v>45</v>
+      <c r="D35" s="82" t="str">
+        <f>Gmarket!D35</f>
+        <v>일</v>
       </c>
       <c r="E35" s="75">
-        <v>23370</v>
+        <f>Gmarket!E35+Auction!E35</f>
+        <v>46740</v>
       </c>
       <c r="F35" s="75">
-        <v>352</v>
+        <f>Gmarket!F35+Auction!F35</f>
+        <v>704</v>
       </c>
       <c r="G35" s="75">
-        <v>71870</v>
+        <f>Gmarket!G35+Auction!G35</f>
+        <v>143740</v>
       </c>
       <c r="H35" s="75">
-        <v>13</v>
+        <f>Gmarket!H35+Auction!H35</f>
+        <v>26</v>
       </c>
       <c r="I35" s="75">
-        <v>89750</v>
+        <f>Gmarket!I35+Auction!I35</f>
+        <v>179500</v>
       </c>
       <c r="J35" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>3.6931818181818184E-2</v>
       </c>
       <c r="K35" s="76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1.5062045357295679E-2</v>
       </c>
       <c r="L35" s="75">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>204.17613636363637</v>
       </c>
       <c r="M35" s="70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.2487825240016697</v>
       </c>
       <c r="N35" s="76">
-        <f t="shared" ref="N35:P55" si="12">IFERROR(G35/G28-1,0)</f>
+        <f t="shared" ref="N35:P55" si="22">IFERROR(G35/G28-1,0)</f>
         <v>-5.9662436216145531E-2</v>
       </c>
       <c r="O35" s="76">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>-0.1333333333333333</v>
       </c>
       <c r="P35" s="76">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>-0.20229312949959999</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B36" s="80"/>
-      <c r="C36" s="72">
+      <c r="B36" s="82" t="str">
+        <f>Gmarket!B36</f>
+        <v>2주</v>
+      </c>
+      <c r="C36" s="83">
+        <f>Gmarket!C36</f>
         <v>42744</v>
       </c>
-      <c r="D36" s="80" t="s">
-        <v>38</v>
+      <c r="D36" s="82" t="str">
+        <f>Gmarket!D36</f>
+        <v>월</v>
       </c>
       <c r="E36" s="75">
-        <v>26499</v>
+        <f>Gmarket!E36+Auction!E36</f>
+        <v>52998</v>
       </c>
       <c r="F36" s="75">
-        <v>414</v>
+        <f>Gmarket!F36+Auction!F36</f>
+        <v>828</v>
       </c>
       <c r="G36" s="75">
-        <v>80310</v>
+        <f>Gmarket!G36+Auction!G36</f>
+        <v>160620</v>
       </c>
       <c r="H36" s="75">
-        <v>9</v>
+        <f>Gmarket!H36+Auction!H36</f>
+        <v>18</v>
       </c>
       <c r="I36" s="75">
-        <v>65400</v>
+        <f>Gmarket!I36+Auction!I36</f>
+        <v>130800</v>
       </c>
       <c r="J36" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>2.1739130434782608E-2</v>
       </c>
       <c r="K36" s="76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1.562323106532322E-2</v>
       </c>
       <c r="L36" s="75">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>193.98550724637681</v>
       </c>
       <c r="M36" s="70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0.8143444153903624</v>
       </c>
       <c r="N36" s="76">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>-0.10944777112441784</v>
       </c>
       <c r="O36" s="76">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>-0.5</v>
       </c>
       <c r="P36" s="76">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>-0.51335664856016072</v>
       </c>
     </row>
     <row r="37" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="80"/>
-      <c r="C37" s="72">
+      <c r="B37" s="82" t="str">
+        <f>Gmarket!B37</f>
+        <v>2주</v>
+      </c>
+      <c r="C37" s="83">
+        <f>Gmarket!C37</f>
         <v>42745</v>
       </c>
-      <c r="D37" s="80" t="s">
+      <c r="D37" s="82" t="str">
+        <f>Gmarket!D37</f>
+        <v>화</v>
+      </c>
+      <c r="E37" s="75">
+        <f>Gmarket!E37+Auction!E37</f>
+        <v>52182</v>
+      </c>
+      <c r="F37" s="75">
+        <f>Gmarket!F37+Auction!F37</f>
+        <v>746</v>
+      </c>
+      <c r="G37" s="75">
+        <f>Gmarket!G37+Auction!G37</f>
+        <v>156640</v>
+      </c>
+      <c r="H37" s="75">
+        <f>Gmarket!H37+Auction!H37</f>
+        <v>20</v>
+      </c>
+      <c r="I37" s="75">
+        <f>Gmarket!I37+Auction!I37</f>
+        <v>209800</v>
+      </c>
+      <c r="J37" s="76">
+        <f t="shared" si="19"/>
+        <v>2.6809651474530832E-2</v>
+      </c>
+      <c r="K37" s="76">
+        <f t="shared" si="20"/>
+        <v>1.4296117435130888E-2</v>
+      </c>
+      <c r="L37" s="75">
+        <f t="shared" si="20"/>
+        <v>209.97319034852546</v>
+      </c>
+      <c r="M37" s="70">
+        <f t="shared" si="21"/>
+        <v>1.3393769152196118</v>
+      </c>
+      <c r="N37" s="76">
+        <f t="shared" si="22"/>
+        <v>-2.1978021978022011E-2</v>
+      </c>
+      <c r="O37" s="76">
+        <f t="shared" si="22"/>
+        <v>-0.58333333333333326</v>
+      </c>
+      <c r="P37" s="76">
+        <f t="shared" si="22"/>
+        <v>-0.36466598025558716</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B38" s="82" t="str">
+        <f>Gmarket!B38</f>
+        <v>2주</v>
+      </c>
+      <c r="C38" s="83">
+        <f>Gmarket!C38</f>
+        <v>42746</v>
+      </c>
+      <c r="D38" s="82" t="str">
+        <f>Gmarket!D38</f>
+        <v>수</v>
+      </c>
+      <c r="E38" s="75">
+        <f>Gmarket!E38+Auction!E38</f>
+        <v>49710</v>
+      </c>
+      <c r="F38" s="75">
+        <f>Gmarket!F38+Auction!F38</f>
+        <v>718</v>
+      </c>
+      <c r="G38" s="75">
+        <f>Gmarket!G38+Auction!G38</f>
+        <v>138840</v>
+      </c>
+      <c r="H38" s="75">
+        <f>Gmarket!H38+Auction!H38</f>
+        <v>20</v>
+      </c>
+      <c r="I38" s="75">
+        <f>Gmarket!I38+Auction!I38</f>
+        <v>114280</v>
+      </c>
+      <c r="J38" s="76">
+        <f t="shared" si="19"/>
+        <v>2.7855153203342618E-2</v>
+      </c>
+      <c r="K38" s="76">
+        <f t="shared" si="20"/>
+        <v>1.4443773888553611E-2</v>
+      </c>
+      <c r="L38" s="75">
+        <f t="shared" si="20"/>
+        <v>193.37047353760445</v>
+      </c>
+      <c r="M38" s="70">
+        <f t="shared" si="21"/>
+        <v>0.82310573321809277</v>
+      </c>
+      <c r="N38" s="76">
+        <f t="shared" si="22"/>
+        <v>-1.7965766020653584E-2</v>
+      </c>
+      <c r="O38" s="76">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="76">
+        <f t="shared" si="22"/>
+        <v>-0.19255009467823536</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B39" s="82" t="str">
+        <f>Gmarket!B39</f>
+        <v>2주</v>
+      </c>
+      <c r="C39" s="83">
+        <f>Gmarket!C39</f>
+        <v>42747</v>
+      </c>
+      <c r="D39" s="82" t="str">
+        <f>Gmarket!D39</f>
+        <v>목</v>
+      </c>
+      <c r="E39" s="75">
+        <f>Gmarket!E39+Auction!E39</f>
+        <v>60246</v>
+      </c>
+      <c r="F39" s="75">
+        <f>Gmarket!F39+Auction!F39</f>
+        <v>794</v>
+      </c>
+      <c r="G39" s="75">
+        <f>Gmarket!G39+Auction!G39</f>
+        <v>139760</v>
+      </c>
+      <c r="H39" s="75">
+        <f>Gmarket!H39+Auction!H39</f>
+        <v>16</v>
+      </c>
+      <c r="I39" s="75">
+        <f>Gmarket!I39+Auction!I39</f>
+        <v>147384</v>
+      </c>
+      <c r="J39" s="76">
+        <f t="shared" si="19"/>
+        <v>2.0151133501259445E-2</v>
+      </c>
+      <c r="K39" s="76">
+        <f t="shared" si="20"/>
+        <v>1.3179298210669588E-2</v>
+      </c>
+      <c r="L39" s="75">
+        <f t="shared" si="20"/>
+        <v>176.02015113350126</v>
+      </c>
+      <c r="M39" s="70">
+        <f t="shared" si="21"/>
+        <v>1.0545506582713222</v>
+      </c>
+      <c r="N39" s="76">
+        <f t="shared" si="22"/>
+        <v>-4.3918456697222608E-2</v>
+      </c>
+      <c r="O39" s="76">
+        <f t="shared" si="22"/>
+        <v>-0.4285714285714286</v>
+      </c>
+      <c r="P39" s="76">
+        <f t="shared" si="22"/>
+        <v>-0.39497536945812806</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="82" t="str">
+        <f>Gmarket!B40</f>
+        <v>2주</v>
+      </c>
+      <c r="C40" s="83">
+        <f>Gmarket!C40</f>
+        <v>42748</v>
+      </c>
+      <c r="D40" s="82" t="str">
+        <f>Gmarket!D40</f>
+        <v>금</v>
+      </c>
+      <c r="E40" s="75">
+        <f>Gmarket!E40+Auction!E40</f>
+        <v>42950</v>
+      </c>
+      <c r="F40" s="75">
+        <f>Gmarket!F40+Auction!F40</f>
+        <v>660</v>
+      </c>
+      <c r="G40" s="75">
+        <f>Gmarket!G40+Auction!G40</f>
+        <v>123480</v>
+      </c>
+      <c r="H40" s="75">
+        <f>Gmarket!H40+Auction!H40</f>
+        <v>10</v>
+      </c>
+      <c r="I40" s="75">
+        <f>Gmarket!I40+Auction!I40</f>
+        <v>132800</v>
+      </c>
+      <c r="J40" s="76">
+        <f t="shared" si="19"/>
+        <v>1.5151515151515152E-2</v>
+      </c>
+      <c r="K40" s="76">
+        <f t="shared" si="20"/>
+        <v>1.5366705471478464E-2</v>
+      </c>
+      <c r="L40" s="75">
+        <f t="shared" si="20"/>
+        <v>187.09090909090909</v>
+      </c>
+      <c r="M40" s="70">
+        <f t="shared" si="21"/>
+        <v>1.0754778101716878</v>
+      </c>
+      <c r="N40" s="76">
+        <f t="shared" si="22"/>
+        <v>0.10923463887890761</v>
+      </c>
+      <c r="O40" s="76">
+        <f t="shared" si="22"/>
+        <v>-0.72222222222222221</v>
+      </c>
+      <c r="P40" s="76">
+        <f t="shared" si="22"/>
+        <v>0.26476190476190475</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="82" t="str">
+        <f>Gmarket!B41</f>
+        <v>2주</v>
+      </c>
+      <c r="C41" s="83">
+        <f>Gmarket!C41</f>
+        <v>42749</v>
+      </c>
+      <c r="D41" s="82" t="str">
+        <f>Gmarket!D41</f>
+        <v>토</v>
+      </c>
+      <c r="E41" s="75">
+        <f>Gmarket!E41+Auction!E41</f>
+        <v>43598</v>
+      </c>
+      <c r="F41" s="75">
+        <f>Gmarket!F41+Auction!F41</f>
+        <v>612</v>
+      </c>
+      <c r="G41" s="75">
+        <f>Gmarket!G41+Auction!G41</f>
+        <v>111580</v>
+      </c>
+      <c r="H41" s="75">
+        <f>Gmarket!H41+Auction!H41</f>
+        <v>24</v>
+      </c>
+      <c r="I41" s="75">
+        <f>Gmarket!I41+Auction!I41</f>
+        <v>203216</v>
+      </c>
+      <c r="J41" s="76">
+        <f t="shared" si="19"/>
+        <v>3.9215686274509803E-2</v>
+      </c>
+      <c r="K41" s="76">
+        <f t="shared" si="20"/>
+        <v>1.4037341162438644E-2</v>
+      </c>
+      <c r="L41" s="75">
+        <f t="shared" si="20"/>
+        <v>182.3202614379085</v>
+      </c>
+      <c r="M41" s="70">
+        <f t="shared" si="21"/>
+        <v>1.8212582900161318</v>
+      </c>
+      <c r="N41" s="76">
+        <f t="shared" si="22"/>
+        <v>-0.12732676364773976</v>
+      </c>
+      <c r="O41" s="76">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="P41" s="76">
+        <f t="shared" si="22"/>
+        <v>1.3217256192304179</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="82" t="str">
+        <f>Gmarket!B42</f>
+        <v>2주</v>
+      </c>
+      <c r="C42" s="83">
+        <f>Gmarket!C42</f>
+        <v>42750</v>
+      </c>
+      <c r="D42" s="82" t="str">
+        <f>Gmarket!D42</f>
+        <v>일</v>
+      </c>
+      <c r="E42" s="75">
+        <f>Gmarket!E42+Auction!E42</f>
+        <v>52248</v>
+      </c>
+      <c r="F42" s="75">
+        <f>Gmarket!F42+Auction!F42</f>
+        <v>786</v>
+      </c>
+      <c r="G42" s="75">
+        <f>Gmarket!G42+Auction!G42</f>
+        <v>147540</v>
+      </c>
+      <c r="H42" s="75">
+        <f>Gmarket!H42+Auction!H42</f>
         <v>40</v>
       </c>
-      <c r="E37" s="75">
-        <v>26091</v>
-      </c>
-      <c r="F37" s="75">
-        <v>373</v>
-      </c>
-      <c r="G37" s="75">
-        <v>78320</v>
-      </c>
-      <c r="H37" s="75">
+      <c r="I42" s="75">
+        <f>Gmarket!I42+Auction!I42</f>
+        <v>364100</v>
+      </c>
+      <c r="J42" s="76">
+        <f t="shared" si="19"/>
+        <v>5.0890585241730277E-2</v>
+      </c>
+      <c r="K42" s="76">
+        <f t="shared" si="20"/>
+        <v>1.5043638033991731E-2</v>
+      </c>
+      <c r="L42" s="75">
+        <f t="shared" si="20"/>
+        <v>187.70992366412213</v>
+      </c>
+      <c r="M42" s="70">
+        <f t="shared" si="21"/>
+        <v>2.4678053409244951</v>
+      </c>
+      <c r="N42" s="76">
+        <f t="shared" si="22"/>
+        <v>2.6436621678029848E-2</v>
+      </c>
+      <c r="O42" s="76">
+        <f t="shared" si="22"/>
+        <v>0.53846153846153855</v>
+      </c>
+      <c r="P42" s="76">
+        <f t="shared" si="22"/>
+        <v>1.0284122562674094</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B43" s="82" t="str">
+        <f>Gmarket!B43</f>
+        <v>3주</v>
+      </c>
+      <c r="C43" s="83">
+        <f>Gmarket!C43</f>
+        <v>42751</v>
+      </c>
+      <c r="D43" s="82" t="str">
+        <f>Gmarket!D43</f>
+        <v>월</v>
+      </c>
+      <c r="E43" s="75">
+        <f>Gmarket!E43+Auction!E43</f>
+        <v>50390</v>
+      </c>
+      <c r="F43" s="75">
+        <f>Gmarket!F43+Auction!F43</f>
+        <v>730</v>
+      </c>
+      <c r="G43" s="75">
+        <f>Gmarket!G43+Auction!G43</f>
+        <v>140720</v>
+      </c>
+      <c r="H43" s="75">
+        <f>Gmarket!H43+Auction!H43</f>
+        <v>32</v>
+      </c>
+      <c r="I43" s="75">
+        <f>Gmarket!I43+Auction!I43</f>
+        <v>119200</v>
+      </c>
+      <c r="J43" s="76">
+        <f t="shared" si="19"/>
+        <v>4.3835616438356165E-2</v>
+      </c>
+      <c r="K43" s="76">
+        <f t="shared" si="20"/>
+        <v>1.4487001389164516E-2</v>
+      </c>
+      <c r="L43" s="75">
+        <f t="shared" si="20"/>
+        <v>192.76712328767124</v>
+      </c>
+      <c r="M43" s="70">
+        <f t="shared" si="21"/>
+        <v>0.84707220011370099</v>
+      </c>
+      <c r="N43" s="76">
+        <f t="shared" si="22"/>
+        <v>-0.12389490723446639</v>
+      </c>
+      <c r="O43" s="76">
+        <f t="shared" si="22"/>
+        <v>0.77777777777777768</v>
+      </c>
+      <c r="P43" s="76">
+        <f t="shared" si="22"/>
+        <v>-8.8685015290519864E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="82" t="str">
+        <f>Gmarket!B44</f>
+        <v>3주</v>
+      </c>
+      <c r="C44" s="83">
+        <f>Gmarket!C44</f>
+        <v>42752</v>
+      </c>
+      <c r="D44" s="82" t="str">
+        <f>Gmarket!D44</f>
+        <v>화</v>
+      </c>
+      <c r="E44" s="75">
+        <f>Gmarket!E44+Auction!E44</f>
+        <v>51662</v>
+      </c>
+      <c r="F44" s="75">
+        <f>Gmarket!F44+Auction!F44</f>
+        <v>660</v>
+      </c>
+      <c r="G44" s="75">
+        <f>Gmarket!G44+Auction!G44</f>
+        <v>125020</v>
+      </c>
+      <c r="H44" s="75">
+        <f>Gmarket!H44+Auction!H44</f>
         <v>10</v>
       </c>
-      <c r="I37" s="75">
-        <v>104900</v>
-      </c>
-      <c r="J37" s="76">
-        <f t="shared" si="9"/>
-        <v>2.6809651474530832E-2</v>
-      </c>
-      <c r="K37" s="76">
-        <f t="shared" si="10"/>
-        <v>1.4296117435130888E-2</v>
-      </c>
-      <c r="L37" s="75">
-        <f t="shared" si="10"/>
-        <v>209.97319034852546</v>
-      </c>
-      <c r="M37" s="70">
-        <f t="shared" si="11"/>
-        <v>1.3393769152196118</v>
-      </c>
-      <c r="N37" s="76">
-        <f t="shared" si="12"/>
-        <v>-2.1978021978022011E-2</v>
-      </c>
-      <c r="O37" s="76">
-        <f t="shared" si="12"/>
-        <v>-0.58333333333333326</v>
-      </c>
-      <c r="P37" s="76">
-        <f t="shared" si="12"/>
-        <v>-0.36466598025558716</v>
-      </c>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B38" s="80"/>
-      <c r="C38" s="72">
-        <v>42746</v>
-      </c>
-      <c r="D38" s="80" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" s="75">
-        <v>24855</v>
-      </c>
-      <c r="F38" s="75">
-        <v>359</v>
-      </c>
-      <c r="G38" s="75">
-        <v>69420</v>
-      </c>
-      <c r="H38" s="75">
-        <v>10</v>
-      </c>
-      <c r="I38" s="75">
-        <v>57140</v>
-      </c>
-      <c r="J38" s="76">
-        <f t="shared" si="9"/>
-        <v>2.7855153203342618E-2</v>
-      </c>
-      <c r="K38" s="76">
-        <f t="shared" si="10"/>
-        <v>1.4443773888553611E-2</v>
-      </c>
-      <c r="L38" s="75">
-        <f t="shared" si="10"/>
-        <v>193.37047353760445</v>
-      </c>
-      <c r="M38" s="70">
-        <f t="shared" si="11"/>
-        <v>0.82310573321809277</v>
-      </c>
-      <c r="N38" s="76">
-        <f t="shared" si="12"/>
-        <v>-1.7965766020653584E-2</v>
-      </c>
-      <c r="O38" s="76">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P38" s="76">
-        <f t="shared" si="12"/>
-        <v>-0.19255009467823536</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B39" s="80"/>
-      <c r="C39" s="72">
-        <v>42747</v>
-      </c>
-      <c r="D39" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="E39" s="75">
-        <v>30123</v>
-      </c>
-      <c r="F39" s="75">
-        <v>397</v>
-      </c>
-      <c r="G39" s="75">
-        <v>69880</v>
-      </c>
-      <c r="H39" s="75">
+      <c r="I44" s="75">
+        <f>Gmarket!I44+Auction!I44</f>
+        <v>105308</v>
+      </c>
+      <c r="J44" s="76">
+        <f t="shared" si="19"/>
+        <v>1.5151515151515152E-2</v>
+      </c>
+      <c r="K44" s="76">
+        <f t="shared" si="20"/>
+        <v>1.2775347450737487E-2</v>
+      </c>
+      <c r="L44" s="75">
+        <f t="shared" si="20"/>
+        <v>189.42424242424244</v>
+      </c>
+      <c r="M44" s="70">
+        <f t="shared" si="21"/>
+        <v>0.84232922732362825</v>
+      </c>
+      <c r="N44" s="76">
+        <f t="shared" si="22"/>
+        <v>-0.20186414708886624</v>
+      </c>
+      <c r="O44" s="76">
+        <f t="shared" si="22"/>
+        <v>-0.5</v>
+      </c>
+      <c r="P44" s="76">
+        <f t="shared" si="22"/>
+        <v>-0.49805529075309818</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B45" s="82" t="str">
+        <f>Gmarket!B45</f>
+        <v>3주</v>
+      </c>
+      <c r="C45" s="83">
+        <f>Gmarket!C45</f>
+        <v>42753</v>
+      </c>
+      <c r="D45" s="82" t="str">
+        <f>Gmarket!D45</f>
+        <v>수</v>
+      </c>
+      <c r="E45" s="75">
+        <f>Gmarket!E45+Auction!E45</f>
+        <v>50244</v>
+      </c>
+      <c r="F45" s="75">
+        <f>Gmarket!F45+Auction!F45</f>
+        <v>752</v>
+      </c>
+      <c r="G45" s="75">
+        <f>Gmarket!G45+Auction!G45</f>
+        <v>142380</v>
+      </c>
+      <c r="H45" s="75">
+        <f>Gmarket!H45+Auction!H45</f>
+        <v>40</v>
+      </c>
+      <c r="I45" s="75">
+        <f>Gmarket!I45+Auction!I45</f>
+        <v>420772</v>
+      </c>
+      <c r="J45" s="76">
+        <f t="shared" si="19"/>
+        <v>5.3191489361702128E-2</v>
+      </c>
+      <c r="K45" s="76">
+        <f t="shared" si="20"/>
+        <v>1.4966961229201497E-2</v>
+      </c>
+      <c r="L45" s="75">
+        <f t="shared" si="20"/>
+        <v>189.33510638297872</v>
+      </c>
+      <c r="M45" s="70">
+        <f t="shared" si="21"/>
+        <v>2.9552746172215199</v>
+      </c>
+      <c r="N45" s="76">
+        <f t="shared" si="22"/>
+        <v>2.5496974935177219E-2</v>
+      </c>
+      <c r="O45" s="76">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="P45" s="76">
+        <f t="shared" si="22"/>
+        <v>2.6819390969548476</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="82" t="str">
+        <f>Gmarket!B46</f>
+        <v>3주</v>
+      </c>
+      <c r="C46" s="83">
+        <f>Gmarket!C46</f>
+        <v>42754</v>
+      </c>
+      <c r="D46" s="82" t="str">
+        <f>Gmarket!D46</f>
+        <v>목</v>
+      </c>
+      <c r="E46" s="75">
+        <f>Gmarket!E46+Auction!E46</f>
+        <v>49738</v>
+      </c>
+      <c r="F46" s="75">
+        <f>Gmarket!F46+Auction!F46</f>
+        <v>744</v>
+      </c>
+      <c r="G46" s="75">
+        <f>Gmarket!G46+Auction!G46</f>
+        <v>138980</v>
+      </c>
+      <c r="H46" s="75">
+        <f>Gmarket!H46+Auction!H46</f>
+        <v>32</v>
+      </c>
+      <c r="I46" s="75">
+        <f>Gmarket!I46+Auction!I46</f>
+        <v>173200</v>
+      </c>
+      <c r="J46" s="76">
+        <f t="shared" si="19"/>
+        <v>4.3010752688172046E-2</v>
+      </c>
+      <c r="K46" s="76">
+        <f t="shared" si="20"/>
+        <v>1.4958381921267441E-2</v>
+      </c>
+      <c r="L46" s="75">
+        <f t="shared" si="20"/>
+        <v>186.80107526881721</v>
+      </c>
+      <c r="M46" s="70">
+        <f t="shared" si="21"/>
+        <v>1.2462224780543962</v>
+      </c>
+      <c r="N46" s="76">
+        <f t="shared" si="22"/>
+        <v>-5.5809959931311104E-3</v>
+      </c>
+      <c r="O46" s="76">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="P46" s="76">
+        <f t="shared" si="22"/>
+        <v>0.17516148292894762</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="82" t="str">
+        <f>Gmarket!B47</f>
+        <v>3주</v>
+      </c>
+      <c r="C47" s="83">
+        <f>Gmarket!C47</f>
+        <v>42755</v>
+      </c>
+      <c r="D47" s="82" t="str">
+        <f>Gmarket!D47</f>
+        <v>금</v>
+      </c>
+      <c r="E47" s="75">
+        <f>Gmarket!E47+Auction!E47</f>
+        <v>44920</v>
+      </c>
+      <c r="F47" s="75">
+        <f>Gmarket!F47+Auction!F47</f>
+        <v>584</v>
+      </c>
+      <c r="G47" s="75">
+        <f>Gmarket!G47+Auction!G47</f>
+        <v>108000</v>
+      </c>
+      <c r="H47" s="75">
+        <f>Gmarket!H47+Auction!H47</f>
+        <v>54</v>
+      </c>
+      <c r="I47" s="75">
+        <f>Gmarket!I47+Auction!I47</f>
+        <v>332940</v>
+      </c>
+      <c r="J47" s="76">
+        <f t="shared" si="19"/>
+        <v>9.2465753424657529E-2</v>
+      </c>
+      <c r="K47" s="76">
+        <f t="shared" si="20"/>
+        <v>1.3000890471950133E-2</v>
+      </c>
+      <c r="L47" s="75">
+        <f t="shared" si="20"/>
+        <v>184.93150684931507</v>
+      </c>
+      <c r="M47" s="70">
+        <f t="shared" si="21"/>
+        <v>3.0827777777777778</v>
+      </c>
+      <c r="N47" s="76">
+        <f t="shared" si="22"/>
+        <v>-0.12536443148688048</v>
+      </c>
+      <c r="O47" s="76">
+        <f t="shared" si="22"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="P47" s="76">
+        <f t="shared" si="22"/>
+        <v>1.5070783132530119</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B48" s="82" t="str">
+        <f>Gmarket!B48</f>
+        <v>3주</v>
+      </c>
+      <c r="C48" s="83">
+        <f>Gmarket!C48</f>
+        <v>42756</v>
+      </c>
+      <c r="D48" s="82" t="str">
+        <f>Gmarket!D48</f>
+        <v>토</v>
+      </c>
+      <c r="E48" s="75">
+        <f>Gmarket!E48+Auction!E48</f>
+        <v>39820</v>
+      </c>
+      <c r="F48" s="75">
+        <f>Gmarket!F48+Auction!F48</f>
+        <v>600</v>
+      </c>
+      <c r="G48" s="75">
+        <f>Gmarket!G48+Auction!G48</f>
+        <v>103700</v>
+      </c>
+      <c r="H48" s="75">
+        <f>Gmarket!H48+Auction!H48</f>
+        <v>2</v>
+      </c>
+      <c r="I48" s="75">
+        <f>Gmarket!I48+Auction!I48</f>
+        <v>17000</v>
+      </c>
+      <c r="J48" s="76">
+        <f t="shared" si="19"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="K48" s="76">
+        <f t="shared" si="20"/>
+        <v>1.5067805123053743E-2</v>
+      </c>
+      <c r="L48" s="75">
+        <f t="shared" si="20"/>
+        <v>172.83333333333334</v>
+      </c>
+      <c r="M48" s="70">
+        <f t="shared" si="21"/>
+        <v>0.16393442622950818</v>
+      </c>
+      <c r="N48" s="76">
+        <f t="shared" si="22"/>
+        <v>-7.0621975264384296E-2</v>
+      </c>
+      <c r="O48" s="76">
+        <f t="shared" si="22"/>
+        <v>-0.91666666666666663</v>
+      </c>
+      <c r="P48" s="76">
+        <f t="shared" si="22"/>
+        <v>-0.91634516967167934</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="82" t="str">
+        <f>Gmarket!B49</f>
+        <v>4주</v>
+      </c>
+      <c r="C49" s="83">
+        <f>Gmarket!C49</f>
+        <v>42757</v>
+      </c>
+      <c r="D49" s="82" t="str">
+        <f>Gmarket!D49</f>
+        <v>일</v>
+      </c>
+      <c r="E49" s="75">
+        <f>Gmarket!E49+Auction!E49</f>
+        <v>44726</v>
+      </c>
+      <c r="F49" s="75">
+        <f>Gmarket!F49+Auction!F49</f>
+        <v>692</v>
+      </c>
+      <c r="G49" s="75">
+        <f>Gmarket!G49+Auction!G49</f>
+        <v>125400</v>
+      </c>
+      <c r="H49" s="75">
+        <f>Gmarket!H49+Auction!H49</f>
+        <v>12</v>
+      </c>
+      <c r="I49" s="75">
+        <f>Gmarket!I49+Auction!I49</f>
+        <v>137640</v>
+      </c>
+      <c r="J49" s="76">
+        <f t="shared" si="19"/>
+        <v>1.7341040462427744E-2</v>
+      </c>
+      <c r="K49" s="76">
+        <f t="shared" si="20"/>
+        <v>1.5471984975182221E-2</v>
+      </c>
+      <c r="L49" s="75">
+        <f t="shared" si="20"/>
+        <v>181.21387283236993</v>
+      </c>
+      <c r="M49" s="70">
+        <f t="shared" si="21"/>
+        <v>1.0976076555023924</v>
+      </c>
+      <c r="N49" s="76">
+        <f t="shared" si="22"/>
+        <v>-0.15006100040666936</v>
+      </c>
+      <c r="O49" s="76">
+        <f t="shared" si="22"/>
+        <v>-0.7</v>
+      </c>
+      <c r="P49" s="76">
+        <f t="shared" si="22"/>
+        <v>-0.62197198571820933</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B50" s="82" t="str">
+        <f>Gmarket!B50</f>
+        <v>4주</v>
+      </c>
+      <c r="C50" s="83">
+        <f>Gmarket!C50</f>
+        <v>42758</v>
+      </c>
+      <c r="D50" s="82" t="str">
+        <f>Gmarket!D50</f>
+        <v>월</v>
+      </c>
+      <c r="E50" s="75">
+        <f>Gmarket!E50+Auction!E50</f>
+        <v>48898</v>
+      </c>
+      <c r="F50" s="75">
+        <f>Gmarket!F50+Auction!F50</f>
+        <v>578</v>
+      </c>
+      <c r="G50" s="75">
+        <f>Gmarket!G50+Auction!G50</f>
+        <v>106420</v>
+      </c>
+      <c r="H50" s="75">
+        <f>Gmarket!H50+Auction!H50</f>
         <v>8</v>
       </c>
-      <c r="I39" s="75">
-        <v>73692</v>
-      </c>
-      <c r="J39" s="76">
-        <f t="shared" si="9"/>
-        <v>2.0151133501259445E-2</v>
-      </c>
-      <c r="K39" s="76">
-        <f t="shared" si="10"/>
-        <v>1.3179298210669588E-2</v>
-      </c>
-      <c r="L39" s="75">
-        <f t="shared" si="10"/>
-        <v>176.02015113350126</v>
-      </c>
-      <c r="M39" s="70">
-        <f t="shared" si="11"/>
-        <v>1.0545506582713222</v>
-      </c>
-      <c r="N39" s="76">
-        <f t="shared" si="12"/>
-        <v>-4.3918456697222608E-2</v>
-      </c>
-      <c r="O39" s="76">
-        <f t="shared" si="12"/>
-        <v>-0.4285714285714286</v>
-      </c>
-      <c r="P39" s="76">
-        <f t="shared" si="12"/>
-        <v>-0.39497536945812806</v>
-      </c>
-    </row>
-    <row r="40" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="80"/>
-      <c r="C40" s="72">
-        <v>42748</v>
-      </c>
-      <c r="D40" s="80" t="s">
-        <v>43</v>
-      </c>
-      <c r="E40" s="75">
-        <v>21475</v>
-      </c>
-      <c r="F40" s="75">
-        <v>330</v>
-      </c>
-      <c r="G40" s="75">
-        <v>61740</v>
-      </c>
-      <c r="H40" s="75">
+      <c r="I50" s="75">
+        <f>Gmarket!I50+Auction!I50</f>
+        <v>33400</v>
+      </c>
+      <c r="J50" s="76">
+        <f t="shared" si="19"/>
+        <v>1.384083044982699E-2</v>
+      </c>
+      <c r="K50" s="76">
+        <f t="shared" si="20"/>
+        <v>1.1820524356824409E-2</v>
+      </c>
+      <c r="L50" s="75">
+        <f t="shared" si="20"/>
+        <v>184.11764705882354</v>
+      </c>
+      <c r="M50" s="70">
+        <f t="shared" si="21"/>
+        <v>0.31385077992858484</v>
+      </c>
+      <c r="N50" s="76">
+        <f t="shared" si="22"/>
+        <v>-0.24374644684479818</v>
+      </c>
+      <c r="O50" s="76">
+        <f t="shared" si="22"/>
+        <v>-0.75</v>
+      </c>
+      <c r="P50" s="76">
+        <f t="shared" si="22"/>
+        <v>-0.71979865771812079</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="82" t="str">
+        <f>Gmarket!B51</f>
+        <v>4주</v>
+      </c>
+      <c r="C51" s="83">
+        <f>Gmarket!C51</f>
+        <v>42759</v>
+      </c>
+      <c r="D51" s="82" t="str">
+        <f>Gmarket!D51</f>
+        <v>화</v>
+      </c>
+      <c r="E51" s="75">
+        <f>Gmarket!E51+Auction!E51</f>
+        <v>22824</v>
+      </c>
+      <c r="F51" s="75">
+        <f>Gmarket!F51+Auction!F51</f>
+        <v>408</v>
+      </c>
+      <c r="G51" s="75">
+        <f>Gmarket!G51+Auction!G51</f>
+        <v>74540</v>
+      </c>
+      <c r="H51" s="75">
+        <f>Gmarket!H51+Auction!H51</f>
+        <v>4</v>
+      </c>
+      <c r="I51" s="75">
+        <f>Gmarket!I51+Auction!I51</f>
+        <v>71704</v>
+      </c>
+      <c r="J51" s="76">
+        <f t="shared" si="19"/>
+        <v>9.8039215686274508E-3</v>
+      </c>
+      <c r="K51" s="76">
+        <f t="shared" si="20"/>
+        <v>1.7875920084121977E-2</v>
+      </c>
+      <c r="L51" s="75">
+        <f t="shared" si="20"/>
+        <v>182.69607843137254</v>
+      </c>
+      <c r="M51" s="70">
+        <f t="shared" si="21"/>
+        <v>0.96195331365709691</v>
+      </c>
+      <c r="N51" s="76">
+        <f t="shared" si="22"/>
+        <v>-0.40377539593665013</v>
+      </c>
+      <c r="O51" s="76">
+        <f t="shared" si="22"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P51" s="76">
+        <f t="shared" si="22"/>
+        <v>-0.31910206252136586</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B52" s="82" t="str">
+        <f>Gmarket!B52</f>
+        <v>4주</v>
+      </c>
+      <c r="C52" s="83">
+        <f>Gmarket!C52</f>
+        <v>42760</v>
+      </c>
+      <c r="D52" s="82" t="str">
+        <f>Gmarket!D52</f>
+        <v>수</v>
+      </c>
+      <c r="E52" s="75">
+        <f>Gmarket!E52+Auction!E52</f>
+        <v>37324</v>
+      </c>
+      <c r="F52" s="75">
+        <f>Gmarket!F52+Auction!F52</f>
+        <v>524</v>
+      </c>
+      <c r="G52" s="75">
+        <f>Gmarket!G52+Auction!G52</f>
+        <v>92500</v>
+      </c>
+      <c r="H52" s="75">
+        <f>Gmarket!H52+Auction!H52</f>
+        <v>12</v>
+      </c>
+      <c r="I52" s="75">
+        <f>Gmarket!I52+Auction!I52</f>
+        <v>57600</v>
+      </c>
+      <c r="J52" s="76">
+        <f t="shared" si="19"/>
+        <v>2.2900763358778626E-2</v>
+      </c>
+      <c r="K52" s="76">
+        <f t="shared" si="20"/>
+        <v>1.403922409173722E-2</v>
+      </c>
+      <c r="L52" s="75">
+        <f t="shared" si="20"/>
+        <v>176.52671755725191</v>
+      </c>
+      <c r="M52" s="70">
+        <f t="shared" si="21"/>
+        <v>0.62270270270270267</v>
+      </c>
+      <c r="N52" s="76">
+        <f t="shared" si="22"/>
+        <v>-0.35033010254249197</v>
+      </c>
+      <c r="O52" s="76">
+        <f t="shared" si="22"/>
+        <v>-0.7</v>
+      </c>
+      <c r="P52" s="76">
+        <f t="shared" si="22"/>
+        <v>-0.8631087619898663</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B53" s="82" t="str">
+        <f>Gmarket!B53</f>
+        <v>4주</v>
+      </c>
+      <c r="C53" s="83">
+        <f>Gmarket!C53</f>
+        <v>42761</v>
+      </c>
+      <c r="D53" s="82" t="str">
+        <f>Gmarket!D53</f>
+        <v>목</v>
+      </c>
+      <c r="E53" s="75">
+        <f>Gmarket!E53+Auction!E53</f>
+        <v>34172</v>
+      </c>
+      <c r="F53" s="75">
+        <f>Gmarket!F53+Auction!F53</f>
+        <v>612</v>
+      </c>
+      <c r="G53" s="75">
+        <f>Gmarket!G53+Auction!G53</f>
+        <v>100020</v>
+      </c>
+      <c r="H53" s="75">
+        <f>Gmarket!H53+Auction!H53</f>
+        <v>2</v>
+      </c>
+      <c r="I53" s="75">
+        <f>Gmarket!I53+Auction!I53</f>
+        <v>9400</v>
+      </c>
+      <c r="J53" s="76">
+        <f t="shared" si="19"/>
+        <v>3.2679738562091504E-3</v>
+      </c>
+      <c r="K53" s="76">
+        <f t="shared" si="20"/>
+        <v>1.7909399508369426E-2</v>
+      </c>
+      <c r="L53" s="75">
+        <f t="shared" si="20"/>
+        <v>163.43137254901961</v>
+      </c>
+      <c r="M53" s="70">
+        <f t="shared" si="21"/>
+        <v>9.398120375924815E-2</v>
+      </c>
+      <c r="N53" s="76">
+        <f t="shared" si="22"/>
+        <v>-0.2803281047632753</v>
+      </c>
+      <c r="O53" s="76">
+        <f t="shared" si="22"/>
+        <v>-0.9375</v>
+      </c>
+      <c r="P53" s="76">
+        <f t="shared" si="22"/>
+        <v>-0.94572748267898388</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B54" s="82" t="str">
+        <f>Gmarket!B54</f>
+        <v>4주</v>
+      </c>
+      <c r="C54" s="83">
+        <f>Gmarket!C54</f>
+        <v>42762</v>
+      </c>
+      <c r="D54" s="82" t="str">
+        <f>Gmarket!D54</f>
+        <v>금</v>
+      </c>
+      <c r="E54" s="75">
+        <f>Gmarket!E54+Auction!E54</f>
+        <v>31306</v>
+      </c>
+      <c r="F54" s="75">
+        <f>Gmarket!F54+Auction!F54</f>
+        <v>494</v>
+      </c>
+      <c r="G54" s="75">
+        <f>Gmarket!G54+Auction!G54</f>
+        <v>86280</v>
+      </c>
+      <c r="H54" s="75">
+        <f>Gmarket!H54+Auction!H54</f>
+        <v>26</v>
+      </c>
+      <c r="I54" s="75">
+        <f>Gmarket!I54+Auction!I54</f>
+        <v>280800</v>
+      </c>
+      <c r="J54" s="76">
+        <f t="shared" si="19"/>
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="K54" s="76">
+        <f t="shared" si="20"/>
+        <v>1.5779722736855555E-2</v>
+      </c>
+      <c r="L54" s="75">
+        <f t="shared" si="20"/>
+        <v>174.65587044534414</v>
+      </c>
+      <c r="M54" s="70">
+        <f t="shared" si="21"/>
+        <v>3.25452016689847</v>
+      </c>
+      <c r="N54" s="76">
+        <f t="shared" si="22"/>
+        <v>-0.20111111111111113</v>
+      </c>
+      <c r="O54" s="76">
+        <f t="shared" si="22"/>
+        <v>-0.5185185185185186</v>
+      </c>
+      <c r="P54" s="76">
+        <f t="shared" si="22"/>
+        <v>-0.1566047936565147</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B55" s="82" t="str">
+        <f>Gmarket!B55</f>
+        <v>4주</v>
+      </c>
+      <c r="C55" s="83">
+        <f>Gmarket!C55</f>
+        <v>42763</v>
+      </c>
+      <c r="D55" s="82" t="str">
+        <f>Gmarket!D55</f>
+        <v>토</v>
+      </c>
+      <c r="E55" s="75">
+        <f>Gmarket!E55+Auction!E55</f>
+        <v>37158</v>
+      </c>
+      <c r="F55" s="75">
+        <f>Gmarket!F55+Auction!F55</f>
+        <v>528</v>
+      </c>
+      <c r="G55" s="75">
+        <f>Gmarket!G55+Auction!G55</f>
+        <v>99320</v>
+      </c>
+      <c r="H55" s="75">
+        <f>Gmarket!H55+Auction!H55</f>
+        <v>12</v>
+      </c>
+      <c r="I55" s="75">
+        <f>Gmarket!I55+Auction!I55</f>
+        <v>70800</v>
+      </c>
+      <c r="J55" s="76">
+        <f t="shared" si="19"/>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="K55" s="76">
+        <f t="shared" si="20"/>
+        <v>1.4209591474245116E-2</v>
+      </c>
+      <c r="L55" s="75">
+        <f t="shared" si="20"/>
+        <v>188.10606060606059</v>
+      </c>
+      <c r="M55" s="70">
+        <f t="shared" si="21"/>
+        <v>0.71284736206202171</v>
+      </c>
+      <c r="N55" s="76">
+        <f t="shared" si="22"/>
+        <v>-4.2237222757955606E-2</v>
+      </c>
+      <c r="O55" s="76">
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
-      <c r="I40" s="75">
-        <v>66400</v>
-      </c>
-      <c r="J40" s="76">
-        <f t="shared" si="9"/>
-        <v>1.5151515151515152E-2</v>
-      </c>
-      <c r="K40" s="76">
-        <f t="shared" si="10"/>
-        <v>1.5366705471478464E-2</v>
-      </c>
-      <c r="L40" s="75">
-        <f t="shared" si="10"/>
-        <v>187.09090909090909</v>
-      </c>
-      <c r="M40" s="70">
-        <f t="shared" si="11"/>
-        <v>1.0754778101716878</v>
-      </c>
-      <c r="N40" s="76">
-        <f t="shared" si="12"/>
-        <v>0.10923463887890761</v>
-      </c>
-      <c r="O40" s="76">
-        <f t="shared" si="12"/>
-        <v>-0.72222222222222221</v>
-      </c>
-      <c r="P40" s="76">
-        <f t="shared" si="12"/>
-        <v>0.26476190476190475</v>
-      </c>
-    </row>
-    <row r="41" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="80"/>
-      <c r="C41" s="72">
-        <v>42749</v>
-      </c>
-      <c r="D41" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41" s="75">
-        <v>21799</v>
-      </c>
-      <c r="F41" s="75">
-        <v>306</v>
-      </c>
-      <c r="G41" s="75">
-        <v>55790</v>
-      </c>
-      <c r="H41" s="75">
-        <v>12</v>
-      </c>
-      <c r="I41" s="75">
-        <v>101608</v>
-      </c>
-      <c r="J41" s="76">
-        <f t="shared" si="9"/>
-        <v>3.9215686274509803E-2</v>
-      </c>
-      <c r="K41" s="76">
-        <f t="shared" si="10"/>
-        <v>1.4037341162438644E-2</v>
-      </c>
-      <c r="L41" s="75">
-        <f t="shared" si="10"/>
-        <v>182.3202614379085</v>
-      </c>
-      <c r="M41" s="70">
-        <f t="shared" si="11"/>
-        <v>1.8212582900161318</v>
-      </c>
-      <c r="N41" s="76">
-        <f t="shared" si="12"/>
-        <v>-0.12732676364773976</v>
-      </c>
-      <c r="O41" s="76">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="P41" s="76">
-        <f t="shared" si="12"/>
-        <v>1.3217256192304179</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="80"/>
-      <c r="C42" s="72">
-        <v>42750</v>
-      </c>
-      <c r="D42" s="80" t="s">
-        <v>45</v>
-      </c>
-      <c r="E42" s="75">
-        <v>26124</v>
-      </c>
-      <c r="F42" s="75">
-        <v>393</v>
-      </c>
-      <c r="G42" s="75">
-        <v>73770</v>
-      </c>
-      <c r="H42" s="75">
+      <c r="P55" s="76">
+        <f t="shared" si="22"/>
+        <v>3.1647058823529415</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B56" s="82" t="str">
+        <f>Gmarket!B56</f>
+        <v>5주</v>
+      </c>
+      <c r="C56" s="83">
+        <f>Gmarket!C56</f>
+        <v>42764</v>
+      </c>
+      <c r="D56" s="82" t="str">
+        <f>Gmarket!D56</f>
+        <v>일</v>
+      </c>
+      <c r="E56" s="75">
+        <f>Gmarket!E56+Auction!E56</f>
+        <v>60190</v>
+      </c>
+      <c r="F56" s="75">
+        <f>Gmarket!F56+Auction!F56</f>
+        <v>742</v>
+      </c>
+      <c r="G56" s="75">
+        <f>Gmarket!G56+Auction!G56</f>
+        <v>132520</v>
+      </c>
+      <c r="H56" s="75">
+        <f>Gmarket!H56+Auction!H56</f>
         <v>20</v>
       </c>
-      <c r="I42" s="75">
-        <v>182050</v>
-      </c>
-      <c r="J42" s="76">
-        <f t="shared" si="9"/>
-        <v>5.0890585241730277E-2</v>
-      </c>
-      <c r="K42" s="76">
-        <f t="shared" si="10"/>
-        <v>1.5043638033991731E-2</v>
-      </c>
-      <c r="L42" s="75">
-        <f t="shared" si="10"/>
-        <v>187.70992366412213</v>
-      </c>
-      <c r="M42" s="70">
-        <f t="shared" si="11"/>
-        <v>2.4678053409244951</v>
-      </c>
-      <c r="N42" s="76">
-        <f t="shared" si="12"/>
-        <v>2.6436621678029848E-2</v>
-      </c>
-      <c r="O42" s="76">
-        <f t="shared" si="12"/>
-        <v>0.53846153846153855</v>
-      </c>
-      <c r="P42" s="76">
-        <f t="shared" si="12"/>
-        <v>1.0284122562674094</v>
-      </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B43" s="80"/>
-      <c r="C43" s="72">
-        <v>42751</v>
-      </c>
-      <c r="D43" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" s="75">
-        <v>25195</v>
-      </c>
-      <c r="F43" s="75">
-        <v>365</v>
-      </c>
-      <c r="G43" s="75">
-        <v>70360</v>
-      </c>
-      <c r="H43" s="75">
-        <v>16</v>
-      </c>
-      <c r="I43" s="75">
-        <v>59600</v>
-      </c>
-      <c r="J43" s="76">
-        <f t="shared" si="9"/>
-        <v>4.3835616438356165E-2</v>
-      </c>
-      <c r="K43" s="76">
-        <f t="shared" si="10"/>
-        <v>1.4487001389164516E-2</v>
-      </c>
-      <c r="L43" s="75">
-        <f t="shared" si="10"/>
-        <v>192.76712328767124</v>
-      </c>
-      <c r="M43" s="70">
-        <f t="shared" si="11"/>
-        <v>0.84707220011370099</v>
-      </c>
-      <c r="N43" s="76">
-        <f t="shared" si="12"/>
-        <v>-0.12389490723446639</v>
-      </c>
-      <c r="O43" s="76">
-        <f t="shared" si="12"/>
-        <v>0.77777777777777768</v>
-      </c>
-      <c r="P43" s="76">
-        <f t="shared" si="12"/>
-        <v>-8.8685015290519864E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="80"/>
-      <c r="C44" s="72">
-        <v>42752</v>
-      </c>
-      <c r="D44" s="80" t="s">
+      <c r="I56" s="75">
+        <f>Gmarket!I56+Auction!I56</f>
+        <v>86000</v>
+      </c>
+      <c r="J56" s="76">
+        <f t="shared" si="19"/>
+        <v>2.6954177897574125E-2</v>
+      </c>
+      <c r="K56" s="76">
+        <f t="shared" si="20"/>
+        <v>1.2327629174281441E-2</v>
+      </c>
+      <c r="L56" s="75">
+        <f t="shared" si="20"/>
+        <v>178.59838274932613</v>
+      </c>
+      <c r="M56" s="70">
+        <f t="shared" si="21"/>
+        <v>0.64895864775128287</v>
+      </c>
+      <c r="N56" s="76">
+        <f t="shared" ref="N56:P58" si="23">IFERROR(G56/G49-1,0)</f>
+        <v>5.6778309409888372E-2</v>
+      </c>
+      <c r="O56" s="76">
+        <f t="shared" si="23"/>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="P56" s="76">
+        <f t="shared" si="23"/>
+        <v>-0.37518163324614939</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B57" s="82" t="str">
+        <f>Gmarket!B57</f>
+        <v>5주</v>
+      </c>
+      <c r="C57" s="83">
+        <f>Gmarket!C57</f>
+        <v>42765</v>
+      </c>
+      <c r="D57" s="82" t="str">
+        <f>Gmarket!D57</f>
+        <v>월</v>
+      </c>
+      <c r="E57" s="75">
+        <f>Gmarket!E57+Auction!E57</f>
+        <v>61908</v>
+      </c>
+      <c r="F57" s="75">
+        <f>Gmarket!F57+Auction!F57</f>
+        <v>1030</v>
+      </c>
+      <c r="G57" s="75">
+        <f>Gmarket!G57+Auction!G57</f>
+        <v>196760</v>
+      </c>
+      <c r="H57" s="75">
+        <f>Gmarket!H57+Auction!H57</f>
         <v>40</v>
       </c>
-      <c r="E44" s="75">
-        <v>25831</v>
-      </c>
-      <c r="F44" s="75">
-        <v>330</v>
-      </c>
-      <c r="G44" s="75">
-        <v>62510</v>
-      </c>
-      <c r="H44" s="75">
-        <v>5</v>
-      </c>
-      <c r="I44" s="75">
-        <v>52654</v>
-      </c>
-      <c r="J44" s="76">
-        <f t="shared" si="9"/>
-        <v>1.5151515151515152E-2</v>
-      </c>
-      <c r="K44" s="76">
-        <f t="shared" si="10"/>
-        <v>1.2775347450737487E-2</v>
-      </c>
-      <c r="L44" s="75">
-        <f t="shared" si="10"/>
-        <v>189.42424242424244</v>
-      </c>
-      <c r="M44" s="70">
-        <f t="shared" si="11"/>
-        <v>0.84232922732362825</v>
-      </c>
-      <c r="N44" s="76">
-        <f t="shared" si="12"/>
-        <v>-0.20186414708886624</v>
-      </c>
-      <c r="O44" s="76">
-        <f t="shared" si="12"/>
-        <v>-0.5</v>
-      </c>
-      <c r="P44" s="76">
-        <f t="shared" si="12"/>
-        <v>-0.49805529075309818</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B45" s="80"/>
-      <c r="C45" s="72">
-        <v>42753</v>
-      </c>
-      <c r="D45" s="80" t="s">
-        <v>41</v>
-      </c>
-      <c r="E45" s="75">
-        <v>25122</v>
-      </c>
-      <c r="F45" s="75">
-        <v>376</v>
-      </c>
-      <c r="G45" s="75">
-        <v>71190</v>
-      </c>
-      <c r="H45" s="75">
-        <v>20</v>
-      </c>
-      <c r="I45" s="75">
-        <v>210386</v>
-      </c>
-      <c r="J45" s="76">
-        <f t="shared" si="9"/>
-        <v>5.3191489361702128E-2</v>
-      </c>
-      <c r="K45" s="76">
-        <f t="shared" si="10"/>
-        <v>1.4966961229201497E-2</v>
-      </c>
-      <c r="L45" s="75">
-        <f t="shared" si="10"/>
-        <v>189.33510638297872</v>
-      </c>
-      <c r="M45" s="70">
-        <f t="shared" si="11"/>
-        <v>2.9552746172215199</v>
-      </c>
-      <c r="N45" s="76">
-        <f t="shared" si="12"/>
-        <v>2.5496974935177219E-2</v>
-      </c>
-      <c r="O45" s="76">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="P45" s="76">
-        <f t="shared" si="12"/>
-        <v>2.6819390969548476</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="80"/>
-      <c r="C46" s="72">
-        <v>42754</v>
-      </c>
-      <c r="D46" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="E46" s="75">
-        <v>24869</v>
-      </c>
-      <c r="F46" s="75">
-        <v>372</v>
-      </c>
-      <c r="G46" s="75">
-        <v>69490</v>
-      </c>
-      <c r="H46" s="75">
-        <v>16</v>
-      </c>
-      <c r="I46" s="75">
-        <v>86600</v>
-      </c>
-      <c r="J46" s="76">
-        <f t="shared" si="9"/>
-        <v>4.3010752688172046E-2</v>
-      </c>
-      <c r="K46" s="76">
-        <f t="shared" si="10"/>
-        <v>1.4958381921267441E-2</v>
-      </c>
-      <c r="L46" s="75">
-        <f t="shared" si="10"/>
-        <v>186.80107526881721</v>
-      </c>
-      <c r="M46" s="70">
-        <f t="shared" si="11"/>
-        <v>1.2462224780543962</v>
-      </c>
-      <c r="N46" s="76">
-        <f t="shared" si="12"/>
-        <v>-5.5809959931311104E-3</v>
-      </c>
-      <c r="O46" s="76">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="P46" s="76">
-        <f t="shared" si="12"/>
-        <v>0.17516148292894762</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="80"/>
-      <c r="C47" s="72">
-        <v>42755</v>
-      </c>
-      <c r="D47" s="80" t="s">
-        <v>43</v>
-      </c>
-      <c r="E47" s="75">
-        <v>22460</v>
-      </c>
-      <c r="F47" s="75">
-        <v>292</v>
-      </c>
-      <c r="G47" s="75">
-        <v>54000</v>
-      </c>
-      <c r="H47" s="75">
-        <v>27</v>
-      </c>
-      <c r="I47" s="75">
-        <v>166470</v>
-      </c>
-      <c r="J47" s="76">
-        <f t="shared" si="9"/>
-        <v>9.2465753424657529E-2</v>
-      </c>
-      <c r="K47" s="76">
-        <f t="shared" si="10"/>
-        <v>1.3000890471950133E-2</v>
-      </c>
-      <c r="L47" s="75">
-        <f t="shared" si="10"/>
-        <v>184.93150684931507</v>
-      </c>
-      <c r="M47" s="70">
-        <f t="shared" si="11"/>
-        <v>3.0827777777777778</v>
-      </c>
-      <c r="N47" s="76">
-        <f t="shared" si="12"/>
-        <v>-0.12536443148688048</v>
-      </c>
-      <c r="O47" s="76">
-        <f t="shared" si="12"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="P47" s="76">
-        <f t="shared" si="12"/>
-        <v>1.5070783132530119</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B48" s="80"/>
-      <c r="C48" s="72">
-        <v>42756</v>
-      </c>
-      <c r="D48" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="E48" s="75">
-        <v>19910</v>
-      </c>
-      <c r="F48" s="75">
-        <v>300</v>
-      </c>
-      <c r="G48" s="75">
-        <v>51850</v>
-      </c>
-      <c r="H48" s="75">
-        <v>1</v>
-      </c>
-      <c r="I48" s="75">
-        <v>8500</v>
-      </c>
-      <c r="J48" s="76">
-        <f t="shared" si="9"/>
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="K48" s="76">
-        <f t="shared" si="10"/>
-        <v>1.5067805123053743E-2</v>
-      </c>
-      <c r="L48" s="75">
-        <f t="shared" si="10"/>
-        <v>172.83333333333334</v>
-      </c>
-      <c r="M48" s="70">
-        <f t="shared" si="11"/>
-        <v>0.16393442622950818</v>
-      </c>
-      <c r="N48" s="76">
-        <f t="shared" si="12"/>
-        <v>-7.0621975264384296E-2</v>
-      </c>
-      <c r="O48" s="76">
-        <f t="shared" si="12"/>
-        <v>-0.91666666666666663</v>
-      </c>
-      <c r="P48" s="76">
-        <f t="shared" si="12"/>
-        <v>-0.91634516967167934</v>
-      </c>
-    </row>
-    <row r="49" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="80"/>
-      <c r="C49" s="72">
-        <v>42757</v>
-      </c>
-      <c r="D49" s="80" t="s">
-        <v>45</v>
-      </c>
-      <c r="E49" s="75">
-        <v>22363</v>
-      </c>
-      <c r="F49" s="75">
-        <v>346</v>
-      </c>
-      <c r="G49" s="75">
-        <v>62700</v>
-      </c>
-      <c r="H49" s="75">
-        <v>6</v>
-      </c>
-      <c r="I49" s="75">
-        <v>68820</v>
-      </c>
-      <c r="J49" s="76">
-        <f t="shared" si="9"/>
-        <v>1.7341040462427744E-2</v>
-      </c>
-      <c r="K49" s="76">
-        <f t="shared" si="10"/>
-        <v>1.5471984975182221E-2</v>
-      </c>
-      <c r="L49" s="75">
-        <f t="shared" si="10"/>
-        <v>181.21387283236993</v>
-      </c>
-      <c r="M49" s="70">
-        <f t="shared" si="11"/>
-        <v>1.0976076555023924</v>
-      </c>
-      <c r="N49" s="76">
-        <f t="shared" si="12"/>
-        <v>-0.15006100040666936</v>
-      </c>
-      <c r="O49" s="76">
-        <f t="shared" si="12"/>
-        <v>-0.7</v>
-      </c>
-      <c r="P49" s="76">
-        <f t="shared" si="12"/>
-        <v>-0.62197198571820933</v>
-      </c>
-    </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B50" s="80"/>
-      <c r="C50" s="72">
-        <v>42758</v>
-      </c>
-      <c r="D50" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="E50" s="75">
-        <v>24449</v>
-      </c>
-      <c r="F50" s="75">
-        <v>289</v>
-      </c>
-      <c r="G50" s="75">
-        <v>53210</v>
-      </c>
-      <c r="H50" s="75">
-        <v>4</v>
-      </c>
-      <c r="I50" s="75">
-        <v>16700</v>
-      </c>
-      <c r="J50" s="76">
-        <f t="shared" si="9"/>
-        <v>1.384083044982699E-2</v>
-      </c>
-      <c r="K50" s="76">
-        <f t="shared" si="10"/>
-        <v>1.1820524356824409E-2</v>
-      </c>
-      <c r="L50" s="75">
-        <f t="shared" si="10"/>
-        <v>184.11764705882354</v>
-      </c>
-      <c r="M50" s="70">
-        <f t="shared" si="11"/>
-        <v>0.31385077992858484</v>
-      </c>
-      <c r="N50" s="76">
-        <f t="shared" si="12"/>
-        <v>-0.24374644684479818</v>
-      </c>
-      <c r="O50" s="76">
-        <f t="shared" si="12"/>
-        <v>-0.75</v>
-      </c>
-      <c r="P50" s="76">
-        <f t="shared" si="12"/>
-        <v>-0.71979865771812079</v>
-      </c>
-    </row>
-    <row r="51" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="80"/>
-      <c r="C51" s="72">
-        <v>42759</v>
-      </c>
-      <c r="D51" s="80" t="s">
-        <v>40</v>
-      </c>
-      <c r="E51" s="75">
-        <v>11412</v>
-      </c>
-      <c r="F51" s="75">
-        <v>204</v>
-      </c>
-      <c r="G51" s="75">
-        <v>37270</v>
-      </c>
-      <c r="H51" s="75">
-        <v>2</v>
-      </c>
-      <c r="I51" s="75">
-        <v>35852</v>
-      </c>
-      <c r="J51" s="76">
-        <f t="shared" si="9"/>
-        <v>9.8039215686274508E-3</v>
-      </c>
-      <c r="K51" s="76">
-        <f t="shared" si="10"/>
-        <v>1.7875920084121977E-2</v>
-      </c>
-      <c r="L51" s="75">
-        <f t="shared" si="10"/>
-        <v>182.69607843137254</v>
-      </c>
-      <c r="M51" s="70">
-        <f t="shared" si="11"/>
-        <v>0.96195331365709691</v>
-      </c>
-      <c r="N51" s="76">
-        <f t="shared" si="12"/>
-        <v>-0.40377539593665013</v>
-      </c>
-      <c r="O51" s="76">
-        <f t="shared" si="12"/>
-        <v>-0.6</v>
-      </c>
-      <c r="P51" s="76">
-        <f t="shared" si="12"/>
-        <v>-0.31910206252136586</v>
-      </c>
-    </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B52" s="80"/>
-      <c r="C52" s="72">
-        <v>42760</v>
-      </c>
-      <c r="D52" s="80" t="s">
-        <v>41</v>
-      </c>
-      <c r="E52" s="75">
-        <v>18662</v>
-      </c>
-      <c r="F52" s="75">
-        <v>262</v>
-      </c>
-      <c r="G52" s="75">
-        <v>46250</v>
-      </c>
-      <c r="H52" s="75">
-        <v>6</v>
-      </c>
-      <c r="I52" s="75">
-        <v>28800</v>
-      </c>
-      <c r="J52" s="76">
-        <f t="shared" si="9"/>
-        <v>2.2900763358778626E-2</v>
-      </c>
-      <c r="K52" s="76">
-        <f t="shared" si="10"/>
-        <v>1.403922409173722E-2</v>
-      </c>
-      <c r="L52" s="75">
-        <f t="shared" si="10"/>
-        <v>176.52671755725191</v>
-      </c>
-      <c r="M52" s="70">
-        <f t="shared" si="11"/>
-        <v>0.62270270270270267</v>
-      </c>
-      <c r="N52" s="76">
-        <f t="shared" si="12"/>
-        <v>-0.35033010254249197</v>
-      </c>
-      <c r="O52" s="76">
-        <f t="shared" si="12"/>
-        <v>-0.7</v>
-      </c>
-      <c r="P52" s="76">
-        <f t="shared" si="12"/>
-        <v>-0.8631087619898663</v>
-      </c>
-    </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B53" s="80"/>
-      <c r="C53" s="72">
-        <v>42761</v>
-      </c>
-      <c r="D53" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="E53" s="75">
-        <v>17086</v>
-      </c>
-      <c r="F53" s="75">
-        <v>306</v>
-      </c>
-      <c r="G53" s="75">
-        <v>50010</v>
-      </c>
-      <c r="H53" s="75">
-        <v>1</v>
-      </c>
-      <c r="I53" s="75">
-        <v>4700</v>
-      </c>
-      <c r="J53" s="76">
-        <f t="shared" si="9"/>
-        <v>3.2679738562091504E-3</v>
-      </c>
-      <c r="K53" s="76">
-        <f t="shared" si="10"/>
-        <v>1.7909399508369426E-2</v>
-      </c>
-      <c r="L53" s="75">
-        <f t="shared" si="10"/>
-        <v>163.43137254901961</v>
-      </c>
-      <c r="M53" s="70">
-        <f t="shared" si="11"/>
-        <v>9.398120375924815E-2</v>
-      </c>
-      <c r="N53" s="76">
-        <f t="shared" si="12"/>
-        <v>-0.2803281047632753</v>
-      </c>
-      <c r="O53" s="76">
-        <f t="shared" si="12"/>
-        <v>-0.9375</v>
-      </c>
-      <c r="P53" s="76">
-        <f t="shared" si="12"/>
-        <v>-0.94572748267898388</v>
-      </c>
-    </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B54" s="80"/>
-      <c r="C54" s="72">
-        <v>42762</v>
-      </c>
-      <c r="D54" s="80" t="s">
-        <v>43</v>
-      </c>
-      <c r="E54" s="75">
-        <v>15653</v>
-      </c>
-      <c r="F54" s="75">
-        <v>247</v>
-      </c>
-      <c r="G54" s="75">
-        <v>43140</v>
-      </c>
-      <c r="H54" s="75">
-        <v>13</v>
-      </c>
-      <c r="I54" s="75">
-        <v>140400</v>
-      </c>
-      <c r="J54" s="76">
-        <f t="shared" si="9"/>
-        <v>5.2631578947368418E-2</v>
-      </c>
-      <c r="K54" s="76">
-        <f t="shared" si="10"/>
-        <v>1.5779722736855555E-2</v>
-      </c>
-      <c r="L54" s="75">
-        <f t="shared" si="10"/>
-        <v>174.65587044534414</v>
-      </c>
-      <c r="M54" s="70">
-        <f t="shared" si="11"/>
-        <v>3.25452016689847</v>
-      </c>
-      <c r="N54" s="76">
-        <f t="shared" si="12"/>
-        <v>-0.20111111111111113</v>
-      </c>
-      <c r="O54" s="76">
-        <f t="shared" si="12"/>
-        <v>-0.5185185185185186</v>
-      </c>
-      <c r="P54" s="76">
-        <f t="shared" si="12"/>
-        <v>-0.1566047936565147</v>
-      </c>
-    </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B55" s="80"/>
-      <c r="C55" s="72">
-        <v>42763</v>
-      </c>
-      <c r="D55" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="E55" s="75">
-        <v>18579</v>
-      </c>
-      <c r="F55" s="75">
-        <v>264</v>
-      </c>
-      <c r="G55" s="75">
-        <v>49660</v>
-      </c>
-      <c r="H55" s="75">
-        <v>6</v>
-      </c>
-      <c r="I55" s="75">
-        <v>35400</v>
-      </c>
-      <c r="J55" s="76">
-        <f t="shared" si="9"/>
-        <v>2.2727272727272728E-2</v>
-      </c>
-      <c r="K55" s="76">
-        <f t="shared" si="10"/>
-        <v>1.4209591474245116E-2</v>
-      </c>
-      <c r="L55" s="75">
-        <f t="shared" si="10"/>
-        <v>188.10606060606059</v>
-      </c>
-      <c r="M55" s="70">
-        <f t="shared" si="11"/>
-        <v>0.71284736206202171</v>
-      </c>
-      <c r="N55" s="76">
-        <f t="shared" si="12"/>
-        <v>-4.2237222757955606E-2</v>
-      </c>
-      <c r="O55" s="76">
-        <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="P55" s="76">
-        <f t="shared" si="12"/>
-        <v>3.1647058823529415</v>
-      </c>
-    </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B56" s="80"/>
-      <c r="C56" s="72">
-        <v>42764</v>
-      </c>
-      <c r="D56" s="80" t="s">
-        <v>45</v>
-      </c>
-      <c r="E56" s="75">
-        <v>30095</v>
-      </c>
-      <c r="F56" s="75">
-        <v>371</v>
-      </c>
-      <c r="G56" s="75">
-        <v>66260</v>
-      </c>
-      <c r="H56" s="75">
-        <v>10</v>
-      </c>
-      <c r="I56" s="75">
-        <v>43000</v>
-      </c>
-      <c r="J56" s="76">
-        <f t="shared" si="9"/>
-        <v>2.6954177897574125E-2</v>
-      </c>
-      <c r="K56" s="76">
-        <f t="shared" si="10"/>
-        <v>1.2327629174281441E-2</v>
-      </c>
-      <c r="L56" s="75">
-        <f t="shared" si="10"/>
-        <v>178.59838274932613</v>
-      </c>
-      <c r="M56" s="70">
-        <f t="shared" si="11"/>
-        <v>0.64895864775128287</v>
-      </c>
-      <c r="N56" s="76">
-        <f t="shared" ref="N56:P58" si="13">IFERROR(G56/G49-1,0)</f>
-        <v>5.6778309409888372E-2</v>
-      </c>
-      <c r="O56" s="76">
-        <f t="shared" si="13"/>
-        <v>0.66666666666666674</v>
-      </c>
-      <c r="P56" s="76">
-        <f t="shared" si="13"/>
-        <v>-0.37518163324614939</v>
-      </c>
-    </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B57" s="80"/>
-      <c r="C57" s="72">
-        <v>42765</v>
-      </c>
-      <c r="D57" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="E57" s="75">
-        <v>30954</v>
-      </c>
-      <c r="F57" s="75">
-        <v>515</v>
-      </c>
-      <c r="G57" s="75">
-        <v>98380</v>
-      </c>
-      <c r="H57" s="75">
-        <v>20</v>
-      </c>
       <c r="I57" s="75">
-        <v>173524</v>
+        <f>Gmarket!I57+Auction!I57</f>
+        <v>347048</v>
       </c>
       <c r="J57" s="76">
         <f>IFERROR(H57/F57,0)</f>
@@ -4766,40 +5088,50 @@
         <v>1.7638137832892864</v>
       </c>
       <c r="N57" s="76">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0.8489005825972562</v>
       </c>
       <c r="O57" s="76">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="P57" s="76">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>9.3906586826347311</v>
       </c>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B58" s="80"/>
-      <c r="C58" s="72">
+      <c r="B58" s="82" t="str">
+        <f>Gmarket!B58</f>
+        <v>5주</v>
+      </c>
+      <c r="C58" s="83">
+        <f>Gmarket!C58</f>
         <v>42766</v>
       </c>
-      <c r="D58" s="80" t="s">
-        <v>40</v>
+      <c r="D58" s="82" t="str">
+        <f>Gmarket!D58</f>
+        <v>화</v>
       </c>
       <c r="E58" s="75">
-        <v>29710</v>
+        <f>Gmarket!E58+Auction!E58</f>
+        <v>59420</v>
       </c>
       <c r="F58" s="75">
-        <v>491</v>
+        <f>Gmarket!F58+Auction!F58</f>
+        <v>982</v>
       </c>
       <c r="G58" s="75">
-        <v>79220</v>
+        <f>Gmarket!G58+Auction!G58</f>
+        <v>158440</v>
       </c>
       <c r="H58" s="75">
-        <v>27</v>
+        <f>Gmarket!H58+Auction!H58</f>
+        <v>54</v>
       </c>
       <c r="I58" s="75">
-        <v>224340</v>
+        <f>Gmarket!I58+Auction!I58</f>
+        <v>448680</v>
       </c>
       <c r="J58" s="76">
         <f>IFERROR(H58/F58,0)</f>
@@ -4818,33 +5150,28 @@
         <v>2.8318606412522089</v>
       </c>
       <c r="N58" s="76">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>1.1255701636705124</v>
       </c>
       <c r="O58" s="76">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>12.5</v>
       </c>
       <c r="P58" s="76">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>5.2573914983822378</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B13:P13"/>
-    <mergeCell ref="B25:P25"/>
+  <mergeCells count="8">
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B13:P13"/>
+    <mergeCell ref="B25:P25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4885,32 +5212,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="19" x14ac:dyDescent="0.2">
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="113"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="114" t="s">
+      <c r="C4" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="114"/>
+      <c r="D4" s="115"/>
       <c r="E4" s="55" t="s">
         <v>85</v>
       </c>
@@ -4952,8 +5279,8 @@
       <c r="B5" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
       <c r="E5" s="32">
         <f>SUM(E6:E10)</f>
         <v>730066</v>
@@ -4998,7 +5325,7 @@
       <c r="B6" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="84" t="s">
         <v>103</v>
       </c>
       <c r="D6" s="85"/>
@@ -5046,7 +5373,7 @@
       <c r="B7" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="84" t="s">
         <v>104</v>
       </c>
       <c r="D7" s="85"/>
@@ -5103,7 +5430,7 @@
       <c r="B8" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="84" t="s">
         <v>105</v>
       </c>
       <c r="D8" s="85"/>
@@ -5160,7 +5487,7 @@
       <c r="B9" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="84" t="s">
         <v>106</v>
       </c>
       <c r="D9" s="85"/>
@@ -5217,7 +5544,7 @@
       <c r="B10" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="85" t="s">
+      <c r="C10" s="84" t="s">
         <v>107</v>
       </c>
       <c r="D10" s="85"/>
@@ -5307,21 +5634,21 @@
       <c r="P12" s="8"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B13" s="110"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="110"/>
-      <c r="M13" s="110"/>
-      <c r="N13" s="110"/>
-      <c r="O13" s="110"/>
-      <c r="P13" s="110"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="117"/>
+      <c r="M13" s="117"/>
+      <c r="N13" s="117"/>
+      <c r="O13" s="117"/>
+      <c r="P13" s="117"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="10" t="s">
@@ -5375,19 +5702,19 @@
         <v>39</v>
       </c>
       <c r="C15" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$E$28:$E$925)</f>
+        <f t="shared" ref="C15:C21" si="9">SUMIF($D$28:$D$925,$B$15:$B$21,$E$28:$E$925)</f>
         <v>135081</v>
       </c>
       <c r="D15" s="12">
-        <f>C15/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" ref="D15:D21" si="10">C15/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
         <v>33770.25</v>
       </c>
       <c r="E15" s="12">
-        <f ca="1">SUMIF($D$28:$D$925,$B$15:$B$21,$F$28:$F$399)</f>
+        <f t="shared" ref="E15:E21" ca="1" si="11">SUMIF($D$28:$D$925,$B$15:$B$21,$F$28:$F$399)</f>
         <v>2033</v>
       </c>
       <c r="F15" s="12">
-        <f ca="1">E15/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" ref="F15:F21" ca="1" si="12">E15/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
         <v>508.25</v>
       </c>
       <c r="G15" s="13">
@@ -5399,19 +5726,19 @@
         <v>193.03492375799311</v>
       </c>
       <c r="I15" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$G$28:$G$925)</f>
+        <f t="shared" ref="I15:I21" si="13">SUMIF($D$28:$D$925,$B$15:$B$21,$G$28:$G$925)</f>
         <v>392440</v>
       </c>
       <c r="J15" s="12">
-        <f>I15/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" ref="J15:J21" si="14">I15/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
         <v>98110</v>
       </c>
       <c r="K15" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$H$28:$H$925)</f>
+        <f t="shared" ref="K15:K21" si="15">SUMIF($D$28:$D$925,$B$15:$B$21,$H$28:$H$925)</f>
         <v>67</v>
       </c>
       <c r="L15" s="12">
-        <f>K15/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" ref="L15:L21" si="16">K15/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
         <v>16.75</v>
       </c>
       <c r="M15" s="13">
@@ -5419,11 +5746,11 @@
         <v>3.2956222331529762E-2</v>
       </c>
       <c r="N15" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$I$28:$I$925)</f>
+        <f t="shared" ref="N15:N21" si="17">SUMIF($D$28:$D$925,$B$15:$B$21,$I$28:$I$925)</f>
         <v>449614</v>
       </c>
       <c r="O15" s="12">
-        <f>N15/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" ref="O15:O21" si="18">N15/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
         <v>112403.5</v>
       </c>
       <c r="P15" s="43">
@@ -5436,59 +5763,59 @@
         <v>40</v>
       </c>
       <c r="C16" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$E$28:$E$925)</f>
+        <f t="shared" si="9"/>
         <v>120093</v>
       </c>
       <c r="D16" s="12">
-        <f>C16/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" si="10"/>
         <v>30023.25</v>
       </c>
       <c r="E16" s="12">
-        <f ca="1">SUMIF($D$28:$D$925,$B$15:$B$21,$F$28:$F$399)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>1796</v>
       </c>
       <c r="F16" s="12">
-        <f ca="1">E16/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>449</v>
       </c>
       <c r="G16" s="13">
-        <f t="shared" ref="G16:G22" ca="1" si="9">IFERROR(E16/C16,0)</f>
+        <f t="shared" ref="G16:G22" ca="1" si="19">IFERROR(E16/C16,0)</f>
         <v>1.4955076482392813E-2</v>
       </c>
       <c r="H16" s="12">
-        <f t="shared" ref="H16:H22" ca="1" si="10">IFERROR(I16/E16,0)</f>
+        <f t="shared" ref="H16:H22" ca="1" si="20">IFERROR(I16/E16,0)</f>
         <v>187.86191536748331</v>
       </c>
       <c r="I16" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$G$28:$G$925)</f>
+        <f t="shared" si="13"/>
         <v>337400</v>
       </c>
       <c r="J16" s="12">
-        <f>I16/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" si="14"/>
         <v>84350</v>
       </c>
       <c r="K16" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$H$28:$H$925)</f>
+        <f t="shared" si="15"/>
         <v>68</v>
       </c>
       <c r="L16" s="12">
-        <f>K16/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" si="16"/>
         <v>17</v>
       </c>
       <c r="M16" s="13">
-        <f t="shared" ref="M16:M22" ca="1" si="11">IFERROR(K16/E16,0)</f>
+        <f t="shared" ref="M16:M22" ca="1" si="21">IFERROR(K16/E16,0)</f>
         <v>3.7861915367483297E-2</v>
       </c>
       <c r="N16" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$I$28:$I$925)</f>
+        <f t="shared" si="17"/>
         <v>582856</v>
       </c>
       <c r="O16" s="12">
-        <f>N16/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" si="18"/>
         <v>145714</v>
       </c>
       <c r="P16" s="43">
-        <f t="shared" ref="P16:P22" si="12">IFERROR(N16/I16,0)</f>
+        <f t="shared" ref="P16:P22" si="22">IFERROR(N16/I16,0)</f>
         <v>1.7274925903971547</v>
       </c>
     </row>
@@ -5497,59 +5824,59 @@
         <v>41</v>
       </c>
       <c r="C17" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$E$28:$E$925)</f>
+        <f t="shared" si="9"/>
         <v>94139</v>
       </c>
       <c r="D17" s="12">
-        <f>C17/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" si="10"/>
         <v>23534.75</v>
       </c>
       <c r="E17" s="12">
-        <f ca="1">SUMIF($D$28:$D$925,$B$15:$B$21,$F$28:$F$399)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>1343</v>
       </c>
       <c r="F17" s="12">
-        <f ca="1">E17/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>335.75</v>
       </c>
       <c r="G17" s="13">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.4266138369857339E-2</v>
       </c>
       <c r="H17" s="12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="20"/>
         <v>191.77215189873417</v>
       </c>
       <c r="I17" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$G$28:$G$925)</f>
+        <f t="shared" si="13"/>
         <v>257550</v>
       </c>
       <c r="J17" s="12">
-        <f>I17/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" si="14"/>
         <v>64387.5</v>
       </c>
       <c r="K17" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$H$28:$H$925)</f>
+        <f t="shared" si="15"/>
         <v>46</v>
       </c>
       <c r="L17" s="12">
-        <f>K17/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" si="16"/>
         <v>11.5</v>
       </c>
       <c r="M17" s="13">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="21"/>
         <v>3.4251675353685777E-2</v>
       </c>
       <c r="N17" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$I$28:$I$925)</f>
+        <f t="shared" si="17"/>
         <v>367092</v>
       </c>
       <c r="O17" s="12">
-        <f>N17/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" si="18"/>
         <v>91773</v>
       </c>
       <c r="P17" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>1.4253232382061736</v>
       </c>
     </row>
@@ -5558,59 +5885,59 @@
         <v>42</v>
       </c>
       <c r="C18" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$E$28:$E$925)</f>
+        <f t="shared" si="9"/>
         <v>96673</v>
       </c>
       <c r="D18" s="12">
-        <f>C18/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" si="10"/>
         <v>24168.25</v>
       </c>
       <c r="E18" s="12">
-        <f ca="1">SUMIF($D$28:$D$925,$B$15:$B$21,$F$28:$F$399)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>1438</v>
       </c>
       <c r="F18" s="12">
-        <f ca="1">E18/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>359.5</v>
       </c>
       <c r="G18" s="13">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.4874887507370206E-2</v>
       </c>
       <c r="H18" s="12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="20"/>
         <v>182.52433936022254</v>
       </c>
       <c r="I18" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$G$28:$G$925)</f>
+        <f t="shared" si="13"/>
         <v>262470</v>
       </c>
       <c r="J18" s="12">
-        <f>I18/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" si="14"/>
         <v>65617.5</v>
       </c>
       <c r="K18" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$H$28:$H$925)</f>
+        <f t="shared" si="15"/>
         <v>39</v>
       </c>
       <c r="L18" s="12">
-        <f>K18/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" si="16"/>
         <v>9.75</v>
       </c>
       <c r="M18" s="13">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="21"/>
         <v>2.7121001390820583E-2</v>
       </c>
       <c r="N18" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$I$28:$I$925)</f>
+        <f t="shared" si="17"/>
         <v>286792</v>
       </c>
       <c r="O18" s="12">
-        <f>N18/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" si="18"/>
         <v>71698</v>
       </c>
       <c r="P18" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>1.0926658284756352</v>
       </c>
     </row>
@@ -5619,59 +5946,59 @@
         <v>43</v>
       </c>
       <c r="C19" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$E$28:$E$925)</f>
+        <f t="shared" si="9"/>
         <v>80340</v>
       </c>
       <c r="D19" s="12">
-        <f>C19/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" si="10"/>
         <v>20085</v>
       </c>
       <c r="E19" s="12">
-        <f ca="1">SUMIF($D$28:$D$925,$B$15:$B$21,$F$28:$F$399)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>1161</v>
       </c>
       <c r="F19" s="12">
-        <f ca="1">E19/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>290.25</v>
       </c>
       <c r="G19" s="13">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.445108289768484E-2</v>
       </c>
       <c r="H19" s="12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="20"/>
         <v>184.78897502153316</v>
       </c>
       <c r="I19" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$G$28:$G$925)</f>
+        <f t="shared" si="13"/>
         <v>214540</v>
       </c>
       <c r="J19" s="12">
-        <f>I19/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" si="14"/>
         <v>53635</v>
       </c>
       <c r="K19" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$H$28:$H$925)</f>
+        <f t="shared" si="15"/>
         <v>63</v>
       </c>
       <c r="L19" s="12">
-        <f>K19/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" si="16"/>
         <v>15.75</v>
       </c>
       <c r="M19" s="13">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="21"/>
         <v>5.4263565891472867E-2</v>
       </c>
       <c r="N19" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$I$28:$I$925)</f>
+        <f t="shared" si="17"/>
         <v>425770</v>
       </c>
       <c r="O19" s="12">
-        <f>N19/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" si="18"/>
         <v>106442.5</v>
       </c>
       <c r="P19" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>1.9845716416519064</v>
       </c>
     </row>
@@ -5680,59 +6007,59 @@
         <v>44</v>
       </c>
       <c r="C20" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$E$28:$E$925)</f>
+        <f t="shared" si="9"/>
         <v>79399</v>
       </c>
       <c r="D20" s="12">
-        <f>C20/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" si="10"/>
         <v>19849.75</v>
       </c>
       <c r="E20" s="12">
-        <f ca="1">SUMIF($D$28:$D$925,$B$15:$B$21,$F$28:$F$399)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>1190</v>
       </c>
       <c r="F20" s="12">
-        <f ca="1">E20/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>297.5</v>
       </c>
       <c r="G20" s="13">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.4987594302195241E-2</v>
       </c>
       <c r="H20" s="12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="20"/>
         <v>185.9075630252101</v>
       </c>
       <c r="I20" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$G$28:$G$925)</f>
+        <f t="shared" si="13"/>
         <v>221230</v>
       </c>
       <c r="J20" s="12">
-        <f>I20/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" si="14"/>
         <v>55307.5</v>
       </c>
       <c r="K20" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$H$28:$H$925)</f>
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
       <c r="L20" s="12">
-        <f>K20/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" si="16"/>
         <v>6.25</v>
       </c>
       <c r="M20" s="13">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="21"/>
         <v>2.100840336134454E-2</v>
       </c>
       <c r="N20" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$I$28:$I$925)</f>
+        <f t="shared" si="17"/>
         <v>189272</v>
       </c>
       <c r="O20" s="12">
-        <f>N20/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" si="18"/>
         <v>47318</v>
       </c>
       <c r="P20" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0.85554400397776065</v>
       </c>
     </row>
@@ -5741,59 +6068,59 @@
         <v>45</v>
       </c>
       <c r="C21" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$E$28:$E$925)</f>
+        <f t="shared" si="9"/>
         <v>124341</v>
       </c>
       <c r="D21" s="12">
-        <f>C21/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" si="10"/>
         <v>24868.2</v>
       </c>
       <c r="E21" s="12">
-        <f ca="1">SUMIF($D$28:$D$925,$B$15:$B$21,$F$28:$F$399)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>1826</v>
       </c>
       <c r="F21" s="12">
-        <f ca="1">E21/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>365.2</v>
       </c>
       <c r="G21" s="13">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.4685421542371383E-2</v>
       </c>
       <c r="H21" s="12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="20"/>
         <v>192.23986856516976</v>
       </c>
       <c r="I21" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$G$28:$G$925)</f>
+        <f t="shared" si="13"/>
         <v>351030</v>
       </c>
       <c r="J21" s="12">
-        <f>I21/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" si="14"/>
         <v>70206</v>
       </c>
       <c r="K21" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$H$28:$H$925)</f>
+        <f t="shared" si="15"/>
         <v>64</v>
       </c>
       <c r="L21" s="12">
-        <f>K21/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" si="16"/>
         <v>12.8</v>
       </c>
       <c r="M21" s="13">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="21"/>
         <v>3.5049288061336253E-2</v>
       </c>
       <c r="N21" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$I$28:$I$925)</f>
+        <f t="shared" si="17"/>
         <v>496130</v>
       </c>
       <c r="O21" s="12">
-        <f>N21/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" si="18"/>
         <v>99226</v>
       </c>
       <c r="P21" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>1.4133549839045096</v>
       </c>
     </row>
@@ -5822,11 +6149,11 @@
         <v>347.96774193548384</v>
       </c>
       <c r="G22" s="26">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.4775376472812048E-2</v>
       </c>
       <c r="H22" s="25">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="20"/>
         <v>188.80689719106331</v>
       </c>
       <c r="I22" s="24">
@@ -5846,7 +6173,7 @@
         <v>12</v>
       </c>
       <c r="M22" s="26">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="21"/>
         <v>3.4485955316584778E-2</v>
       </c>
       <c r="N22" s="24">
@@ -5858,7 +6185,7 @@
         <v>90242.774193548394</v>
       </c>
       <c r="P22" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>1.3735851835848889</v>
       </c>
     </row>
@@ -5868,30 +6195,30 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B25" s="110"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="110"/>
-      <c r="I25" s="110"/>
-      <c r="J25" s="110"/>
-      <c r="K25" s="110"/>
-      <c r="L25" s="110"/>
-      <c r="M25" s="110"/>
-      <c r="N25" s="110"/>
-      <c r="O25" s="110"/>
-      <c r="P25" s="110"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="117"/>
+      <c r="H25" s="117"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="117"/>
+      <c r="K25" s="117"/>
+      <c r="L25" s="117"/>
+      <c r="M25" s="117"/>
+      <c r="N25" s="117"/>
+      <c r="O25" s="117"/>
+      <c r="P25" s="117"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B26" s="116" t="s">
+      <c r="B26" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="111" t="s">
+      <c r="C26" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="112"/>
+      <c r="D26" s="119"/>
       <c r="E26" s="81" t="s">
         <v>23</v>
       </c>
@@ -5930,45 +6257,45 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B27" s="116"/>
-      <c r="C27" s="111" t="s">
+      <c r="B27" s="120"/>
+      <c r="C27" s="118" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="112"/>
+      <c r="D27" s="119"/>
       <c r="E27" s="69">
         <f>SUM(E28:E58)</f>
         <v>730066</v>
       </c>
       <c r="F27" s="69">
-        <f t="shared" ref="F27:I27" si="13">SUM(F28:F58)</f>
+        <f t="shared" ref="F27:I27" si="23">SUM(F28:F58)</f>
         <v>10787</v>
       </c>
       <c r="G27" s="69">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>2036660</v>
       </c>
       <c r="H27" s="69">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>372</v>
       </c>
       <c r="I27" s="69">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>2797526</v>
       </c>
       <c r="J27" s="22">
-        <f t="shared" ref="J27:J56" si="14">IFERROR(H27/F27,0)</f>
+        <f t="shared" ref="J27:J56" si="24">IFERROR(H27/F27,0)</f>
         <v>3.4485955316584778E-2</v>
       </c>
       <c r="K27" s="22">
-        <f t="shared" ref="K27:L56" si="15">IFERROR(F27/E27,0)</f>
+        <f t="shared" ref="K27:L56" si="25">IFERROR(F27/E27,0)</f>
         <v>1.4775376472812048E-2</v>
       </c>
       <c r="L27" s="69">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>188.80689719106331</v>
       </c>
       <c r="M27" s="40">
-        <f t="shared" ref="M27:M56" si="16">IFERROR(I27/G27,0)</f>
+        <f t="shared" ref="M27:M56" si="26">IFERROR(I27/G27,0)</f>
         <v>1.3735851835848889</v>
       </c>
       <c r="N27" s="76" t="s">
@@ -5983,7 +6310,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B28" s="80" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C28" s="72">
         <v>42736</v>
@@ -6007,19 +6334,19 @@
         <v>112510</v>
       </c>
       <c r="J28" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>4.1208791208791208E-2</v>
       </c>
       <c r="K28" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.6257983831345749E-2</v>
       </c>
       <c r="L28" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>209.97252747252747</v>
       </c>
       <c r="M28" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.4720659426926599</v>
       </c>
       <c r="N28" s="76" t="s">
@@ -6033,7 +6360,9 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B29" s="80"/>
+      <c r="B29" s="82" t="s">
+        <v>123</v>
+      </c>
       <c r="C29" s="72">
         <v>42737</v>
       </c>
@@ -6056,19 +6385,19 @@
         <v>134390</v>
       </c>
       <c r="J29" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0.04</v>
       </c>
       <c r="K29" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.6080617495711835E-2</v>
       </c>
       <c r="L29" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>200.4</v>
       </c>
       <c r="M29" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.4902417387447326</v>
       </c>
       <c r="N29" s="76" t="s">
@@ -6082,7 +6411,9 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B30" s="80"/>
+      <c r="B30" s="82" t="s">
+        <v>123</v>
+      </c>
       <c r="C30" s="72">
         <v>42738</v>
       </c>
@@ -6105,19 +6436,19 @@
         <v>165110</v>
       </c>
       <c r="J30" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>6.030150753768844E-2</v>
       </c>
       <c r="K30" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.4714037487522645E-2</v>
       </c>
       <c r="L30" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>201.20603015075378</v>
       </c>
       <c r="M30" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>2.0618131868131866</v>
       </c>
       <c r="N30" s="76" t="s">
@@ -6131,7 +6462,9 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B31" s="80"/>
+      <c r="B31" s="82" t="s">
+        <v>123</v>
+      </c>
       <c r="C31" s="72">
         <v>42739</v>
       </c>
@@ -6154,19 +6487,19 @@
         <v>70766</v>
       </c>
       <c r="J31" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>2.8901734104046242E-2</v>
       </c>
       <c r="K31" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.3568627450980392E-2</v>
       </c>
       <c r="L31" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>204.30635838150289</v>
       </c>
       <c r="M31" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.0010751167067478</v>
       </c>
       <c r="N31" s="76" t="s">
@@ -6180,7 +6513,9 @@
       </c>
     </row>
     <row r="32" spans="1:16" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="80"/>
+      <c r="B32" s="82" t="s">
+        <v>123</v>
+      </c>
       <c r="C32" s="72">
         <v>42740</v>
       </c>
@@ -6203,19 +6538,19 @@
         <v>121800</v>
       </c>
       <c r="J32" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>3.8567493112947659E-2</v>
       </c>
       <c r="K32" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.4759097377515755E-2</v>
       </c>
       <c r="L32" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>201.34986225895318</v>
       </c>
       <c r="M32" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.6664386372964839</v>
       </c>
       <c r="N32" s="76" t="s">
@@ -6229,7 +6564,9 @@
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B33" s="80"/>
+      <c r="B33" s="82" t="s">
+        <v>123</v>
+      </c>
       <c r="C33" s="72">
         <v>42741</v>
       </c>
@@ -6252,19 +6589,19 @@
         <v>52500</v>
       </c>
       <c r="J33" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>6.1643835616438353E-2</v>
       </c>
       <c r="K33" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.4070932922127988E-2</v>
       </c>
       <c r="L33" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>190.61643835616439</v>
       </c>
       <c r="M33" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0.94322673374056776</v>
       </c>
       <c r="N33" s="76" t="s">
@@ -6278,7 +6615,9 @@
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B34" s="80"/>
+      <c r="B34" s="82" t="s">
+        <v>123</v>
+      </c>
       <c r="C34" s="72">
         <v>42742</v>
       </c>
@@ -6301,19 +6640,19 @@
         <v>43764</v>
       </c>
       <c r="J34" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="K34" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.6744283396996493E-2</v>
       </c>
       <c r="L34" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>199.78125</v>
       </c>
       <c r="M34" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0.68456123885499764</v>
       </c>
       <c r="N34" s="76" t="s">
@@ -6327,7 +6666,9 @@
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B35" s="80"/>
+      <c r="B35" s="82" t="s">
+        <v>124</v>
+      </c>
       <c r="C35" s="72">
         <v>42743</v>
       </c>
@@ -6350,36 +6691,38 @@
         <v>89750</v>
       </c>
       <c r="J35" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>3.6931818181818184E-2</v>
       </c>
       <c r="K35" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.5062045357295679E-2</v>
       </c>
       <c r="L35" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>204.17613636363637</v>
       </c>
       <c r="M35" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.2487825240016697</v>
       </c>
       <c r="N35" s="76">
-        <f t="shared" ref="N35:P55" si="17">IFERROR(G35/G28-1,0)</f>
+        <f t="shared" ref="N35:P55" si="27">IFERROR(G35/G28-1,0)</f>
         <v>-5.9662436216145531E-2</v>
       </c>
       <c r="O35" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.1333333333333333</v>
       </c>
       <c r="P35" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.20229312949959999</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B36" s="80"/>
+      <c r="B36" s="82" t="s">
+        <v>124</v>
+      </c>
       <c r="C36" s="72">
         <v>42744</v>
       </c>
@@ -6402,36 +6745,38 @@
         <v>65400</v>
       </c>
       <c r="J36" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>2.1739130434782608E-2</v>
       </c>
       <c r="K36" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.562323106532322E-2</v>
       </c>
       <c r="L36" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>193.98550724637681</v>
       </c>
       <c r="M36" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0.8143444153903624</v>
       </c>
       <c r="N36" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.10944777112441784</v>
       </c>
       <c r="O36" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.5</v>
       </c>
       <c r="P36" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.51335664856016072</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B37" s="80"/>
+      <c r="B37" s="82" t="s">
+        <v>124</v>
+      </c>
       <c r="C37" s="72">
         <v>42745</v>
       </c>
@@ -6454,36 +6799,38 @@
         <v>104900</v>
       </c>
       <c r="J37" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>2.6809651474530832E-2</v>
       </c>
       <c r="K37" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.4296117435130888E-2</v>
       </c>
       <c r="L37" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>209.97319034852546</v>
       </c>
       <c r="M37" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.3393769152196118</v>
       </c>
       <c r="N37" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-2.1978021978022011E-2</v>
       </c>
       <c r="O37" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.58333333333333326</v>
       </c>
       <c r="P37" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.36466598025558716</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B38" s="80"/>
+      <c r="B38" s="82" t="s">
+        <v>124</v>
+      </c>
       <c r="C38" s="72">
         <v>42746</v>
       </c>
@@ -6506,36 +6853,38 @@
         <v>57140</v>
       </c>
       <c r="J38" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>2.7855153203342618E-2</v>
       </c>
       <c r="K38" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.4443773888553611E-2</v>
       </c>
       <c r="L38" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>193.37047353760445</v>
       </c>
       <c r="M38" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0.82310573321809277</v>
       </c>
       <c r="N38" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-1.7965766020653584E-2</v>
       </c>
       <c r="O38" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P38" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.19255009467823536</v>
       </c>
     </row>
     <row r="39" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="80"/>
+      <c r="B39" s="82" t="s">
+        <v>124</v>
+      </c>
       <c r="C39" s="72">
         <v>42747</v>
       </c>
@@ -6558,36 +6907,38 @@
         <v>73692</v>
       </c>
       <c r="J39" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>2.0151133501259445E-2</v>
       </c>
       <c r="K39" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.3179298210669588E-2</v>
       </c>
       <c r="L39" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>176.02015113350126</v>
       </c>
       <c r="M39" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.0545506582713222</v>
       </c>
       <c r="N39" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-4.3918456697222608E-2</v>
       </c>
       <c r="O39" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.4285714285714286</v>
       </c>
       <c r="P39" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.39497536945812806</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B40" s="80"/>
+      <c r="B40" s="82" t="s">
+        <v>124</v>
+      </c>
       <c r="C40" s="72">
         <v>42748</v>
       </c>
@@ -6610,36 +6961,38 @@
         <v>66400</v>
       </c>
       <c r="J40" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>1.5151515151515152E-2</v>
       </c>
       <c r="K40" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.5366705471478464E-2</v>
       </c>
       <c r="L40" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>187.09090909090909</v>
       </c>
       <c r="M40" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.0754778101716878</v>
       </c>
       <c r="N40" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.10923463887890761</v>
       </c>
       <c r="O40" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.72222222222222221</v>
       </c>
       <c r="P40" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.26476190476190475</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B41" s="80"/>
+      <c r="B41" s="82" t="s">
+        <v>124</v>
+      </c>
       <c r="C41" s="72">
         <v>42749</v>
       </c>
@@ -6662,36 +7015,38 @@
         <v>101608</v>
       </c>
       <c r="J41" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>3.9215686274509803E-2</v>
       </c>
       <c r="K41" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.4037341162438644E-2</v>
       </c>
       <c r="L41" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>182.3202614379085</v>
       </c>
       <c r="M41" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.8212582900161318</v>
       </c>
       <c r="N41" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.12732676364773976</v>
       </c>
       <c r="O41" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="P41" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>1.3217256192304179</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B42" s="80"/>
+      <c r="B42" s="82" t="s">
+        <v>124</v>
+      </c>
       <c r="C42" s="72">
         <v>42750</v>
       </c>
@@ -6714,36 +7069,38 @@
         <v>182050</v>
       </c>
       <c r="J42" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>5.0890585241730277E-2</v>
       </c>
       <c r="K42" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.5043638033991731E-2</v>
       </c>
       <c r="L42" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>187.70992366412213</v>
       </c>
       <c r="M42" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>2.4678053409244951</v>
       </c>
       <c r="N42" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>2.6436621678029848E-2</v>
       </c>
       <c r="O42" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.53846153846153855</v>
       </c>
       <c r="P42" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>1.0284122562674094</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B43" s="80"/>
+      <c r="B43" s="82" t="s">
+        <v>125</v>
+      </c>
       <c r="C43" s="72">
         <v>42751</v>
       </c>
@@ -6766,36 +7123,38 @@
         <v>59600</v>
       </c>
       <c r="J43" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>4.3835616438356165E-2</v>
       </c>
       <c r="K43" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.4487001389164516E-2</v>
       </c>
       <c r="L43" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>192.76712328767124</v>
       </c>
       <c r="M43" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0.84707220011370099</v>
       </c>
       <c r="N43" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.12389490723446639</v>
       </c>
       <c r="O43" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.77777777777777768</v>
       </c>
       <c r="P43" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-8.8685015290519864E-2</v>
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B44" s="80"/>
+      <c r="B44" s="82" t="s">
+        <v>125</v>
+      </c>
       <c r="C44" s="72">
         <v>42752</v>
       </c>
@@ -6818,36 +7177,38 @@
         <v>52654</v>
       </c>
       <c r="J44" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>1.5151515151515152E-2</v>
       </c>
       <c r="K44" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.2775347450737487E-2</v>
       </c>
       <c r="L44" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>189.42424242424244</v>
       </c>
       <c r="M44" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0.84232922732362825</v>
       </c>
       <c r="N44" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.20186414708886624</v>
       </c>
       <c r="O44" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.5</v>
       </c>
       <c r="P44" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.49805529075309818</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B45" s="80"/>
+      <c r="B45" s="82" t="s">
+        <v>125</v>
+      </c>
       <c r="C45" s="72">
         <v>42753</v>
       </c>
@@ -6870,36 +7231,38 @@
         <v>210386</v>
       </c>
       <c r="J45" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>5.3191489361702128E-2</v>
       </c>
       <c r="K45" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.4966961229201497E-2</v>
       </c>
       <c r="L45" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>189.33510638297872</v>
       </c>
       <c r="M45" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>2.9552746172215199</v>
       </c>
       <c r="N45" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>2.5496974935177219E-2</v>
       </c>
       <c r="O45" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="P45" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>2.6819390969548476</v>
       </c>
     </row>
     <row r="46" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="80"/>
+      <c r="B46" s="82" t="s">
+        <v>125</v>
+      </c>
       <c r="C46" s="72">
         <v>42754</v>
       </c>
@@ -6922,36 +7285,38 @@
         <v>86600</v>
       </c>
       <c r="J46" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>4.3010752688172046E-2</v>
       </c>
       <c r="K46" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.4958381921267441E-2</v>
       </c>
       <c r="L46" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>186.80107526881721</v>
       </c>
       <c r="M46" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.2462224780543962</v>
       </c>
       <c r="N46" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-5.5809959931311104E-3</v>
       </c>
       <c r="O46" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="P46" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.17516148292894762</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B47" s="80"/>
+      <c r="B47" s="82" t="s">
+        <v>125</v>
+      </c>
       <c r="C47" s="72">
         <v>42755</v>
       </c>
@@ -6974,36 +7339,38 @@
         <v>166470</v>
       </c>
       <c r="J47" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>9.2465753424657529E-2</v>
       </c>
       <c r="K47" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.3000890471950133E-2</v>
       </c>
       <c r="L47" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>184.93150684931507</v>
       </c>
       <c r="M47" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>3.0827777777777778</v>
       </c>
       <c r="N47" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.12536443148688048</v>
       </c>
       <c r="O47" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="P47" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>1.5070783132530119</v>
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B48" s="80"/>
+      <c r="B48" s="82" t="s">
+        <v>125</v>
+      </c>
       <c r="C48" s="72">
         <v>42756</v>
       </c>
@@ -7026,36 +7393,38 @@
         <v>8500</v>
       </c>
       <c r="J48" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="K48" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.5067805123053743E-2</v>
       </c>
       <c r="L48" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>172.83333333333334</v>
       </c>
       <c r="M48" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0.16393442622950818</v>
       </c>
       <c r="N48" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-7.0621975264384296E-2</v>
       </c>
       <c r="O48" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.91666666666666663</v>
       </c>
       <c r="P48" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.91634516967167934</v>
       </c>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B49" s="80"/>
+      <c r="B49" s="82" t="s">
+        <v>126</v>
+      </c>
       <c r="C49" s="72">
         <v>42757</v>
       </c>
@@ -7078,36 +7447,38 @@
         <v>68820</v>
       </c>
       <c r="J49" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>1.7341040462427744E-2</v>
       </c>
       <c r="K49" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.5471984975182221E-2</v>
       </c>
       <c r="L49" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>181.21387283236993</v>
       </c>
       <c r="M49" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.0976076555023924</v>
       </c>
       <c r="N49" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.15006100040666936</v>
       </c>
       <c r="O49" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.7</v>
       </c>
       <c r="P49" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.62197198571820933</v>
       </c>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B50" s="80"/>
+      <c r="B50" s="82" t="s">
+        <v>126</v>
+      </c>
       <c r="C50" s="72">
         <v>42758</v>
       </c>
@@ -7130,36 +7501,38 @@
         <v>16700</v>
       </c>
       <c r="J50" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>1.384083044982699E-2</v>
       </c>
       <c r="K50" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.1820524356824409E-2</v>
       </c>
       <c r="L50" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>184.11764705882354</v>
       </c>
       <c r="M50" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0.31385077992858484</v>
       </c>
       <c r="N50" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.24374644684479818</v>
       </c>
       <c r="O50" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.75</v>
       </c>
       <c r="P50" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.71979865771812079</v>
       </c>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B51" s="80"/>
+      <c r="B51" s="82" t="s">
+        <v>126</v>
+      </c>
       <c r="C51" s="72">
         <v>42759</v>
       </c>
@@ -7182,36 +7555,38 @@
         <v>35852</v>
       </c>
       <c r="J51" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>9.8039215686274508E-3</v>
       </c>
       <c r="K51" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.7875920084121977E-2</v>
       </c>
       <c r="L51" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>182.69607843137254</v>
       </c>
       <c r="M51" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0.96195331365709691</v>
       </c>
       <c r="N51" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.40377539593665013</v>
       </c>
       <c r="O51" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.6</v>
       </c>
       <c r="P51" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.31910206252136586</v>
       </c>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B52" s="80"/>
+      <c r="B52" s="82" t="s">
+        <v>126</v>
+      </c>
       <c r="C52" s="72">
         <v>42760</v>
       </c>
@@ -7234,36 +7609,38 @@
         <v>28800</v>
       </c>
       <c r="J52" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>2.2900763358778626E-2</v>
       </c>
       <c r="K52" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.403922409173722E-2</v>
       </c>
       <c r="L52" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>176.52671755725191</v>
       </c>
       <c r="M52" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0.62270270270270267</v>
       </c>
       <c r="N52" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.35033010254249197</v>
       </c>
       <c r="O52" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.7</v>
       </c>
       <c r="P52" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.8631087619898663</v>
       </c>
     </row>
     <row r="53" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="80"/>
+      <c r="B53" s="82" t="s">
+        <v>126</v>
+      </c>
       <c r="C53" s="72">
         <v>42761</v>
       </c>
@@ -7286,36 +7663,38 @@
         <v>4700</v>
       </c>
       <c r="J53" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>3.2679738562091504E-3</v>
       </c>
       <c r="K53" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.7909399508369426E-2</v>
       </c>
       <c r="L53" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>163.43137254901961</v>
       </c>
       <c r="M53" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>9.398120375924815E-2</v>
       </c>
       <c r="N53" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.2803281047632753</v>
       </c>
       <c r="O53" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.9375</v>
       </c>
       <c r="P53" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.94572748267898388</v>
       </c>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B54" s="80"/>
+      <c r="B54" s="82" t="s">
+        <v>126</v>
+      </c>
       <c r="C54" s="72">
         <v>42762</v>
       </c>
@@ -7338,36 +7717,38 @@
         <v>140400</v>
       </c>
       <c r="J54" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>5.2631578947368418E-2</v>
       </c>
       <c r="K54" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.5779722736855555E-2</v>
       </c>
       <c r="L54" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>174.65587044534414</v>
       </c>
       <c r="M54" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>3.25452016689847</v>
       </c>
       <c r="N54" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.20111111111111113</v>
       </c>
       <c r="O54" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.5185185185185186</v>
       </c>
       <c r="P54" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.1566047936565147</v>
       </c>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B55" s="80"/>
+      <c r="B55" s="82" t="s">
+        <v>126</v>
+      </c>
       <c r="C55" s="72">
         <v>42763</v>
       </c>
@@ -7390,36 +7771,38 @@
         <v>35400</v>
       </c>
       <c r="J55" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>2.2727272727272728E-2</v>
       </c>
       <c r="K55" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.4209591474245116E-2</v>
       </c>
       <c r="L55" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>188.10606060606059</v>
       </c>
       <c r="M55" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0.71284736206202171</v>
       </c>
       <c r="N55" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-4.2237222757955606E-2</v>
       </c>
       <c r="O55" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>5</v>
       </c>
       <c r="P55" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>3.1647058823529415</v>
       </c>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B56" s="80"/>
+      <c r="B56" s="82" t="s">
+        <v>127</v>
+      </c>
       <c r="C56" s="72">
         <v>42764</v>
       </c>
@@ -7442,36 +7825,38 @@
         <v>43000</v>
       </c>
       <c r="J56" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>2.6954177897574125E-2</v>
       </c>
       <c r="K56" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.2327629174281441E-2</v>
       </c>
       <c r="L56" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>178.59838274932613</v>
       </c>
       <c r="M56" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0.64895864775128287</v>
       </c>
       <c r="N56" s="76">
-        <f t="shared" ref="N56:P58" si="18">IFERROR(G56/G49-1,0)</f>
+        <f t="shared" ref="N56:P58" si="28">IFERROR(G56/G49-1,0)</f>
         <v>5.6778309409888372E-2</v>
       </c>
       <c r="O56" s="76">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0.66666666666666674</v>
       </c>
       <c r="P56" s="76">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>-0.37518163324614939</v>
       </c>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B57" s="80"/>
+      <c r="B57" s="82" t="s">
+        <v>127</v>
+      </c>
       <c r="C57" s="72">
         <v>42765</v>
       </c>
@@ -7510,20 +7895,22 @@
         <v>1.7638137832892864</v>
       </c>
       <c r="N57" s="76">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0.8489005825972562</v>
       </c>
       <c r="O57" s="76">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="P57" s="76">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>9.3906586826347311</v>
       </c>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B58" s="80"/>
+      <c r="B58" s="82" t="s">
+        <v>127</v>
+      </c>
       <c r="C58" s="72">
         <v>42766</v>
       </c>
@@ -7562,32 +7949,27 @@
         <v>2.8318606412522089</v>
       </c>
       <c r="N58" s="76">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>1.1255701636705124</v>
       </c>
       <c r="O58" s="76">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>12.5</v>
       </c>
       <c r="P58" s="76">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>5.2573914983822378</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="8">
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B13:P13"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C9:D9"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C10:D10"/>
     <mergeCell ref="B25:P25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -7622,19 +8004,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="114" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J3" s="16"/>
@@ -7752,21 +8134,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="19" x14ac:dyDescent="0.2">
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="114" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="L3" s="16"/>
@@ -7817,11 +8199,11 @@
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="117" t="s">
+      <c r="B6" s="121" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="118"/>
-      <c r="D6" s="119"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="123"/>
       <c r="E6" s="44" t="s">
         <v>55</v>
       </c>
@@ -7952,32 +8334,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="19" x14ac:dyDescent="0.2">
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="114" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="113"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="114" t="s">
+      <c r="C4" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="114"/>
+      <c r="D4" s="115"/>
       <c r="E4" s="64" t="s">
         <v>85</v>
       </c>
@@ -8019,8 +8401,8 @@
       <c r="B5" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
       <c r="E5" s="32">
         <f>SUM(E6:E10)</f>
         <v>730066</v>
@@ -8065,7 +8447,7 @@
       <c r="B6" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="84" t="s">
         <v>103</v>
       </c>
       <c r="D6" s="85"/>
@@ -8113,7 +8495,7 @@
       <c r="B7" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="84" t="s">
         <v>104</v>
       </c>
       <c r="D7" s="85"/>
@@ -8170,7 +8552,7 @@
       <c r="B8" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="84" t="s">
         <v>105</v>
       </c>
       <c r="D8" s="85"/>
@@ -8227,7 +8609,7 @@
       <c r="B9" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="84" t="s">
         <v>106</v>
       </c>
       <c r="D9" s="85"/>
@@ -8284,7 +8666,7 @@
       <c r="B10" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="85" t="s">
+      <c r="C10" s="84" t="s">
         <v>107</v>
       </c>
       <c r="D10" s="85"/>
@@ -8374,21 +8756,21 @@
       <c r="P12" s="8"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B13" s="110"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="110"/>
-      <c r="M13" s="110"/>
-      <c r="N13" s="110"/>
-      <c r="O13" s="110"/>
-      <c r="P13" s="110"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="117"/>
+      <c r="M13" s="117"/>
+      <c r="N13" s="117"/>
+      <c r="O13" s="117"/>
+      <c r="P13" s="117"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="10" t="s">
@@ -8442,19 +8824,19 @@
         <v>39</v>
       </c>
       <c r="C15" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$E$28:$E$925)</f>
+        <f t="shared" ref="C15:C21" si="9">SUMIF($D$28:$D$925,$B$15:$B$21,$E$28:$E$925)</f>
         <v>135081</v>
       </c>
       <c r="D15" s="12">
-        <f>C15/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" ref="D15:D21" si="10">C15/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
         <v>33770.25</v>
       </c>
       <c r="E15" s="12">
-        <f ca="1">SUMIF($D$28:$D$925,$B$15:$B$21,$F$28:$F$399)</f>
+        <f t="shared" ref="E15:E21" ca="1" si="11">SUMIF($D$28:$D$925,$B$15:$B$21,$F$28:$F$399)</f>
         <v>2033</v>
       </c>
       <c r="F15" s="12">
-        <f ca="1">E15/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" ref="F15:F21" ca="1" si="12">E15/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
         <v>508.25</v>
       </c>
       <c r="G15" s="13">
@@ -8466,19 +8848,19 @@
         <v>193.03492375799311</v>
       </c>
       <c r="I15" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$G$28:$G$925)</f>
+        <f t="shared" ref="I15:I21" si="13">SUMIF($D$28:$D$925,$B$15:$B$21,$G$28:$G$925)</f>
         <v>392440</v>
       </c>
       <c r="J15" s="12">
-        <f>I15/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" ref="J15:J21" si="14">I15/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
         <v>98110</v>
       </c>
       <c r="K15" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$H$28:$H$925)</f>
+        <f t="shared" ref="K15:K21" si="15">SUMIF($D$28:$D$925,$B$15:$B$21,$H$28:$H$925)</f>
         <v>67</v>
       </c>
       <c r="L15" s="12">
-        <f>K15/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" ref="L15:L21" si="16">K15/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
         <v>16.75</v>
       </c>
       <c r="M15" s="13">
@@ -8486,11 +8868,11 @@
         <v>3.2956222331529762E-2</v>
       </c>
       <c r="N15" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$I$28:$I$925)</f>
+        <f t="shared" ref="N15:N21" si="17">SUMIF($D$28:$D$925,$B$15:$B$21,$I$28:$I$925)</f>
         <v>449614</v>
       </c>
       <c r="O15" s="12">
-        <f>N15/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" ref="O15:O21" si="18">N15/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
         <v>112403.5</v>
       </c>
       <c r="P15" s="43">
@@ -8503,59 +8885,59 @@
         <v>40</v>
       </c>
       <c r="C16" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$E$28:$E$925)</f>
+        <f t="shared" si="9"/>
         <v>120093</v>
       </c>
       <c r="D16" s="12">
-        <f>C16/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" si="10"/>
         <v>30023.25</v>
       </c>
       <c r="E16" s="12">
-        <f ca="1">SUMIF($D$28:$D$925,$B$15:$B$21,$F$28:$F$399)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>1796</v>
       </c>
       <c r="F16" s="12">
-        <f ca="1">E16/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>449</v>
       </c>
       <c r="G16" s="13">
-        <f t="shared" ref="G16:G22" ca="1" si="9">IFERROR(E16/C16,0)</f>
+        <f t="shared" ref="G16:G22" ca="1" si="19">IFERROR(E16/C16,0)</f>
         <v>1.4955076482392813E-2</v>
       </c>
       <c r="H16" s="12">
-        <f t="shared" ref="H16:H22" ca="1" si="10">IFERROR(I16/E16,0)</f>
+        <f t="shared" ref="H16:H22" ca="1" si="20">IFERROR(I16/E16,0)</f>
         <v>187.86191536748331</v>
       </c>
       <c r="I16" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$G$28:$G$925)</f>
+        <f t="shared" si="13"/>
         <v>337400</v>
       </c>
       <c r="J16" s="12">
-        <f>I16/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" si="14"/>
         <v>84350</v>
       </c>
       <c r="K16" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$H$28:$H$925)</f>
+        <f t="shared" si="15"/>
         <v>68</v>
       </c>
       <c r="L16" s="12">
-        <f>K16/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" si="16"/>
         <v>17</v>
       </c>
       <c r="M16" s="13">
-        <f t="shared" ref="M16:M22" ca="1" si="11">IFERROR(K16/E16,0)</f>
+        <f t="shared" ref="M16:M22" ca="1" si="21">IFERROR(K16/E16,0)</f>
         <v>3.7861915367483297E-2</v>
       </c>
       <c r="N16" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$I$28:$I$925)</f>
+        <f t="shared" si="17"/>
         <v>582856</v>
       </c>
       <c r="O16" s="12">
-        <f>N16/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" si="18"/>
         <v>145714</v>
       </c>
       <c r="P16" s="43">
-        <f t="shared" ref="P16:P22" si="12">IFERROR(N16/I16,0)</f>
+        <f t="shared" ref="P16:P22" si="22">IFERROR(N16/I16,0)</f>
         <v>1.7274925903971547</v>
       </c>
     </row>
@@ -8564,59 +8946,59 @@
         <v>41</v>
       </c>
       <c r="C17" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$E$28:$E$925)</f>
+        <f t="shared" si="9"/>
         <v>94139</v>
       </c>
       <c r="D17" s="12">
-        <f>C17/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" si="10"/>
         <v>23534.75</v>
       </c>
       <c r="E17" s="12">
-        <f ca="1">SUMIF($D$28:$D$925,$B$15:$B$21,$F$28:$F$399)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>1343</v>
       </c>
       <c r="F17" s="12">
-        <f ca="1">E17/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>335.75</v>
       </c>
       <c r="G17" s="13">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.4266138369857339E-2</v>
       </c>
       <c r="H17" s="12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="20"/>
         <v>191.77215189873417</v>
       </c>
       <c r="I17" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$G$28:$G$925)</f>
+        <f t="shared" si="13"/>
         <v>257550</v>
       </c>
       <c r="J17" s="12">
-        <f>I17/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" si="14"/>
         <v>64387.5</v>
       </c>
       <c r="K17" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$H$28:$H$925)</f>
+        <f t="shared" si="15"/>
         <v>46</v>
       </c>
       <c r="L17" s="12">
-        <f>K17/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" si="16"/>
         <v>11.5</v>
       </c>
       <c r="M17" s="13">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="21"/>
         <v>3.4251675353685777E-2</v>
       </c>
       <c r="N17" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$I$28:$I$925)</f>
+        <f t="shared" si="17"/>
         <v>367092</v>
       </c>
       <c r="O17" s="12">
-        <f>N17/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" si="18"/>
         <v>91773</v>
       </c>
       <c r="P17" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>1.4253232382061736</v>
       </c>
     </row>
@@ -8625,59 +9007,59 @@
         <v>42</v>
       </c>
       <c r="C18" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$E$28:$E$925)</f>
+        <f t="shared" si="9"/>
         <v>96673</v>
       </c>
       <c r="D18" s="12">
-        <f>C18/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" si="10"/>
         <v>24168.25</v>
       </c>
       <c r="E18" s="12">
-        <f ca="1">SUMIF($D$28:$D$925,$B$15:$B$21,$F$28:$F$399)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>1438</v>
       </c>
       <c r="F18" s="12">
-        <f ca="1">E18/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>359.5</v>
       </c>
       <c r="G18" s="13">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.4874887507370206E-2</v>
       </c>
       <c r="H18" s="12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="20"/>
         <v>182.52433936022254</v>
       </c>
       <c r="I18" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$G$28:$G$925)</f>
+        <f t="shared" si="13"/>
         <v>262470</v>
       </c>
       <c r="J18" s="12">
-        <f>I18/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" si="14"/>
         <v>65617.5</v>
       </c>
       <c r="K18" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$H$28:$H$925)</f>
+        <f t="shared" si="15"/>
         <v>39</v>
       </c>
       <c r="L18" s="12">
-        <f>K18/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" si="16"/>
         <v>9.75</v>
       </c>
       <c r="M18" s="13">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="21"/>
         <v>2.7121001390820583E-2</v>
       </c>
       <c r="N18" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$I$28:$I$925)</f>
+        <f t="shared" si="17"/>
         <v>286792</v>
       </c>
       <c r="O18" s="12">
-        <f>N18/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" si="18"/>
         <v>71698</v>
       </c>
       <c r="P18" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>1.0926658284756352</v>
       </c>
     </row>
@@ -8686,59 +9068,59 @@
         <v>43</v>
       </c>
       <c r="C19" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$E$28:$E$925)</f>
+        <f t="shared" si="9"/>
         <v>80340</v>
       </c>
       <c r="D19" s="12">
-        <f>C19/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" si="10"/>
         <v>20085</v>
       </c>
       <c r="E19" s="12">
-        <f ca="1">SUMIF($D$28:$D$925,$B$15:$B$21,$F$28:$F$399)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>1161</v>
       </c>
       <c r="F19" s="12">
-        <f ca="1">E19/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>290.25</v>
       </c>
       <c r="G19" s="13">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.445108289768484E-2</v>
       </c>
       <c r="H19" s="12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="20"/>
         <v>184.78897502153316</v>
       </c>
       <c r="I19" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$G$28:$G$925)</f>
+        <f t="shared" si="13"/>
         <v>214540</v>
       </c>
       <c r="J19" s="12">
-        <f>I19/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" si="14"/>
         <v>53635</v>
       </c>
       <c r="K19" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$H$28:$H$925)</f>
+        <f t="shared" si="15"/>
         <v>63</v>
       </c>
       <c r="L19" s="12">
-        <f>K19/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" si="16"/>
         <v>15.75</v>
       </c>
       <c r="M19" s="13">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="21"/>
         <v>5.4263565891472867E-2</v>
       </c>
       <c r="N19" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$I$28:$I$925)</f>
+        <f t="shared" si="17"/>
         <v>425770</v>
       </c>
       <c r="O19" s="12">
-        <f>N19/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" si="18"/>
         <v>106442.5</v>
       </c>
       <c r="P19" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>1.9845716416519064</v>
       </c>
     </row>
@@ -8747,59 +9129,59 @@
         <v>44</v>
       </c>
       <c r="C20" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$E$28:$E$925)</f>
+        <f t="shared" si="9"/>
         <v>79399</v>
       </c>
       <c r="D20" s="12">
-        <f>C20/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" si="10"/>
         <v>19849.75</v>
       </c>
       <c r="E20" s="12">
-        <f ca="1">SUMIF($D$28:$D$925,$B$15:$B$21,$F$28:$F$399)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>1190</v>
       </c>
       <c r="F20" s="12">
-        <f ca="1">E20/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>297.5</v>
       </c>
       <c r="G20" s="13">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.4987594302195241E-2</v>
       </c>
       <c r="H20" s="12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="20"/>
         <v>185.9075630252101</v>
       </c>
       <c r="I20" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$G$28:$G$925)</f>
+        <f t="shared" si="13"/>
         <v>221230</v>
       </c>
       <c r="J20" s="12">
-        <f>I20/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" si="14"/>
         <v>55307.5</v>
       </c>
       <c r="K20" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$H$28:$H$925)</f>
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
       <c r="L20" s="12">
-        <f>K20/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" si="16"/>
         <v>6.25</v>
       </c>
       <c r="M20" s="13">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="21"/>
         <v>2.100840336134454E-2</v>
       </c>
       <c r="N20" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$I$28:$I$925)</f>
+        <f t="shared" si="17"/>
         <v>189272</v>
       </c>
       <c r="O20" s="12">
-        <f>N20/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" si="18"/>
         <v>47318</v>
       </c>
       <c r="P20" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0.85554400397776065</v>
       </c>
     </row>
@@ -8808,59 +9190,59 @@
         <v>45</v>
       </c>
       <c r="C21" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$E$28:$E$925)</f>
+        <f t="shared" si="9"/>
         <v>124341</v>
       </c>
       <c r="D21" s="12">
-        <f>C21/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" si="10"/>
         <v>24868.2</v>
       </c>
       <c r="E21" s="12">
-        <f ca="1">SUMIF($D$28:$D$925,$B$15:$B$21,$F$28:$F$399)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>1826</v>
       </c>
       <c r="F21" s="12">
-        <f ca="1">E21/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>365.2</v>
       </c>
       <c r="G21" s="13">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.4685421542371383E-2</v>
       </c>
       <c r="H21" s="12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="20"/>
         <v>192.23986856516976</v>
       </c>
       <c r="I21" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$G$28:$G$925)</f>
+        <f t="shared" si="13"/>
         <v>351030</v>
       </c>
       <c r="J21" s="12">
-        <f>I21/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" si="14"/>
         <v>70206</v>
       </c>
       <c r="K21" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$H$28:$H$925)</f>
+        <f t="shared" si="15"/>
         <v>64</v>
       </c>
       <c r="L21" s="12">
-        <f>K21/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" si="16"/>
         <v>12.8</v>
       </c>
       <c r="M21" s="13">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="21"/>
         <v>3.5049288061336253E-2</v>
       </c>
       <c r="N21" s="12">
-        <f>SUMIF($D$28:$D$925,$B$15:$B$21,$I$28:$I$925)</f>
+        <f t="shared" si="17"/>
         <v>496130</v>
       </c>
       <c r="O21" s="12">
-        <f>N21/COUNTIF($D$28:$D$56,$B$15:$B$21)</f>
+        <f t="shared" si="18"/>
         <v>99226</v>
       </c>
       <c r="P21" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>1.4133549839045096</v>
       </c>
     </row>
@@ -8889,11 +9271,11 @@
         <v>347.96774193548384</v>
       </c>
       <c r="G22" s="26">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.4775376472812048E-2</v>
       </c>
       <c r="H22" s="25">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="20"/>
         <v>188.80689719106331</v>
       </c>
       <c r="I22" s="24">
@@ -8913,7 +9295,7 @@
         <v>12</v>
       </c>
       <c r="M22" s="26">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="21"/>
         <v>3.4485955316584778E-2</v>
       </c>
       <c r="N22" s="24">
@@ -8925,7 +9307,7 @@
         <v>90242.774193548394</v>
       </c>
       <c r="P22" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>1.3735851835848889</v>
       </c>
     </row>
@@ -8935,30 +9317,30 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B25" s="110"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="110"/>
-      <c r="I25" s="110"/>
-      <c r="J25" s="110"/>
-      <c r="K25" s="110"/>
-      <c r="L25" s="110"/>
-      <c r="M25" s="110"/>
-      <c r="N25" s="110"/>
-      <c r="O25" s="110"/>
-      <c r="P25" s="110"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="117"/>
+      <c r="H25" s="117"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="117"/>
+      <c r="K25" s="117"/>
+      <c r="L25" s="117"/>
+      <c r="M25" s="117"/>
+      <c r="N25" s="117"/>
+      <c r="O25" s="117"/>
+      <c r="P25" s="117"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B26" s="116" t="s">
+      <c r="B26" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="111" t="s">
+      <c r="C26" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="112"/>
+      <c r="D26" s="119"/>
       <c r="E26" s="81" t="s">
         <v>23</v>
       </c>
@@ -8997,45 +9379,45 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B27" s="116"/>
-      <c r="C27" s="111" t="s">
+      <c r="B27" s="120"/>
+      <c r="C27" s="118" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="112"/>
+      <c r="D27" s="119"/>
       <c r="E27" s="69">
         <f>SUM(E28:E58)</f>
         <v>730066</v>
       </c>
       <c r="F27" s="69">
-        <f t="shared" ref="F27:I27" si="13">SUM(F28:F58)</f>
+        <f t="shared" ref="F27:I27" si="23">SUM(F28:F58)</f>
         <v>10787</v>
       </c>
       <c r="G27" s="69">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>2036660</v>
       </c>
       <c r="H27" s="69">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>372</v>
       </c>
       <c r="I27" s="69">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>2797526</v>
       </c>
       <c r="J27" s="22">
-        <f t="shared" ref="J27:J56" si="14">IFERROR(H27/F27,0)</f>
+        <f t="shared" ref="J27:J56" si="24">IFERROR(H27/F27,0)</f>
         <v>3.4485955316584778E-2</v>
       </c>
       <c r="K27" s="22">
-        <f t="shared" ref="K27:L56" si="15">IFERROR(F27/E27,0)</f>
+        <f t="shared" ref="K27:L56" si="25">IFERROR(F27/E27,0)</f>
         <v>1.4775376472812048E-2</v>
       </c>
       <c r="L27" s="69">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>188.80689719106331</v>
       </c>
       <c r="M27" s="40">
-        <f t="shared" ref="M27:M56" si="16">IFERROR(I27/G27,0)</f>
+        <f t="shared" ref="M27:M56" si="26">IFERROR(I27/G27,0)</f>
         <v>1.3735851835848889</v>
       </c>
       <c r="N27" s="76" t="s">
@@ -9074,19 +9456,19 @@
         <v>112510</v>
       </c>
       <c r="J28" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>4.1208791208791208E-2</v>
       </c>
       <c r="K28" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.6257983831345749E-2</v>
       </c>
       <c r="L28" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>209.97252747252747</v>
       </c>
       <c r="M28" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.4720659426926599</v>
       </c>
       <c r="N28" s="76" t="s">
@@ -9123,19 +9505,19 @@
         <v>134390</v>
       </c>
       <c r="J29" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0.04</v>
       </c>
       <c r="K29" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.6080617495711835E-2</v>
       </c>
       <c r="L29" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>200.4</v>
       </c>
       <c r="M29" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.4902417387447326</v>
       </c>
       <c r="N29" s="76" t="s">
@@ -9172,19 +9554,19 @@
         <v>165110</v>
       </c>
       <c r="J30" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>6.030150753768844E-2</v>
       </c>
       <c r="K30" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.4714037487522645E-2</v>
       </c>
       <c r="L30" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>201.20603015075378</v>
       </c>
       <c r="M30" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>2.0618131868131866</v>
       </c>
       <c r="N30" s="76" t="s">
@@ -9221,19 +9603,19 @@
         <v>70766</v>
       </c>
       <c r="J31" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>2.8901734104046242E-2</v>
       </c>
       <c r="K31" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.3568627450980392E-2</v>
       </c>
       <c r="L31" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>204.30635838150289</v>
       </c>
       <c r="M31" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.0010751167067478</v>
       </c>
       <c r="N31" s="76" t="s">
@@ -9270,19 +9652,19 @@
         <v>121800</v>
       </c>
       <c r="J32" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>3.8567493112947659E-2</v>
       </c>
       <c r="K32" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.4759097377515755E-2</v>
       </c>
       <c r="L32" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>201.34986225895318</v>
       </c>
       <c r="M32" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.6664386372964839</v>
       </c>
       <c r="N32" s="76" t="s">
@@ -9319,19 +9701,19 @@
         <v>52500</v>
       </c>
       <c r="J33" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>6.1643835616438353E-2</v>
       </c>
       <c r="K33" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.4070932922127988E-2</v>
       </c>
       <c r="L33" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>190.61643835616439</v>
       </c>
       <c r="M33" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0.94322673374056776</v>
       </c>
       <c r="N33" s="76" t="s">
@@ -9368,19 +9750,19 @@
         <v>43764</v>
       </c>
       <c r="J34" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="K34" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.6744283396996493E-2</v>
       </c>
       <c r="L34" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>199.78125</v>
       </c>
       <c r="M34" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0.68456123885499764</v>
       </c>
       <c r="N34" s="76" t="s">
@@ -9417,31 +9799,31 @@
         <v>89750</v>
       </c>
       <c r="J35" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>3.6931818181818184E-2</v>
       </c>
       <c r="K35" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.5062045357295679E-2</v>
       </c>
       <c r="L35" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>204.17613636363637</v>
       </c>
       <c r="M35" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.2487825240016697</v>
       </c>
       <c r="N35" s="76">
-        <f t="shared" ref="N35:P55" si="17">IFERROR(G35/G28-1,0)</f>
+        <f t="shared" ref="N35:P55" si="27">IFERROR(G35/G28-1,0)</f>
         <v>-5.9662436216145531E-2</v>
       </c>
       <c r="O35" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.1333333333333333</v>
       </c>
       <c r="P35" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.20229312949959999</v>
       </c>
     </row>
@@ -9469,31 +9851,31 @@
         <v>65400</v>
       </c>
       <c r="J36" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>2.1739130434782608E-2</v>
       </c>
       <c r="K36" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.562323106532322E-2</v>
       </c>
       <c r="L36" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>193.98550724637681</v>
       </c>
       <c r="M36" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0.8143444153903624</v>
       </c>
       <c r="N36" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.10944777112441784</v>
       </c>
       <c r="O36" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.5</v>
       </c>
       <c r="P36" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.51335664856016072</v>
       </c>
     </row>
@@ -9521,31 +9903,31 @@
         <v>104900</v>
       </c>
       <c r="J37" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>2.6809651474530832E-2</v>
       </c>
       <c r="K37" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.4296117435130888E-2</v>
       </c>
       <c r="L37" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>209.97319034852546</v>
       </c>
       <c r="M37" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.3393769152196118</v>
       </c>
       <c r="N37" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-2.1978021978022011E-2</v>
       </c>
       <c r="O37" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.58333333333333326</v>
       </c>
       <c r="P37" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.36466598025558716</v>
       </c>
     </row>
@@ -9573,31 +9955,31 @@
         <v>57140</v>
       </c>
       <c r="J38" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>2.7855153203342618E-2</v>
       </c>
       <c r="K38" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.4443773888553611E-2</v>
       </c>
       <c r="L38" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>193.37047353760445</v>
       </c>
       <c r="M38" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0.82310573321809277</v>
       </c>
       <c r="N38" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-1.7965766020653584E-2</v>
       </c>
       <c r="O38" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P38" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.19255009467823536</v>
       </c>
     </row>
@@ -9625,31 +10007,31 @@
         <v>73692</v>
       </c>
       <c r="J39" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>2.0151133501259445E-2</v>
       </c>
       <c r="K39" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.3179298210669588E-2</v>
       </c>
       <c r="L39" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>176.02015113350126</v>
       </c>
       <c r="M39" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.0545506582713222</v>
       </c>
       <c r="N39" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-4.3918456697222608E-2</v>
       </c>
       <c r="O39" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.4285714285714286</v>
       </c>
       <c r="P39" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.39497536945812806</v>
       </c>
     </row>
@@ -9677,31 +10059,31 @@
         <v>66400</v>
       </c>
       <c r="J40" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>1.5151515151515152E-2</v>
       </c>
       <c r="K40" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.5366705471478464E-2</v>
       </c>
       <c r="L40" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>187.09090909090909</v>
       </c>
       <c r="M40" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.0754778101716878</v>
       </c>
       <c r="N40" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.10923463887890761</v>
       </c>
       <c r="O40" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.72222222222222221</v>
       </c>
       <c r="P40" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.26476190476190475</v>
       </c>
     </row>
@@ -9729,31 +10111,31 @@
         <v>101608</v>
       </c>
       <c r="J41" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>3.9215686274509803E-2</v>
       </c>
       <c r="K41" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.4037341162438644E-2</v>
       </c>
       <c r="L41" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>182.3202614379085</v>
       </c>
       <c r="M41" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.8212582900161318</v>
       </c>
       <c r="N41" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.12732676364773976</v>
       </c>
       <c r="O41" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="P41" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>1.3217256192304179</v>
       </c>
     </row>
@@ -9781,31 +10163,31 @@
         <v>182050</v>
       </c>
       <c r="J42" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>5.0890585241730277E-2</v>
       </c>
       <c r="K42" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.5043638033991731E-2</v>
       </c>
       <c r="L42" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>187.70992366412213</v>
       </c>
       <c r="M42" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>2.4678053409244951</v>
       </c>
       <c r="N42" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>2.6436621678029848E-2</v>
       </c>
       <c r="O42" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.53846153846153855</v>
       </c>
       <c r="P42" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>1.0284122562674094</v>
       </c>
     </row>
@@ -9833,31 +10215,31 @@
         <v>59600</v>
       </c>
       <c r="J43" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>4.3835616438356165E-2</v>
       </c>
       <c r="K43" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.4487001389164516E-2</v>
       </c>
       <c r="L43" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>192.76712328767124</v>
       </c>
       <c r="M43" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0.84707220011370099</v>
       </c>
       <c r="N43" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.12389490723446639</v>
       </c>
       <c r="O43" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.77777777777777768</v>
       </c>
       <c r="P43" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-8.8685015290519864E-2</v>
       </c>
     </row>
@@ -9885,31 +10267,31 @@
         <v>52654</v>
       </c>
       <c r="J44" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>1.5151515151515152E-2</v>
       </c>
       <c r="K44" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.2775347450737487E-2</v>
       </c>
       <c r="L44" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>189.42424242424244</v>
       </c>
       <c r="M44" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0.84232922732362825</v>
       </c>
       <c r="N44" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.20186414708886624</v>
       </c>
       <c r="O44" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.5</v>
       </c>
       <c r="P44" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.49805529075309818</v>
       </c>
     </row>
@@ -9937,31 +10319,31 @@
         <v>210386</v>
       </c>
       <c r="J45" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>5.3191489361702128E-2</v>
       </c>
       <c r="K45" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.4966961229201497E-2</v>
       </c>
       <c r="L45" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>189.33510638297872</v>
       </c>
       <c r="M45" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>2.9552746172215199</v>
       </c>
       <c r="N45" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>2.5496974935177219E-2</v>
       </c>
       <c r="O45" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="P45" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>2.6819390969548476</v>
       </c>
     </row>
@@ -9989,31 +10371,31 @@
         <v>86600</v>
       </c>
       <c r="J46" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>4.3010752688172046E-2</v>
       </c>
       <c r="K46" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.4958381921267441E-2</v>
       </c>
       <c r="L46" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>186.80107526881721</v>
       </c>
       <c r="M46" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.2462224780543962</v>
       </c>
       <c r="N46" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-5.5809959931311104E-3</v>
       </c>
       <c r="O46" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="P46" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.17516148292894762</v>
       </c>
     </row>
@@ -10041,31 +10423,31 @@
         <v>166470</v>
       </c>
       <c r="J47" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>9.2465753424657529E-2</v>
       </c>
       <c r="K47" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.3000890471950133E-2</v>
       </c>
       <c r="L47" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>184.93150684931507</v>
       </c>
       <c r="M47" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>3.0827777777777778</v>
       </c>
       <c r="N47" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.12536443148688048</v>
       </c>
       <c r="O47" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="P47" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>1.5070783132530119</v>
       </c>
     </row>
@@ -10093,31 +10475,31 @@
         <v>8500</v>
       </c>
       <c r="J48" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="K48" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.5067805123053743E-2</v>
       </c>
       <c r="L48" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>172.83333333333334</v>
       </c>
       <c r="M48" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0.16393442622950818</v>
       </c>
       <c r="N48" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-7.0621975264384296E-2</v>
       </c>
       <c r="O48" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.91666666666666663</v>
       </c>
       <c r="P48" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.91634516967167934</v>
       </c>
     </row>
@@ -10145,31 +10527,31 @@
         <v>68820</v>
       </c>
       <c r="J49" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>1.7341040462427744E-2</v>
       </c>
       <c r="K49" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.5471984975182221E-2</v>
       </c>
       <c r="L49" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>181.21387283236993</v>
       </c>
       <c r="M49" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.0976076555023924</v>
       </c>
       <c r="N49" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.15006100040666936</v>
       </c>
       <c r="O49" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.7</v>
       </c>
       <c r="P49" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.62197198571820933</v>
       </c>
     </row>
@@ -10197,31 +10579,31 @@
         <v>16700</v>
       </c>
       <c r="J50" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>1.384083044982699E-2</v>
       </c>
       <c r="K50" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.1820524356824409E-2</v>
       </c>
       <c r="L50" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>184.11764705882354</v>
       </c>
       <c r="M50" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0.31385077992858484</v>
       </c>
       <c r="N50" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.24374644684479818</v>
       </c>
       <c r="O50" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.75</v>
       </c>
       <c r="P50" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.71979865771812079</v>
       </c>
     </row>
@@ -10249,31 +10631,31 @@
         <v>35852</v>
       </c>
       <c r="J51" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>9.8039215686274508E-3</v>
       </c>
       <c r="K51" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.7875920084121977E-2</v>
       </c>
       <c r="L51" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>182.69607843137254</v>
       </c>
       <c r="M51" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0.96195331365709691</v>
       </c>
       <c r="N51" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.40377539593665013</v>
       </c>
       <c r="O51" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.6</v>
       </c>
       <c r="P51" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.31910206252136586</v>
       </c>
     </row>
@@ -10301,31 +10683,31 @@
         <v>28800</v>
       </c>
       <c r="J52" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>2.2900763358778626E-2</v>
       </c>
       <c r="K52" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.403922409173722E-2</v>
       </c>
       <c r="L52" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>176.52671755725191</v>
       </c>
       <c r="M52" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0.62270270270270267</v>
       </c>
       <c r="N52" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.35033010254249197</v>
       </c>
       <c r="O52" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.7</v>
       </c>
       <c r="P52" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.8631087619898663</v>
       </c>
     </row>
@@ -10353,31 +10735,31 @@
         <v>4700</v>
       </c>
       <c r="J53" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>3.2679738562091504E-3</v>
       </c>
       <c r="K53" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.7909399508369426E-2</v>
       </c>
       <c r="L53" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>163.43137254901961</v>
       </c>
       <c r="M53" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>9.398120375924815E-2</v>
       </c>
       <c r="N53" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.2803281047632753</v>
       </c>
       <c r="O53" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.9375</v>
       </c>
       <c r="P53" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.94572748267898388</v>
       </c>
     </row>
@@ -10405,31 +10787,31 @@
         <v>140400</v>
       </c>
       <c r="J54" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>5.2631578947368418E-2</v>
       </c>
       <c r="K54" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.5779722736855555E-2</v>
       </c>
       <c r="L54" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>174.65587044534414</v>
       </c>
       <c r="M54" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>3.25452016689847</v>
       </c>
       <c r="N54" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.20111111111111113</v>
       </c>
       <c r="O54" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.5185185185185186</v>
       </c>
       <c r="P54" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-0.1566047936565147</v>
       </c>
     </row>
@@ -10457,31 +10839,31 @@
         <v>35400</v>
       </c>
       <c r="J55" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>2.2727272727272728E-2</v>
       </c>
       <c r="K55" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.4209591474245116E-2</v>
       </c>
       <c r="L55" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>188.10606060606059</v>
       </c>
       <c r="M55" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0.71284736206202171</v>
       </c>
       <c r="N55" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-4.2237222757955606E-2</v>
       </c>
       <c r="O55" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>5</v>
       </c>
       <c r="P55" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>3.1647058823529415</v>
       </c>
     </row>
@@ -10509,31 +10891,31 @@
         <v>43000</v>
       </c>
       <c r="J56" s="76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>2.6954177897574125E-2</v>
       </c>
       <c r="K56" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.2327629174281441E-2</v>
       </c>
       <c r="L56" s="75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>178.59838274932613</v>
       </c>
       <c r="M56" s="70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0.64895864775128287</v>
       </c>
       <c r="N56" s="76">
-        <f t="shared" ref="N56:P57" si="18">IFERROR(G56/G49-1,0)</f>
+        <f t="shared" ref="N56:P57" si="28">IFERROR(G56/G49-1,0)</f>
         <v>5.6778309409888372E-2</v>
       </c>
       <c r="O56" s="76">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0.66666666666666674</v>
       </c>
       <c r="P56" s="76">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>-0.37518163324614939</v>
       </c>
     </row>
@@ -10577,15 +10959,15 @@
         <v>1.7638137832892864</v>
       </c>
       <c r="N57" s="76">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0.8489005825972562</v>
       </c>
       <c r="O57" s="76">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="P57" s="76">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>9.3906586826347311</v>
       </c>
     </row>
@@ -10629,33 +11011,28 @@
         <v>2.8318606412522089</v>
       </c>
       <c r="N58" s="76">
-        <f t="shared" ref="N58" si="19">IFERROR(G58/G51-1,0)</f>
+        <f t="shared" ref="N58" si="29">IFERROR(G58/G51-1,0)</f>
         <v>1.1255701636705124</v>
       </c>
       <c r="O58" s="76">
-        <f t="shared" ref="O58" si="20">IFERROR(H58/H51-1,0)</f>
+        <f t="shared" ref="O58" si="30">IFERROR(H58/H51-1,0)</f>
         <v>12.5</v>
       </c>
       <c r="P58" s="76">
-        <f t="shared" ref="P58" si="21">IFERROR(I58/I51-1,0)</f>
+        <f t="shared" ref="P58" si="31">IFERROR(I58/I51-1,0)</f>
         <v>5.2573914983822378</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="C8:D8"/>
+  <mergeCells count="8">
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C9:D9"/>
     <mergeCell ref="B13:P13"/>
     <mergeCell ref="B25:P25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10687,19 +11064,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="114" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J3" s="16"/>
@@ -10816,21 +11193,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="19" x14ac:dyDescent="0.2">
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="114" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="L3" s="16"/>
@@ -10882,11 +11259,11 @@
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="117" t="s">
+      <c r="B6" s="121" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="118"/>
-      <c r="D6" s="119"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="123"/>
       <c r="E6" s="46" t="s">
         <v>55</v>
       </c>

--- a/gluonkorea_report/public/xlsxTemplate/template_report.xlsx
+++ b/gluonkorea_report/public/xlsxTemplate/template_report.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28180" yWindow="3840" windowWidth="27400" windowHeight="17920" tabRatio="1000"/>
+    <workbookView xWindow="-32640" yWindow="2040" windowWidth="27400" windowHeight="17920" tabRatio="1000"/>
   </bookViews>
   <sheets>
     <sheet name="종합요약" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="123">
   <si>
     <t>* 리포트 정보</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -60,10 +60,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ebay 파워클릭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Running time</t>
   </si>
   <si>
@@ -403,26 +399,6 @@
   </si>
   <si>
     <t>평균클릭단가</t>
-  </si>
-  <si>
-    <t>박현철 대리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> T : (031)698-3196 / M : 010-8808-9908</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> E-mail: hcpark@gluonkorea.com     Fax : (070)8230-5270</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1.01 - 1.07</t>
@@ -512,10 +488,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>김진우 대표님</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1주</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -545,6 +517,10 @@
   </si>
   <si>
     <t>비용합계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1월</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -906,7 +882,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -917,6 +893,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1297,13 +1279,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="8">
     <cellStyle name="기본" xfId="0" builtinId="0"/>
     <cellStyle name="백분율" xfId="2" builtinId="5"/>
     <cellStyle name="쉼표[0]" xfId="1" builtinId="6"/>
     <cellStyle name="열어 본 하이퍼링크" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="표준 2" xfId="3"/>
     <cellStyle name="하이퍼링크" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="6" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1617,7 +1601,7 @@
   <sheetData>
     <row r="2" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="95" t="str">
-        <f>$D$6&amp;" 1월 성과 리포트"</f>
+        <f>$D$6 &amp; " " &amp; $D$22 &amp; " 성과 리포트"</f>
         <v>파괴몰닷컴 1월 성과 리포트</v>
       </c>
       <c r="C2" s="95"/>
@@ -1655,17 +1639,17 @@
       </c>
       <c r="C6" s="90"/>
       <c r="D6" s="107" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E6" s="108"/>
       <c r="F6" s="108"/>
       <c r="G6" s="108"/>
       <c r="H6" s="90" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I6" s="90"/>
       <c r="J6" s="96" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="K6" s="97"/>
       <c r="L6" s="97"/>
@@ -1676,19 +1660,15 @@
         <v>2</v>
       </c>
       <c r="C7" s="93"/>
-      <c r="D7" s="109" t="s">
-        <v>120</v>
-      </c>
+      <c r="D7" s="109"/>
       <c r="E7" s="110"/>
       <c r="F7" s="110"/>
       <c r="G7" s="110"/>
       <c r="H7" s="93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I7" s="93"/>
-      <c r="J7" s="99" t="s">
-        <v>96</v>
-      </c>
+      <c r="J7" s="99"/>
       <c r="K7" s="100"/>
       <c r="L7" s="100"/>
       <c r="M7" s="101"/>
@@ -1699,18 +1679,16 @@
       </c>
       <c r="C8" s="93"/>
       <c r="D8" s="109" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E8" s="110"/>
       <c r="F8" s="110"/>
       <c r="G8" s="110"/>
       <c r="H8" s="93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I8" s="93"/>
-      <c r="J8" s="99" t="s">
-        <v>97</v>
-      </c>
+      <c r="J8" s="99"/>
       <c r="K8" s="100"/>
       <c r="L8" s="100"/>
       <c r="M8" s="101"/>
@@ -1720,17 +1698,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="94"/>
-      <c r="D9" s="111" t="s">
-        <v>5</v>
-      </c>
+      <c r="D9" s="111"/>
       <c r="E9" s="112"/>
       <c r="F9" s="112"/>
       <c r="G9" s="112"/>
       <c r="H9" s="94"/>
       <c r="I9" s="94"/>
-      <c r="J9" s="102" t="s">
-        <v>98</v>
-      </c>
+      <c r="J9" s="102"/>
       <c r="K9" s="103"/>
       <c r="L9" s="103"/>
       <c r="M9" s="104"/>
@@ -1738,7 +1712,7 @@
     <row r="10" spans="2:13" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1750,7 +1724,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="85" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M11" s="86"/>
     </row>
@@ -1761,34 +1735,34 @@
       </c>
       <c r="C13" s="90"/>
       <c r="D13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="H13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="I13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="K13" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="L13" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="M13" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="K13" s="59" t="s">
-        <v>94</v>
-      </c>
-      <c r="L13" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
@@ -1798,7 +1772,7 @@
       </c>
       <c r="C14" s="88"/>
       <c r="D14" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E14" s="12">
         <f>Gmarket!E5</f>
@@ -1841,7 +1815,7 @@
       <c r="B15" s="88"/>
       <c r="C15" s="88"/>
       <c r="D15" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E15" s="12">
         <f>Auction!E5</f>
@@ -1882,7 +1856,7 @@
     </row>
     <row r="16" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="88"/>
       <c r="D16" s="11"/>
@@ -1926,7 +1900,7 @@
     <row r="17" spans="2:13" ht="13" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1946,34 +1920,34 @@
       </c>
       <c r="C20" s="90"/>
       <c r="D20" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="G20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="H20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="I20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="K20" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="L20" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="M20" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="K20" s="59" t="s">
-        <v>94</v>
-      </c>
-      <c r="L20" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
@@ -1982,9 +1956,7 @@
         <v>파괴몰닷컴</v>
       </c>
       <c r="C21" s="87"/>
-      <c r="D21" s="61" t="s">
-        <v>99</v>
-      </c>
+      <c r="D21" s="61"/>
       <c r="E21" s="75">
         <v>0</v>
       </c>
@@ -2009,7 +1981,7 @@
       <c r="B22" s="87"/>
       <c r="C22" s="87"/>
       <c r="D22" s="61" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="E22" s="12">
         <f>E16</f>
@@ -2050,7 +2022,7 @@
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="91" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="92"/>
       <c r="D23" s="11"/>
@@ -2155,7 +2127,7 @@
   <sheetData>
     <row r="2" spans="2:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="116" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" s="116"/>
       <c r="D2" s="116"/>
@@ -2174,52 +2146,52 @@
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="117" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" s="117" t="s">
-        <v>22</v>
       </c>
       <c r="D4" s="117"/>
       <c r="E4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="G4" s="56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H4" s="56" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I4" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="K4" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="L4" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="O4" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="J4" s="59" t="s">
-        <v>94</v>
-      </c>
-      <c r="K4" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="L4" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="O4" s="55" t="s">
+      <c r="P4" s="55" t="s">
         <v>91</v>
-      </c>
-      <c r="P4" s="55" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="118"/>
       <c r="D5" s="118"/>
@@ -2260,21 +2232,21 @@
         <v>1.3735851835848889</v>
       </c>
       <c r="N5" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O5" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P5" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="61" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C6" s="82" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D6" s="83"/>
       <c r="E6" s="12">
@@ -2314,21 +2286,21 @@
         <v>1.5211292456991619</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="64" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C7" s="82" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D7" s="83"/>
       <c r="E7" s="12">
@@ -2382,10 +2354,10 @@
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="64" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C8" s="82" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D8" s="83"/>
       <c r="E8" s="12">
@@ -2439,10 +2411,10 @@
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="64" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C9" s="82" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D9" s="83"/>
       <c r="E9" s="12">
@@ -2496,10 +2468,10 @@
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="64" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C10" s="82" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D10" s="83"/>
       <c r="E10" s="12">
@@ -2570,7 +2542,7 @@
     </row>
     <row r="12" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2606,54 +2578,54 @@
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="I14" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="10" t="s">
+      <c r="J14" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="O14" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="N14" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="O14" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="P14" s="41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B15" s="58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="12">
         <f t="shared" ref="C15:C21" si="4">SUMIF($D$28:$D$925,$B$15:$B$21,$E$28:$E$925)</f>
@@ -2714,7 +2686,7 @@
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="12">
         <f t="shared" si="4"/>
@@ -2775,7 +2747,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B17" s="58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="12">
         <f t="shared" si="4"/>
@@ -2836,7 +2808,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B18" s="58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="12">
         <f t="shared" si="4"/>
@@ -2897,7 +2869,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B19" s="58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="12">
         <f t="shared" si="4"/>
@@ -2958,7 +2930,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B20" s="58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="12">
         <f t="shared" si="4"/>
@@ -3019,7 +2991,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B21" s="58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="12">
         <f t="shared" si="4"/>
@@ -3084,7 +3056,7 @@
         <v>31</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="24">
         <f>SUM(C15:C21)</f>
@@ -3145,7 +3117,7 @@
     </row>
     <row r="24" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -3167,53 +3139,53 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B26" s="115" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="113" t="s">
         <v>21</v>
-      </c>
-      <c r="C26" s="113" t="s">
-        <v>22</v>
       </c>
       <c r="D26" s="114"/>
       <c r="E26" s="79" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="79" t="s">
+      <c r="G26" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="79" t="s">
-        <v>25</v>
-      </c>
       <c r="H26" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="K26" s="79" t="s">
+        <v>93</v>
+      </c>
+      <c r="L26" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="M26" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="J26" s="79" t="s">
-        <v>93</v>
-      </c>
-      <c r="K26" s="79" t="s">
-        <v>94</v>
-      </c>
-      <c r="L26" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="M26" s="38" t="s">
-        <v>15</v>
-      </c>
       <c r="N26" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="O26" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="O26" s="79" t="s">
+      <c r="P26" s="79" t="s">
         <v>63</v>
-      </c>
-      <c r="P26" s="79" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B27" s="115"/>
       <c r="C27" s="113" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D27" s="114"/>
       <c r="E27" s="67">
@@ -3253,13 +3225,13 @@
         <v>1.3735851835848889</v>
       </c>
       <c r="N27" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O27" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P27" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
@@ -3312,13 +3284,13 @@
         <v>1.4720659426926599</v>
       </c>
       <c r="N28" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O28" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P28" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3371,13 +3343,13 @@
         <v>1.4902417387447326</v>
       </c>
       <c r="N29" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O29" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P29" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3430,13 +3402,13 @@
         <v>2.0618131868131866</v>
       </c>
       <c r="N30" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O30" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P30" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3489,13 +3461,13 @@
         <v>1.0010751167067478</v>
       </c>
       <c r="N31" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O31" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P31" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3548,13 +3520,13 @@
         <v>1.6664386372964839</v>
       </c>
       <c r="N32" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O32" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P32" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3607,13 +3579,13 @@
         <v>0.94322673374056776</v>
       </c>
       <c r="N33" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O33" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P33" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3666,13 +3638,13 @@
         <v>0.68456123885499764</v>
       </c>
       <c r="N34" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O34" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P34" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5213,7 +5185,7 @@
   <sheetData>
     <row r="2" spans="2:16" ht="19" x14ac:dyDescent="0.2">
       <c r="B2" s="116" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="116"/>
       <c r="D2" s="116"/>
@@ -5232,52 +5204,52 @@
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="117" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" s="117" t="s">
-        <v>22</v>
       </c>
       <c r="D4" s="117"/>
       <c r="E4" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="G4" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="54" t="s">
+      <c r="I4" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="K4" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="L4" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="M4" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="H4" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="I4" s="55" t="s">
+      <c r="N4" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="J4" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="K4" s="59" t="s">
-        <v>94</v>
-      </c>
-      <c r="L4" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="M4" s="54" t="s">
+      <c r="O4" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="N4" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="O4" s="55" t="s">
+      <c r="P4" s="55" t="s">
         <v>88</v>
-      </c>
-      <c r="P4" s="55" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="118"/>
       <c r="D5" s="118"/>
@@ -5323,10 +5295,10 @@
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="72" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C6" s="82" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D6" s="83"/>
       <c r="E6" s="65">
@@ -5371,10 +5343,10 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="72" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C7" s="82" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D7" s="83"/>
       <c r="E7" s="65">
@@ -5428,10 +5400,10 @@
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="72" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C8" s="82" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D8" s="83"/>
       <c r="E8" s="65">
@@ -5485,10 +5457,10 @@
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="72" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C9" s="82" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D9" s="83"/>
       <c r="E9" s="65">
@@ -5542,10 +5514,10 @@
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="72" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C10" s="82" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D10" s="83"/>
       <c r="E10" s="65">
@@ -5616,7 +5588,7 @@
     </row>
     <row r="12" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -5652,54 +5624,54 @@
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="I14" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="10" t="s">
+      <c r="J14" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="O14" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="N14" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="O14" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="P14" s="41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B15" s="84" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="73">
         <f t="shared" ref="C15:C21" si="9">SUMIF($D$28:$D$925,$B$15:$B$21,$E$28:$E$925)</f>
@@ -5760,7 +5732,7 @@
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="84" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="73">
         <f t="shared" si="9"/>
@@ -5821,7 +5793,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B17" s="84" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="73">
         <f t="shared" si="9"/>
@@ -5882,7 +5854,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B18" s="84" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="73">
         <f t="shared" si="9"/>
@@ -5943,7 +5915,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B19" s="84" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="73">
         <f t="shared" si="9"/>
@@ -6004,7 +5976,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B20" s="84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="73">
         <f t="shared" si="9"/>
@@ -6065,7 +6037,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B21" s="84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="73">
         <f t="shared" si="9"/>
@@ -6130,7 +6102,7 @@
         <v>31</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="24">
         <f>SUM(C15:C21)</f>
@@ -6191,7 +6163,7 @@
     </row>
     <row r="24" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -6213,53 +6185,53 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B26" s="115" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="113" t="s">
         <v>21</v>
-      </c>
-      <c r="C26" s="113" t="s">
-        <v>22</v>
       </c>
       <c r="D26" s="114"/>
       <c r="E26" s="79" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="79" t="s">
+      <c r="G26" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="79" t="s">
-        <v>25</v>
-      </c>
       <c r="H26" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="K26" s="79" t="s">
+        <v>93</v>
+      </c>
+      <c r="L26" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="M26" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="J26" s="79" t="s">
-        <v>93</v>
-      </c>
-      <c r="K26" s="79" t="s">
-        <v>94</v>
-      </c>
-      <c r="L26" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="M26" s="38" t="s">
-        <v>15</v>
-      </c>
       <c r="N26" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="O26" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="O26" s="79" t="s">
+      <c r="P26" s="79" t="s">
         <v>63</v>
-      </c>
-      <c r="P26" s="79" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B27" s="115"/>
       <c r="C27" s="113" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D27" s="114"/>
       <c r="E27" s="67">
@@ -6299,24 +6271,24 @@
         <v>1.3735851835848889</v>
       </c>
       <c r="N27" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O27" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P27" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B28" s="78" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C28" s="70">
         <v>42736</v>
       </c>
       <c r="D28" s="78" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E28" s="73">
         <v>22389</v>
@@ -6350,24 +6322,24 @@
         <v>1.4720659426926599</v>
       </c>
       <c r="N28" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O28" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P28" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B29" s="80" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C29" s="70">
         <v>42737</v>
       </c>
       <c r="D29" s="78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E29" s="73">
         <v>27984</v>
@@ -6401,24 +6373,24 @@
         <v>1.4902417387447326</v>
       </c>
       <c r="N29" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O29" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P29" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B30" s="80" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C30" s="70">
         <v>42738</v>
       </c>
       <c r="D30" s="78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E30" s="73">
         <v>27049</v>
@@ -6452,24 +6424,24 @@
         <v>2.0618131868131866</v>
       </c>
       <c r="N30" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O30" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P30" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B31" s="80" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C31" s="70">
         <v>42739</v>
       </c>
       <c r="D31" s="78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E31" s="73">
         <v>25500</v>
@@ -6503,24 +6475,24 @@
         <v>1.0010751167067478</v>
       </c>
       <c r="N31" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O31" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P31" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="80" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C32" s="70">
         <v>42740</v>
       </c>
       <c r="D32" s="78" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E32" s="73">
         <v>24595</v>
@@ -6554,24 +6526,24 @@
         <v>1.6664386372964839</v>
       </c>
       <c r="N32" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O32" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P32" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B33" s="80" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C33" s="70">
         <v>42741</v>
       </c>
       <c r="D33" s="78" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E33" s="73">
         <v>20752</v>
@@ -6605,24 +6577,24 @@
         <v>0.94322673374056776</v>
       </c>
       <c r="N33" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O33" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P33" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="80" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C34" s="70">
         <v>42742</v>
       </c>
       <c r="D34" s="78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E34" s="73">
         <v>19111</v>
@@ -6656,24 +6628,24 @@
         <v>0.68456123885499764</v>
       </c>
       <c r="N34" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O34" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P34" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B35" s="80" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C35" s="70">
         <v>42743</v>
       </c>
       <c r="D35" s="78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E35" s="73">
         <v>23370</v>
@@ -6721,13 +6693,13 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B36" s="80" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C36" s="70">
         <v>42744</v>
       </c>
       <c r="D36" s="78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E36" s="73">
         <v>26499</v>
@@ -6775,13 +6747,13 @@
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="80" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C37" s="70">
         <v>42745</v>
       </c>
       <c r="D37" s="78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E37" s="73">
         <v>26091</v>
@@ -6829,13 +6801,13 @@
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="80" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C38" s="70">
         <v>42746</v>
       </c>
       <c r="D38" s="78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E38" s="73">
         <v>24855</v>
@@ -6883,13 +6855,13 @@
     </row>
     <row r="39" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="80" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C39" s="70">
         <v>42747</v>
       </c>
       <c r="D39" s="78" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E39" s="73">
         <v>30123</v>
@@ -6937,13 +6909,13 @@
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B40" s="80" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C40" s="70">
         <v>42748</v>
       </c>
       <c r="D40" s="78" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E40" s="73">
         <v>21475</v>
@@ -6991,13 +6963,13 @@
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B41" s="80" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C41" s="70">
         <v>42749</v>
       </c>
       <c r="D41" s="78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E41" s="73">
         <v>21799</v>
@@ -7045,13 +7017,13 @@
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="80" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C42" s="70">
         <v>42750</v>
       </c>
       <c r="D42" s="78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E42" s="73">
         <v>26124</v>
@@ -7099,13 +7071,13 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B43" s="80" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C43" s="70">
         <v>42751</v>
       </c>
       <c r="D43" s="78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E43" s="73">
         <v>25195</v>
@@ -7153,13 +7125,13 @@
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B44" s="80" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C44" s="70">
         <v>42752</v>
       </c>
       <c r="D44" s="78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E44" s="73">
         <v>25831</v>
@@ -7207,13 +7179,13 @@
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B45" s="80" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C45" s="70">
         <v>42753</v>
       </c>
       <c r="D45" s="78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E45" s="73">
         <v>25122</v>
@@ -7261,13 +7233,13 @@
     </row>
     <row r="46" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="80" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C46" s="70">
         <v>42754</v>
       </c>
       <c r="D46" s="78" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E46" s="73">
         <v>24869</v>
@@ -7315,13 +7287,13 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B47" s="80" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C47" s="70">
         <v>42755</v>
       </c>
       <c r="D47" s="78" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E47" s="73">
         <v>22460</v>
@@ -7369,13 +7341,13 @@
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B48" s="80" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C48" s="70">
         <v>42756</v>
       </c>
       <c r="D48" s="78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E48" s="73">
         <v>19910</v>
@@ -7423,13 +7395,13 @@
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B49" s="80" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C49" s="70">
         <v>42757</v>
       </c>
       <c r="D49" s="78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E49" s="73">
         <v>22363</v>
@@ -7477,13 +7449,13 @@
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B50" s="80" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C50" s="70">
         <v>42758</v>
       </c>
       <c r="D50" s="78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E50" s="73">
         <v>24449</v>
@@ -7531,13 +7503,13 @@
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B51" s="80" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C51" s="70">
         <v>42759</v>
       </c>
       <c r="D51" s="78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E51" s="73">
         <v>11412</v>
@@ -7585,13 +7557,13 @@
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B52" s="80" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C52" s="70">
         <v>42760</v>
       </c>
       <c r="D52" s="78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E52" s="73">
         <v>18662</v>
@@ -7639,13 +7611,13 @@
     </row>
     <row r="53" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="80" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C53" s="70">
         <v>42761</v>
       </c>
       <c r="D53" s="78" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E53" s="73">
         <v>17086</v>
@@ -7693,13 +7665,13 @@
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B54" s="80" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C54" s="70">
         <v>42762</v>
       </c>
       <c r="D54" s="78" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E54" s="73">
         <v>15653</v>
@@ -7747,13 +7719,13 @@
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B55" s="80" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C55" s="70">
         <v>42763</v>
       </c>
       <c r="D55" s="78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E55" s="73">
         <v>18579</v>
@@ -7801,13 +7773,13 @@
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B56" s="80" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C56" s="70">
         <v>42764</v>
       </c>
       <c r="D56" s="78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E56" s="73">
         <v>30095</v>
@@ -7855,13 +7827,13 @@
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B57" s="80" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C57" s="70">
         <v>42765</v>
       </c>
       <c r="D57" s="78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E57" s="73">
         <v>30954</v>
@@ -7909,13 +7881,13 @@
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B58" s="80" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C58" s="70">
         <v>42766</v>
       </c>
       <c r="D58" s="78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E58" s="73">
         <v>29710</v>
@@ -8005,7 +7977,7 @@
   <sheetData>
     <row r="2" spans="2:12" ht="19" x14ac:dyDescent="0.2">
       <c r="B2" s="116" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" s="116"/>
       <c r="D2" s="116"/>
@@ -8031,42 +8003,42 @@
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D6" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="F6" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="36" t="s">
-        <v>25</v>
-      </c>
       <c r="G6" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" s="36" t="s">
         <v>14</v>
-      </c>
-      <c r="H6" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="I6" s="59" t="s">
-        <v>94</v>
-      </c>
-      <c r="J6" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="K6" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="L6" s="36" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="46">
         <v>882240912</v>
@@ -8135,7 +8107,7 @@
   <sheetData>
     <row r="2" spans="2:14" ht="19" x14ac:dyDescent="0.2">
       <c r="B2" s="116" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="116"/>
       <c r="D2" s="116"/>
@@ -8159,53 +8131,53 @@
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="H5" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="I5" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="15" t="s">
-        <v>50</v>
-      </c>
       <c r="J5" s="55" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K5" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="L5" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="L5" s="59" t="s">
-        <v>95</v>
-      </c>
       <c r="M5" s="59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="120" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="121"/>
       <c r="D6" s="122"/>
       <c r="E6" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F6" s="17">
         <f>SUM(F7:F1048576)</f>
@@ -8246,16 +8218,16 @@
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" s="72" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C7" s="72">
         <v>891851116</v>
       </c>
       <c r="D7" s="72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="72" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F7" s="65">
         <v>6600</v>
@@ -8335,7 +8307,7 @@
   <sheetData>
     <row r="2" spans="2:16" ht="19" x14ac:dyDescent="0.2">
       <c r="B2" s="116" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="116"/>
       <c r="D2" s="116"/>
@@ -8354,52 +8326,52 @@
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="117" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" s="117" t="s">
-        <v>22</v>
       </c>
       <c r="D4" s="117"/>
       <c r="E4" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="G4" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="I4" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="K4" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="L4" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="M4" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="H4" s="62" t="s">
-        <v>85</v>
-      </c>
-      <c r="I4" s="62" t="s">
+      <c r="N4" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="J4" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="K4" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="L4" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="M4" s="60" t="s">
+      <c r="O4" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="N4" s="60" t="s">
-        <v>91</v>
-      </c>
-      <c r="O4" s="60" t="s">
+      <c r="P4" s="60" t="s">
         <v>88</v>
-      </c>
-      <c r="P4" s="60" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="118"/>
       <c r="D5" s="118"/>
@@ -8445,10 +8417,10 @@
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="72" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C6" s="82" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D6" s="83"/>
       <c r="E6" s="12">
@@ -8493,10 +8465,10 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="72" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C7" s="82" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D7" s="83"/>
       <c r="E7" s="12">
@@ -8550,10 +8522,10 @@
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="72" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C8" s="82" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D8" s="83"/>
       <c r="E8" s="12">
@@ -8607,10 +8579,10 @@
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="72" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C9" s="82" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D9" s="83"/>
       <c r="E9" s="12">
@@ -8664,10 +8636,10 @@
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="72" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C10" s="82" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D10" s="83"/>
       <c r="E10" s="12">
@@ -8738,7 +8710,7 @@
     </row>
     <row r="12" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -8774,54 +8746,54 @@
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="I14" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="10" t="s">
+      <c r="J14" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="O14" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="N14" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="O14" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="P14" s="41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B15" s="84" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="73">
         <f t="shared" ref="C15:C21" si="9">SUMIF($D$28:$D$925,$B$15:$B$21,$E$28:$E$925)</f>
@@ -8882,7 +8854,7 @@
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="84" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="73">
         <f t="shared" si="9"/>
@@ -8943,7 +8915,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B17" s="84" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="73">
         <f t="shared" si="9"/>
@@ -9004,7 +8976,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B18" s="84" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="73">
         <f t="shared" si="9"/>
@@ -9065,7 +9037,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B19" s="84" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="73">
         <f t="shared" si="9"/>
@@ -9126,7 +9098,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B20" s="84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="73">
         <f t="shared" si="9"/>
@@ -9187,7 +9159,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B21" s="84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="73">
         <f t="shared" si="9"/>
@@ -9252,7 +9224,7 @@
         <v>31</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="24">
         <f>SUM(C15:C21)</f>
@@ -9313,7 +9285,7 @@
     </row>
     <row r="24" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -9335,53 +9307,53 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B26" s="115" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="113" t="s">
         <v>21</v>
-      </c>
-      <c r="C26" s="113" t="s">
-        <v>22</v>
       </c>
       <c r="D26" s="114"/>
       <c r="E26" s="79" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="79" t="s">
+      <c r="G26" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="79" t="s">
-        <v>25</v>
-      </c>
       <c r="H26" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="K26" s="79" t="s">
+        <v>93</v>
+      </c>
+      <c r="L26" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="M26" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="J26" s="79" t="s">
-        <v>93</v>
-      </c>
-      <c r="K26" s="79" t="s">
-        <v>94</v>
-      </c>
-      <c r="L26" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="M26" s="38" t="s">
-        <v>15</v>
-      </c>
       <c r="N26" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="O26" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="O26" s="79" t="s">
+      <c r="P26" s="79" t="s">
         <v>63</v>
-      </c>
-      <c r="P26" s="79" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B27" s="115"/>
       <c r="C27" s="113" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D27" s="114"/>
       <c r="E27" s="67">
@@ -9421,24 +9393,24 @@
         <v>1.3735851835848889</v>
       </c>
       <c r="N27" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O27" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P27" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B28" s="78" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C28" s="70">
         <v>42736</v>
       </c>
       <c r="D28" s="78" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E28" s="73">
         <v>22389</v>
@@ -9472,13 +9444,13 @@
         <v>1.4720659426926599</v>
       </c>
       <c r="N28" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O28" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P28" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
@@ -9487,7 +9459,7 @@
         <v>42737</v>
       </c>
       <c r="D29" s="78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E29" s="73">
         <v>27984</v>
@@ -9521,13 +9493,13 @@
         <v>1.4902417387447326</v>
       </c>
       <c r="N29" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O29" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P29" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
@@ -9536,7 +9508,7 @@
         <v>42738</v>
       </c>
       <c r="D30" s="78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E30" s="73">
         <v>27049</v>
@@ -9570,13 +9542,13 @@
         <v>2.0618131868131866</v>
       </c>
       <c r="N30" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O30" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P30" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
@@ -9585,7 +9557,7 @@
         <v>42739</v>
       </c>
       <c r="D31" s="78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E31" s="73">
         <v>25500</v>
@@ -9619,13 +9591,13 @@
         <v>1.0010751167067478</v>
       </c>
       <c r="N31" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O31" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P31" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
@@ -9634,7 +9606,7 @@
         <v>42740</v>
       </c>
       <c r="D32" s="78" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E32" s="73">
         <v>24595</v>
@@ -9668,13 +9640,13 @@
         <v>1.6664386372964839</v>
       </c>
       <c r="N32" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O32" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P32" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
@@ -9683,7 +9655,7 @@
         <v>42741</v>
       </c>
       <c r="D33" s="78" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E33" s="73">
         <v>20752</v>
@@ -9717,13 +9689,13 @@
         <v>0.94322673374056776</v>
       </c>
       <c r="N33" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O33" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P33" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
@@ -9732,7 +9704,7 @@
         <v>42742</v>
       </c>
       <c r="D34" s="78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E34" s="73">
         <v>19111</v>
@@ -9766,13 +9738,13 @@
         <v>0.68456123885499764</v>
       </c>
       <c r="N34" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O34" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P34" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
@@ -9781,7 +9753,7 @@
         <v>42743</v>
       </c>
       <c r="D35" s="78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E35" s="73">
         <v>23370</v>
@@ -9833,7 +9805,7 @@
         <v>42744</v>
       </c>
       <c r="D36" s="78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E36" s="73">
         <v>26499</v>
@@ -9885,7 +9857,7 @@
         <v>42745</v>
       </c>
       <c r="D37" s="78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E37" s="73">
         <v>26091</v>
@@ -9937,7 +9909,7 @@
         <v>42746</v>
       </c>
       <c r="D38" s="78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E38" s="73">
         <v>24855</v>
@@ -9989,7 +9961,7 @@
         <v>42747</v>
       </c>
       <c r="D39" s="78" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E39" s="73">
         <v>30123</v>
@@ -10041,7 +10013,7 @@
         <v>42748</v>
       </c>
       <c r="D40" s="78" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E40" s="73">
         <v>21475</v>
@@ -10093,7 +10065,7 @@
         <v>42749</v>
       </c>
       <c r="D41" s="78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E41" s="73">
         <v>21799</v>
@@ -10145,7 +10117,7 @@
         <v>42750</v>
       </c>
       <c r="D42" s="78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E42" s="73">
         <v>26124</v>
@@ -10197,7 +10169,7 @@
         <v>42751</v>
       </c>
       <c r="D43" s="78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E43" s="73">
         <v>25195</v>
@@ -10249,7 +10221,7 @@
         <v>42752</v>
       </c>
       <c r="D44" s="78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E44" s="73">
         <v>25831</v>
@@ -10301,7 +10273,7 @@
         <v>42753</v>
       </c>
       <c r="D45" s="78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E45" s="73">
         <v>25122</v>
@@ -10353,7 +10325,7 @@
         <v>42754</v>
       </c>
       <c r="D46" s="78" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E46" s="73">
         <v>24869</v>
@@ -10405,7 +10377,7 @@
         <v>42755</v>
       </c>
       <c r="D47" s="78" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E47" s="73">
         <v>22460</v>
@@ -10457,7 +10429,7 @@
         <v>42756</v>
       </c>
       <c r="D48" s="78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E48" s="73">
         <v>19910</v>
@@ -10509,7 +10481,7 @@
         <v>42757</v>
       </c>
       <c r="D49" s="78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E49" s="73">
         <v>22363</v>
@@ -10561,7 +10533,7 @@
         <v>42758</v>
       </c>
       <c r="D50" s="78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E50" s="73">
         <v>24449</v>
@@ -10613,7 +10585,7 @@
         <v>42759</v>
       </c>
       <c r="D51" s="78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E51" s="73">
         <v>11412</v>
@@ -10665,7 +10637,7 @@
         <v>42760</v>
       </c>
       <c r="D52" s="78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E52" s="73">
         <v>18662</v>
@@ -10717,7 +10689,7 @@
         <v>42761</v>
       </c>
       <c r="D53" s="78" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E53" s="73">
         <v>17086</v>
@@ -10769,7 +10741,7 @@
         <v>42762</v>
       </c>
       <c r="D54" s="78" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E54" s="73">
         <v>15653</v>
@@ -10821,7 +10793,7 @@
         <v>42763</v>
       </c>
       <c r="D55" s="78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E55" s="73">
         <v>18579</v>
@@ -10873,7 +10845,7 @@
         <v>42764</v>
       </c>
       <c r="D56" s="78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E56" s="73">
         <v>30095</v>
@@ -10925,7 +10897,7 @@
         <v>42765</v>
       </c>
       <c r="D57" s="78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E57" s="73">
         <v>30954</v>
@@ -10977,7 +10949,7 @@
         <v>42766</v>
       </c>
       <c r="D58" s="78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E58" s="73">
         <v>29710</v>
@@ -11061,7 +11033,7 @@
   <sheetData>
     <row r="2" spans="2:12" ht="19" x14ac:dyDescent="0.2">
       <c r="B2" s="116" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="116"/>
       <c r="D2" s="116"/>
@@ -11087,45 +11059,45 @@
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="47" t="s">
+      <c r="E6" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="F6" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="G6" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="H6" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" s="47" t="s">
         <v>75</v>
-      </c>
-      <c r="H6" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="I6" s="59" t="s">
-        <v>94</v>
-      </c>
-      <c r="J6" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="K6" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="L6" s="47" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D7" s="21">
         <v>36313</v>
@@ -11190,7 +11162,7 @@
   <sheetData>
     <row r="2" spans="2:14" ht="19" x14ac:dyDescent="0.2">
       <c r="B2" s="116" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="116"/>
       <c r="D2" s="116"/>
@@ -11215,53 +11187,53 @@
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="G5" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="H5" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="I5" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="45" t="s">
-        <v>50</v>
-      </c>
       <c r="J5" s="55" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K5" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="L5" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="L5" s="59" t="s">
-        <v>95</v>
-      </c>
       <c r="M5" s="59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N5" s="45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="120" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="121"/>
       <c r="D6" s="122"/>
       <c r="E6" s="45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F6" s="17">
         <f>SUM(F7:F1048576)</f>
@@ -11302,16 +11274,16 @@
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" s="72" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C7" s="72" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D7" s="72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="72" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F7" s="65">
         <v>3495</v>
